--- a/src/main/resources/ICBC-DATA.xlsx
+++ b/src/main/resources/ICBC-DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\AICP\ICBC\WebHook\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B20E57-6A71-4CF7-BA4B-D3AED4EBF596}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9F646B-DF34-4D4F-87C9-6E8D2BA79B47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="核身流程-身份信息" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>姓名</t>
   </si>
@@ -134,6 +134,14 @@
   </si>
   <si>
     <t>欠款金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -787,55 +795,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C9EB0D-85D9-47ED-B377-7DA30201B995}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.875" customWidth="1"/>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="3" width="31.25" customWidth="1"/>
-    <col min="4" max="4" width="27.125" customWidth="1"/>
+    <col min="1" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="31.25" customWidth="1"/>
+    <col min="5" max="5" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
+    <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="6">
         <v>13012345678</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="6">
+      <c r="F2" s="6">
         <v>15000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/ICBC-DATA.xlsx
+++ b/src/main/resources/ICBC-DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\AICP\ICBC\WebHook\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9F646B-DF34-4D4F-87C9-6E8D2BA79B47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A261272-560D-4A25-A888-EE1A5E6E0A57}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="375" yWindow="375" windowWidth="20130" windowHeight="10710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="核身流程-身份信息" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>姓名</t>
   </si>
@@ -142,6 +142,30 @@
   </si>
   <si>
     <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6212261001080770001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4270000056781235</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6212261001080770004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORD12346</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6212261001080770002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -795,10 +819,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C9EB0D-85D9-47ED-B377-7DA30201B995}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -849,6 +873,66 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="6">
+        <v>13012345678</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="6">
+        <v>150001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6">
+        <v>13012345679</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="6">
+        <v>150002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6">
+        <v>13012345678</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="6">
+        <v>150003</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/ICBC-DATA.xlsx
+++ b/src/main/resources/ICBC-DATA.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\AICP\ICBC\WebHook\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A261272-560D-4A25-A888-EE1A5E6E0A57}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EF8383-0226-4782-908E-564DA54CB9C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="375" windowWidth="20130" windowHeight="10710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4890" yWindow="2745" windowWidth="20130" windowHeight="10710" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="核身流程-身份信息" sheetId="3" r:id="rId1"/>
     <sheet name="账单分期信息" sheetId="4" r:id="rId2"/>
+    <sheet name="吞卡信息" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
   <si>
     <t>姓名</t>
   </si>
@@ -166,6 +167,66 @@
   </si>
   <si>
     <t>6212261001080770002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市西城区南礼士路56号北京儿童医院一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南礼士路礼士路支行 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月29日08:48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1101111988080887341113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6222020100123456789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机具编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机具位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理网点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吞卡时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1101111988080887341114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6222020100123456787</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1101111988080887341115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6222020100123456786</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -243,7 +304,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -270,6 +331,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -821,9 +885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C9EB0D-85D9-47ED-B377-7DA30201B995}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -938,4 +1000,135 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CC4714-938C-4DED-8249-15DA7AA69E8A}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="22.25" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75">
+      <c r="A1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="27.75" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="5">
+        <v>13012345678</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2002127</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="27.75" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="5">
+        <v>13012345679</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2002126</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="27.75" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="5">
+        <v>13012345677</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2002127</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/ICBC-DATA.xlsx
+++ b/src/main/resources/ICBC-DATA.xlsx
@@ -8,21 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\AICP\ICBC\WebHook\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EF8383-0226-4782-908E-564DA54CB9C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A87F81F-137A-4209-B896-3C3D59B2E39E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="2745" windowWidth="20130" windowHeight="10710" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="核身流程-身份信息" sheetId="3" r:id="rId1"/>
+    <sheet name="信用卡催收外呼信息" sheetId="3" r:id="rId1"/>
     <sheet name="账单分期信息" sheetId="4" r:id="rId2"/>
     <sheet name="吞卡信息" sheetId="5" r:id="rId3"/>
+    <sheet name="分期信息" sheetId="7" r:id="rId4"/>
+    <sheet name="储蓄卡挂失信息" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="190">
   <si>
     <t>姓名</t>
   </si>
@@ -106,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>还款试试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PASSWORD12345</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,10 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1101111988080887341113</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6222020100123456789</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,19 +215,528 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1101111988080887341114</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6222020100123456787</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1101111988080887341115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6222020100123456786</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李建莉</t>
+  </si>
+  <si>
+    <t>李宝晶</t>
+  </si>
+  <si>
+    <t>王晓蕾</t>
+  </si>
+  <si>
+    <t>刘二军</t>
+  </si>
+  <si>
+    <t>解非</t>
+  </si>
+  <si>
+    <t>李超兴</t>
+  </si>
+  <si>
+    <t>110111198808088734</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110111198808088735</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110111198808088736</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠市口虎坊路支行</t>
+  </si>
+  <si>
+    <t>开发区支行</t>
+  </si>
+  <si>
+    <t>6258212025025025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13312345677</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭富城</t>
+  </si>
+  <si>
+    <t>身份证</t>
+  </si>
+  <si>
+    <t>灵通卡（卡折合一）</t>
+  </si>
+  <si>
+    <t>德胜门支行</t>
+  </si>
+  <si>
+    <t>北京市朝阳区德胜门外大街99号</t>
+  </si>
+  <si>
+    <t>活期基本户（存折）</t>
+  </si>
+  <si>
+    <t>蔡文姬</t>
+  </si>
+  <si>
+    <t>军官证</t>
+  </si>
+  <si>
+    <t>e时代</t>
+  </si>
+  <si>
+    <t>方庄支行</t>
+  </si>
+  <si>
+    <t>北京市海淀区北四环西路65号</t>
+  </si>
+  <si>
+    <t>定期一本通</t>
+  </si>
+  <si>
+    <t>子账户</t>
+  </si>
+  <si>
+    <t>注销</t>
+  </si>
+  <si>
+    <t>刘德华</t>
+  </si>
+  <si>
+    <t>望京公园支行</t>
+  </si>
+  <si>
+    <t>北京市西城区西直门外大街甲5号</t>
+  </si>
+  <si>
+    <t>大山子分理处</t>
+  </si>
+  <si>
+    <t>酒仙桥车站路储蓄所</t>
+  </si>
+  <si>
+    <t>前门大街储蓄所</t>
+  </si>
+  <si>
+    <t>110101198908080000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>军字第10021315</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6222020100123450000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>200147258396093000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6222020200112340000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>200012345678987000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>200012312312312000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6222020300123450000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6222020400123450000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>110102199010010000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statementDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>durationPeriod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalPrincipalInterest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minimumPayment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optimalPayment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardingArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repaymentDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idCardNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overdraft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>machineNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eatLocation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eatTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instalment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initialPrincipal3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthlyPrincipal3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initialCharges3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthlyCharges3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalrate3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initialPrincipal6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthlyPrincipal6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initialCharges6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthlyCharges6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalrate6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initialPrincipal9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthlyPrincipal9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initialCharges9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthlyCharges9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalrate9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initialPrincipal12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthlyPrincipal12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initialCharges12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthlyCharges12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalrate12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initialPrincipal18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthlyPrincipal18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initialCharges18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthlyCharges18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalrate18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initialPrincipal24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthlyPrincipal24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initialCharges24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthlyCharges24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalrate24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateBirth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可分期金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首期本金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月均需还本金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首期需还手续费（分期收取时）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月均需还手续费（分期收取时）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总手续费
+（首期收取时）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡/账户类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>certificateType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>certificateId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountOpeningDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>familyAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountBalance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1997/1/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1997/1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1996/5/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1997/3/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1965/7/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1958/6/19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -234,7 +744,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -260,8 +770,34 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,8 +810,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -298,13 +840,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -334,6 +924,54 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,121 +1319,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
+    <col min="1" max="1" width="13.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="21.5" style="1" customWidth="1"/>
-    <col min="4" max="7" width="9" style="1"/>
-    <col min="8" max="9" width="10.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.375" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
     <col min="12" max="12" width="9.75" style="1" customWidth="1"/>
-    <col min="13" max="14" width="9" style="1"/>
+    <col min="13" max="13" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="27">
+      <c r="A2" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1">
-        <v>15000</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1500</v>
-      </c>
-      <c r="I2" s="1">
-        <v>15000</v>
-      </c>
-      <c r="J2" s="1">
-        <v>13012345678</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -807,19 +1444,19 @@
         <v>18</v>
       </c>
       <c r="G3" s="1">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="H3" s="1">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="J3" s="1">
-        <v>13112345678</v>
+        <v>13012345678</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>20</v>
@@ -827,19 +1464,16 @@
       <c r="M3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="4" t="s">
-        <v>26</v>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
@@ -851,19 +1485,19 @@
         <v>18</v>
       </c>
       <c r="G4" s="1">
-        <v>150001</v>
+        <v>20000</v>
       </c>
       <c r="H4" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="I4" s="1">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="J4" s="1">
-        <v>13012345678</v>
+        <v>13112345678</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>20</v>
@@ -871,21 +1505,62 @@
       <c r="M4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1">
+        <v>150001</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1500</v>
+      </c>
+      <c r="I5" s="1">
+        <v>15000</v>
+      </c>
+      <c r="J5" s="1">
+        <v>13012345678</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C9EB0D-85D9-47ED-B377-7DA30201B995}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="A1:F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -893,46 +1568,47 @@
     <col min="3" max="3" width="25.125" customWidth="1"/>
     <col min="4" max="4" width="31.25" customWidth="1"/>
     <col min="5" max="5" width="27.125" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6">
-        <v>13012345678</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="6">
-        <v>15000</v>
+      <c r="A2" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -940,58 +1616,78 @@
         <v>13012345678</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="6">
-        <v>150001</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6">
-        <v>13012345679</v>
+        <v>13012345678</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="6">
-        <v>150002</v>
+        <v>150001</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6">
+        <v>13012345679</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="6">
+        <v>150002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6">
         <v>13012345678</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="F6" s="6">
         <v>150003</v>
       </c>
     </row>
@@ -1004,10 +1700,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CC4714-938C-4DED-8249-15DA7AA69E8A}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="A1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1016,114 +1712,140 @@
     <col min="2" max="2" width="22.875" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="22.25" customWidth="1"/>
-    <col min="5" max="5" width="10.875" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="46.125" customWidth="1"/>
+    <col min="7" max="7" width="27.875" customWidth="1"/>
     <col min="8" max="8" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
-      <c r="A1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:8" ht="14.25" thickBot="1">
+      <c r="A1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="5">
-        <v>13012345678</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="5">
-        <v>2002127</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>45</v>
+    </row>
+    <row r="2" spans="1:8" ht="14.25" thickTop="1">
+      <c r="A2" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27.75" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C3" s="5">
-        <v>13012345679</v>
+        <v>13012345678</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E3" s="5">
-        <v>2002126</v>
+        <v>2002127</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="27.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C4" s="5">
+        <v>13012345679</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2002126</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="27.75" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="5">
         <v>13012345677</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="5">
         <v>2002127</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1131,4 +1853,1586 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE72EEFD-0F28-41BD-80B6-AE746FF870AE}">
+  <dimension ref="A1:AP10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="29.375" customWidth="1"/>
+    <col min="41" max="41" width="21.75" customWidth="1"/>
+    <col min="42" max="42" width="16.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42">
+      <c r="A1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+    </row>
+    <row r="2" spans="1:42" ht="54">
+      <c r="A2" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="T2" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="U2" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="V2" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="W2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="X2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y2" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z2" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA2" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB2" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE2" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF2" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG2" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH2" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK2" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL2" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM2" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="AN2" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="AO2" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP2" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="40.5">
+      <c r="A3" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="T3" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="U3" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="V3" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="W3" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="X3" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y3" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z3" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA3" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB3" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC3" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD3" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE3" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF3" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG3" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH3" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI3" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ3" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK3" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL3" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM3" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN3" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO3" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP3" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" ht="16.5" thickBot="1">
+      <c r="A4" s="10">
+        <v>4135001122334690</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="11">
+        <v>10000</v>
+      </c>
+      <c r="E4" s="11">
+        <v>3334</v>
+      </c>
+      <c r="F4" s="11">
+        <v>3333</v>
+      </c>
+      <c r="G4" s="11">
+        <v>73</v>
+      </c>
+      <c r="H4" s="11">
+        <v>72</v>
+      </c>
+      <c r="I4" s="12">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="J4" s="13">
+        <v>217</v>
+      </c>
+      <c r="K4" s="13">
+        <v>1670</v>
+      </c>
+      <c r="L4" s="13">
+        <v>1666</v>
+      </c>
+      <c r="M4" s="13">
+        <v>65</v>
+      </c>
+      <c r="N4" s="13">
+        <v>63</v>
+      </c>
+      <c r="O4" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="P4" s="13">
+        <v>380</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>1112</v>
+      </c>
+      <c r="R4" s="13">
+        <v>1111</v>
+      </c>
+      <c r="S4" s="13">
+        <v>62</v>
+      </c>
+      <c r="T4" s="13">
+        <v>60</v>
+      </c>
+      <c r="U4" s="12">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="V4" s="13">
+        <v>542</v>
+      </c>
+      <c r="W4" s="13">
+        <v>837</v>
+      </c>
+      <c r="X4" s="13">
+        <v>833</v>
+      </c>
+      <c r="Y4" s="13">
+        <v>67</v>
+      </c>
+      <c r="Z4" s="13">
+        <v>58</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="AB4" s="13">
+        <v>705</v>
+      </c>
+      <c r="AC4" s="13">
+        <v>565</v>
+      </c>
+      <c r="AD4" s="13">
+        <v>555</v>
+      </c>
+      <c r="AE4" s="13">
+        <v>71</v>
+      </c>
+      <c r="AF4" s="13">
+        <v>62</v>
+      </c>
+      <c r="AG4" s="12">
+        <v>0.1125</v>
+      </c>
+      <c r="AH4" s="13">
+        <v>1125</v>
+      </c>
+      <c r="AI4" s="13">
+        <v>432</v>
+      </c>
+      <c r="AJ4" s="13">
+        <v>416</v>
+      </c>
+      <c r="AK4" s="13">
+        <v>77</v>
+      </c>
+      <c r="AL4" s="13">
+        <v>61</v>
+      </c>
+      <c r="AM4" s="12">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AN4" s="13">
+        <v>1480</v>
+      </c>
+      <c r="AO4" s="14">
+        <v>13312345678</v>
+      </c>
+      <c r="AP4" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A5" s="10">
+        <v>5309000000005570</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="11">
+        <v>20000</v>
+      </c>
+      <c r="E5" s="11">
+        <v>6668</v>
+      </c>
+      <c r="F5" s="11">
+        <v>6666</v>
+      </c>
+      <c r="G5" s="11">
+        <v>146</v>
+      </c>
+      <c r="H5" s="11">
+        <v>144</v>
+      </c>
+      <c r="I5" s="12">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="J5" s="13">
+        <v>434</v>
+      </c>
+      <c r="K5" s="13">
+        <v>3334</v>
+      </c>
+      <c r="L5" s="13">
+        <v>3333</v>
+      </c>
+      <c r="M5" s="13">
+        <v>130</v>
+      </c>
+      <c r="N5" s="13">
+        <v>126</v>
+      </c>
+      <c r="O5" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="P5" s="13">
+        <v>760</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>2224</v>
+      </c>
+      <c r="R5" s="13">
+        <v>2222</v>
+      </c>
+      <c r="S5" s="13">
+        <v>124</v>
+      </c>
+      <c r="T5" s="13">
+        <v>120</v>
+      </c>
+      <c r="U5" s="12">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="V5" s="13">
+        <v>1084</v>
+      </c>
+      <c r="W5" s="13">
+        <v>1674</v>
+      </c>
+      <c r="X5" s="13">
+        <v>1666</v>
+      </c>
+      <c r="Y5" s="13">
+        <v>123</v>
+      </c>
+      <c r="Z5" s="13">
+        <v>117</v>
+      </c>
+      <c r="AA5" s="12">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="AB5" s="13">
+        <v>1410</v>
+      </c>
+      <c r="AC5" s="13">
+        <v>1113</v>
+      </c>
+      <c r="AD5" s="13">
+        <v>1111</v>
+      </c>
+      <c r="AE5" s="13">
+        <v>125</v>
+      </c>
+      <c r="AF5" s="13">
+        <v>125</v>
+      </c>
+      <c r="AG5" s="12">
+        <v>0.1125</v>
+      </c>
+      <c r="AH5" s="13">
+        <v>2250</v>
+      </c>
+      <c r="AI5" s="13">
+        <v>841</v>
+      </c>
+      <c r="AJ5" s="13">
+        <v>833</v>
+      </c>
+      <c r="AK5" s="13">
+        <v>131</v>
+      </c>
+      <c r="AL5" s="13">
+        <v>123</v>
+      </c>
+      <c r="AM5" s="12">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AN5" s="13">
+        <v>2960</v>
+      </c>
+      <c r="AO5" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP5" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A6" s="10">
+        <v>4135000000004690</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="11">
+        <v>30000</v>
+      </c>
+      <c r="E6" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F6" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G6" s="11">
+        <v>217</v>
+      </c>
+      <c r="H6" s="11">
+        <v>217</v>
+      </c>
+      <c r="I6" s="12">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="J6" s="13">
+        <v>651</v>
+      </c>
+      <c r="K6" s="13">
+        <v>5000</v>
+      </c>
+      <c r="L6" s="13">
+        <v>5000</v>
+      </c>
+      <c r="M6" s="13">
+        <v>190</v>
+      </c>
+      <c r="N6" s="13">
+        <v>190</v>
+      </c>
+      <c r="O6" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="P6" s="13">
+        <v>1140</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>3334</v>
+      </c>
+      <c r="R6" s="13">
+        <v>3333</v>
+      </c>
+      <c r="S6" s="13">
+        <v>186</v>
+      </c>
+      <c r="T6" s="13">
+        <v>180</v>
+      </c>
+      <c r="U6" s="12">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="V6" s="13">
+        <v>1626</v>
+      </c>
+      <c r="W6" s="13">
+        <v>2500</v>
+      </c>
+      <c r="X6" s="13">
+        <v>2500</v>
+      </c>
+      <c r="Y6" s="13">
+        <v>179</v>
+      </c>
+      <c r="Z6" s="13">
+        <v>176</v>
+      </c>
+      <c r="AA6" s="12">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="AB6" s="13">
+        <v>2115</v>
+      </c>
+      <c r="AC6" s="13">
+        <v>1678</v>
+      </c>
+      <c r="AD6" s="13">
+        <v>1666</v>
+      </c>
+      <c r="AE6" s="13">
+        <v>196</v>
+      </c>
+      <c r="AF6" s="13">
+        <v>187</v>
+      </c>
+      <c r="AG6" s="12">
+        <v>0.1125</v>
+      </c>
+      <c r="AH6" s="13">
+        <v>3375</v>
+      </c>
+      <c r="AI6" s="13">
+        <v>1250</v>
+      </c>
+      <c r="AJ6" s="13">
+        <v>1250</v>
+      </c>
+      <c r="AK6" s="13">
+        <v>185</v>
+      </c>
+      <c r="AL6" s="13">
+        <v>185</v>
+      </c>
+      <c r="AM6" s="12">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AN6" s="13">
+        <v>4440</v>
+      </c>
+      <c r="AO6" s="14">
+        <v>13312345676</v>
+      </c>
+      <c r="AP6" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A7" s="10">
+        <v>5309000000005570</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="11">
+        <v>40000</v>
+      </c>
+      <c r="E7" s="11">
+        <v>13334</v>
+      </c>
+      <c r="F7" s="11">
+        <v>13333</v>
+      </c>
+      <c r="G7" s="11">
+        <v>290</v>
+      </c>
+      <c r="H7" s="11">
+        <v>289</v>
+      </c>
+      <c r="I7" s="12">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="J7" s="13">
+        <v>868</v>
+      </c>
+      <c r="K7" s="13">
+        <v>6670</v>
+      </c>
+      <c r="L7" s="13">
+        <v>6666</v>
+      </c>
+      <c r="M7" s="13">
+        <v>255</v>
+      </c>
+      <c r="N7" s="13">
+        <v>253</v>
+      </c>
+      <c r="O7" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="P7" s="13">
+        <v>1520</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>4448</v>
+      </c>
+      <c r="R7" s="13">
+        <v>4444</v>
+      </c>
+      <c r="S7" s="13">
+        <v>248</v>
+      </c>
+      <c r="T7" s="13">
+        <v>240</v>
+      </c>
+      <c r="U7" s="12">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="V7" s="13">
+        <v>2168</v>
+      </c>
+      <c r="W7" s="13">
+        <v>3337</v>
+      </c>
+      <c r="X7" s="13">
+        <v>3333</v>
+      </c>
+      <c r="Y7" s="13">
+        <v>235</v>
+      </c>
+      <c r="Z7" s="13">
+        <v>235</v>
+      </c>
+      <c r="AA7" s="12">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="AB7" s="13">
+        <v>2820</v>
+      </c>
+      <c r="AC7" s="13">
+        <v>2226</v>
+      </c>
+      <c r="AD7" s="13">
+        <v>2222</v>
+      </c>
+      <c r="AE7" s="13">
+        <v>250</v>
+      </c>
+      <c r="AF7" s="13">
+        <v>250</v>
+      </c>
+      <c r="AG7" s="12">
+        <v>0.1125</v>
+      </c>
+      <c r="AH7" s="13">
+        <v>4500</v>
+      </c>
+      <c r="AI7" s="13">
+        <v>1682</v>
+      </c>
+      <c r="AJ7" s="13">
+        <v>1666</v>
+      </c>
+      <c r="AK7" s="13">
+        <v>262</v>
+      </c>
+      <c r="AL7" s="13">
+        <v>246</v>
+      </c>
+      <c r="AM7" s="12">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AN7" s="13">
+        <v>5920</v>
+      </c>
+      <c r="AO7" s="14">
+        <v>13312345675</v>
+      </c>
+      <c r="AP7" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A8" s="10">
+        <v>4135000000004690</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="11">
+        <v>50000</v>
+      </c>
+      <c r="E8" s="11">
+        <v>16668</v>
+      </c>
+      <c r="F8" s="11">
+        <v>16666</v>
+      </c>
+      <c r="G8" s="11">
+        <v>363</v>
+      </c>
+      <c r="H8" s="11">
+        <v>361</v>
+      </c>
+      <c r="I8" s="12">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="J8" s="13">
+        <v>1085</v>
+      </c>
+      <c r="K8" s="13">
+        <v>8335</v>
+      </c>
+      <c r="L8" s="13">
+        <v>8333</v>
+      </c>
+      <c r="M8" s="13">
+        <v>320</v>
+      </c>
+      <c r="N8" s="13">
+        <v>316</v>
+      </c>
+      <c r="O8" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="P8" s="13">
+        <v>1900</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>5560</v>
+      </c>
+      <c r="R8" s="13">
+        <v>5555</v>
+      </c>
+      <c r="S8" s="13">
+        <v>302</v>
+      </c>
+      <c r="T8" s="13">
+        <v>301</v>
+      </c>
+      <c r="U8" s="12">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="V8" s="13">
+        <v>2710</v>
+      </c>
+      <c r="W8" s="13">
+        <v>4174</v>
+      </c>
+      <c r="X8" s="13">
+        <v>4166</v>
+      </c>
+      <c r="Y8" s="13">
+        <v>302</v>
+      </c>
+      <c r="Z8" s="13">
+        <v>293</v>
+      </c>
+      <c r="AA8" s="12">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="AB8" s="13">
+        <v>3525</v>
+      </c>
+      <c r="AC8" s="13">
+        <v>2791</v>
+      </c>
+      <c r="AD8" s="13">
+        <v>2777</v>
+      </c>
+      <c r="AE8" s="13">
+        <v>321</v>
+      </c>
+      <c r="AF8" s="13">
+        <v>312</v>
+      </c>
+      <c r="AG8" s="12">
+        <v>0.1125</v>
+      </c>
+      <c r="AH8" s="13">
+        <v>5625</v>
+      </c>
+      <c r="AI8" s="13">
+        <v>2091</v>
+      </c>
+      <c r="AJ8" s="13">
+        <v>2083</v>
+      </c>
+      <c r="AK8" s="13">
+        <v>316</v>
+      </c>
+      <c r="AL8" s="13">
+        <v>308</v>
+      </c>
+      <c r="AM8" s="12">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AN8" s="13">
+        <v>7400</v>
+      </c>
+      <c r="AO8" s="14">
+        <v>13312345674</v>
+      </c>
+      <c r="AP8" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A9" s="10">
+        <v>5309000000005570</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="11">
+        <v>60000</v>
+      </c>
+      <c r="E9" s="11">
+        <v>20000</v>
+      </c>
+      <c r="F9" s="11">
+        <v>20000</v>
+      </c>
+      <c r="G9" s="11">
+        <v>434</v>
+      </c>
+      <c r="H9" s="11">
+        <v>434</v>
+      </c>
+      <c r="I9" s="12">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="J9" s="13">
+        <v>1302</v>
+      </c>
+      <c r="K9" s="13">
+        <v>10000</v>
+      </c>
+      <c r="L9" s="13">
+        <v>10000</v>
+      </c>
+      <c r="M9" s="13">
+        <v>380</v>
+      </c>
+      <c r="N9" s="13">
+        <v>380</v>
+      </c>
+      <c r="O9" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="P9" s="13">
+        <v>2280</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>6672</v>
+      </c>
+      <c r="R9" s="13">
+        <v>6666</v>
+      </c>
+      <c r="S9" s="13">
+        <v>364</v>
+      </c>
+      <c r="T9" s="13">
+        <v>361</v>
+      </c>
+      <c r="U9" s="12">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="V9" s="13">
+        <v>3252</v>
+      </c>
+      <c r="W9" s="13">
+        <v>5000</v>
+      </c>
+      <c r="X9" s="13">
+        <v>5000</v>
+      </c>
+      <c r="Y9" s="13">
+        <v>358</v>
+      </c>
+      <c r="Z9" s="13">
+        <v>352</v>
+      </c>
+      <c r="AA9" s="12">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="AB9" s="13">
+        <v>4230</v>
+      </c>
+      <c r="AC9" s="13">
+        <v>3339</v>
+      </c>
+      <c r="AD9" s="13">
+        <v>3333</v>
+      </c>
+      <c r="AE9" s="13">
+        <v>375</v>
+      </c>
+      <c r="AF9" s="13">
+        <v>375</v>
+      </c>
+      <c r="AG9" s="12">
+        <v>0.1125</v>
+      </c>
+      <c r="AH9" s="13">
+        <v>6750</v>
+      </c>
+      <c r="AI9" s="13">
+        <v>2500</v>
+      </c>
+      <c r="AJ9" s="13">
+        <v>2500</v>
+      </c>
+      <c r="AK9" s="13">
+        <v>370</v>
+      </c>
+      <c r="AL9" s="13">
+        <v>370</v>
+      </c>
+      <c r="AM9" s="12">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AN9" s="13">
+        <v>8880</v>
+      </c>
+      <c r="AO9" s="14">
+        <v>13312345673</v>
+      </c>
+      <c r="AP9" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" ht="14.25" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="AI1:AN1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="AC1:AH1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDD2311-8857-4ECF-8573-8040401A87F4}">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection sqref="A1:N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="26.875" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="20.375" customWidth="1"/>
+    <col min="12" max="12" width="33.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="40.5">
+      <c r="A2" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="30.75" customHeight="1">
+      <c r="A3" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="19">
+        <v>32728</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="20">
+        <v>42370</v>
+      </c>
+      <c r="I3" s="17">
+        <v>123456</v>
+      </c>
+      <c r="J3" s="17">
+        <v>13012345678</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" s="18">
+        <v>12000</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="30.75" customHeight="1">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="20">
+        <v>42370</v>
+      </c>
+      <c r="I4" s="17">
+        <v>132456</v>
+      </c>
+      <c r="J4" s="17">
+        <v>13012345678</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="18">
+        <v>12000</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30.75" customHeight="1">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+    </row>
+    <row r="6" spans="1:14" ht="30.75" customHeight="1">
+      <c r="A6" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="19">
+        <v>32983</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="20">
+        <v>42856</v>
+      </c>
+      <c r="I6" s="17">
+        <v>123456</v>
+      </c>
+      <c r="J6" s="17">
+        <v>13112345678</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="30.75" customHeight="1">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="20">
+        <v>39661</v>
+      </c>
+      <c r="I7" s="17">
+        <v>123456</v>
+      </c>
+      <c r="J7" s="17"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="30.75" customHeight="1">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18">
+        <v>0</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30.75" customHeight="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18">
+        <v>0</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30.75" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+    </row>
+    <row r="11" spans="1:14" ht="30.75" customHeight="1">
+      <c r="A11" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="19">
+        <v>33147</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="20">
+        <v>43009</v>
+      </c>
+      <c r="I11" s="17">
+        <v>123456</v>
+      </c>
+      <c r="J11" s="17">
+        <v>13212345678</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="30.75" customHeight="1">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="20">
+        <v>43221</v>
+      </c>
+      <c r="I12" s="17">
+        <v>123456</v>
+      </c>
+      <c r="J12" s="17"/>
+      <c r="K12" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="30.75" customHeight="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="20">
+        <v>43353</v>
+      </c>
+      <c r="I13" s="17">
+        <v>123456</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18">
+        <v>4125.25</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="30.75" customHeight="1">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="20">
+        <v>43383</v>
+      </c>
+      <c r="I14" s="17">
+        <v>123456</v>
+      </c>
+      <c r="J14" s="17"/>
+      <c r="K14" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/ICBC-DATA.xlsx
+++ b/src/main/resources/ICBC-DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\AICP\ICBC\WebHook\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A87F81F-137A-4209-B896-3C3D59B2E39E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FF85C2-54D3-4608-BA01-3AB820B4FEE9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="信用卡催收外呼信息" sheetId="3" r:id="rId1"/>
@@ -219,16 +219,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李建莉</t>
-  </si>
-  <si>
     <t>李宝晶</t>
   </si>
   <si>
     <t>王晓蕾</t>
-  </si>
-  <si>
-    <t>刘二军</t>
   </si>
   <si>
     <t>解非</t>
@@ -737,6 +731,14 @@
   </si>
   <si>
     <t>1958/6/19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李建莉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘二军</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1322,7 +1324,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1385,43 +1387,43 @@
     </row>
     <row r="2" spans="1:13" ht="27">
       <c r="A2" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="E2" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="F2" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="H2" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="I2" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="J2" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="K2" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="L2" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="M2" s="22" t="s">
         <v>106</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1526,7 +1528,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="1">
-        <v>150001</v>
+        <v>15000</v>
       </c>
       <c r="H5" s="1">
         <v>1500</v>
@@ -1593,22 +1595,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="E2" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>109</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1702,8 +1704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CC4714-938C-4DED-8249-15DA7AA69E8A}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="A1:H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1746,28 +1748,28 @@
     </row>
     <row r="2" spans="1:8" ht="14.25" thickTop="1">
       <c r="A2" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>98</v>
-      </c>
       <c r="E2" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="H2" s="22" t="s">
         <v>113</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27.75" customHeight="1">
@@ -1775,7 +1777,7 @@
         <v>35</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" s="5">
         <v>13012345678</v>
@@ -1801,13 +1803,13 @@
         <v>37</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4" s="5">
         <v>13012345679</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4" s="5">
         <v>2002126</v>
@@ -1816,7 +1818,7 @@
         <v>42</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>44</v>
@@ -1827,7 +1829,7 @@
         <v>35</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="5">
         <v>13012345677</v>
@@ -1842,7 +1844,7 @@
         <v>42</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>44</v>
@@ -1859,8 +1861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE72EEFD-0F28-41BD-80B6-AE746FF870AE}">
   <dimension ref="A1:AP10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1876,7 +1878,7 @@
       <c r="C1" s="24"/>
       <c r="D1" s="25"/>
       <c r="E1" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
@@ -1884,7 +1886,7 @@
       <c r="I1" s="24"/>
       <c r="J1" s="25"/>
       <c r="K1" s="23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L1" s="24"/>
       <c r="M1" s="24"/>
@@ -1892,7 +1894,7 @@
       <c r="O1" s="24"/>
       <c r="P1" s="25"/>
       <c r="Q1" s="23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="R1" s="24"/>
       <c r="S1" s="24"/>
@@ -1900,7 +1902,7 @@
       <c r="U1" s="24"/>
       <c r="V1" s="25"/>
       <c r="W1" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X1" s="24"/>
       <c r="Y1" s="24"/>
@@ -1908,7 +1910,7 @@
       <c r="AA1" s="24"/>
       <c r="AB1" s="25"/>
       <c r="AC1" s="23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AD1" s="24"/>
       <c r="AE1" s="24"/>
@@ -1916,7 +1918,7 @@
       <c r="AG1" s="24"/>
       <c r="AH1" s="25"/>
       <c r="AI1" s="23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AJ1" s="24"/>
       <c r="AK1" s="24"/>
@@ -1934,252 +1936,252 @@
         <v>34</v>
       </c>
       <c r="C2" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="F2" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="H2" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="I2" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="J2" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="I2" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>167</v>
-      </c>
       <c r="K2" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="M2" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="N2" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="O2" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="P2" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="O2" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>167</v>
-      </c>
       <c r="Q2" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="S2" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="T2" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="U2" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="V2" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="U2" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="V2" s="22" t="s">
-        <v>167</v>
-      </c>
       <c r="W2" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="X2" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y2" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="X2" s="22" t="s">
+      <c r="Z2" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="Y2" s="22" t="s">
+      <c r="AA2" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="Z2" s="22" t="s">
+      <c r="AB2" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="AA2" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="AB2" s="22" t="s">
-        <v>167</v>
-      </c>
       <c r="AC2" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD2" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE2" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="AD2" s="22" t="s">
+      <c r="AF2" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="AE2" s="22" t="s">
+      <c r="AG2" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="AF2" s="22" t="s">
+      <c r="AH2" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="AG2" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="AH2" s="22" t="s">
-        <v>167</v>
-      </c>
       <c r="AI2" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ2" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK2" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="AJ2" s="22" t="s">
+      <c r="AL2" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="AK2" s="22" t="s">
+      <c r="AM2" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="AL2" s="22" t="s">
+      <c r="AN2" s="22" t="s">
         <v>165</v>
-      </c>
-      <c r="AM2" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="AN2" s="22" t="s">
-        <v>167</v>
       </c>
       <c r="AO2" s="22" t="s">
         <v>29</v>
       </c>
       <c r="AP2" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:42" ht="40.5">
       <c r="A3" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D3" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="G3" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="H3" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="I3" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="J3" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="K3" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="L3" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="M3" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="N3" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="O3" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="P3" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="Q3" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="R3" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="Q3" s="22" t="s">
+      <c r="S3" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="T3" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="U3" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="T3" s="22" t="s">
+      <c r="V3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="U3" s="22" t="s">
+      <c r="W3" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="V3" s="22" t="s">
+      <c r="X3" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="W3" s="22" t="s">
+      <c r="Y3" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="X3" s="22" t="s">
+      <c r="Z3" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="Y3" s="22" t="s">
+      <c r="AA3" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="Z3" s="22" t="s">
+      <c r="AB3" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="AA3" s="22" t="s">
+      <c r="AC3" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="AB3" s="22" t="s">
+      <c r="AD3" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="AC3" s="22" t="s">
+      <c r="AE3" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="AD3" s="22" t="s">
+      <c r="AF3" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="AE3" s="22" t="s">
+      <c r="AG3" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AF3" s="22" t="s">
+      <c r="AH3" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="AG3" s="22" t="s">
+      <c r="AI3" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="AH3" s="22" t="s">
+      <c r="AJ3" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="AI3" s="22" t="s">
+      <c r="AK3" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="AJ3" s="22" t="s">
+      <c r="AL3" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="AK3" s="22" t="s">
+      <c r="AM3" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="AL3" s="22" t="s">
+      <c r="AN3" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="AM3" s="22" t="s">
+      <c r="AO3" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP3" s="22" t="s">
         <v>151</v>
-      </c>
-      <c r="AN3" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="AO3" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="AP3" s="22" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:42" ht="16.5" thickBot="1">
@@ -2187,7 +2189,7 @@
         <v>4135001122334690</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>53</v>
+        <v>188</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>23</v>
@@ -2307,7 +2309,7 @@
         <v>13312345678</v>
       </c>
       <c r="AP4" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
@@ -2315,7 +2317,7 @@
         <v>5309000000005570</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>14</v>
@@ -2432,10 +2434,10 @@
         <v>2960</v>
       </c>
       <c r="AO5" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AP5" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
@@ -2443,7 +2445,7 @@
         <v>4135000000004690</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>23</v>
@@ -2563,7 +2565,7 @@
         <v>13312345676</v>
       </c>
       <c r="AP6" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
@@ -2571,7 +2573,7 @@
         <v>5309000000005570</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>56</v>
+        <v>189</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>14</v>
@@ -2691,7 +2693,7 @@
         <v>13312345675</v>
       </c>
       <c r="AP7" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
@@ -2699,7 +2701,7 @@
         <v>4135000000004690</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>23</v>
@@ -2819,7 +2821,7 @@
         <v>13312345674</v>
       </c>
       <c r="AP8" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
@@ -2827,7 +2829,7 @@
         <v>5309000000005570</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>14</v>
@@ -2947,7 +2949,7 @@
         <v>13312345673</v>
       </c>
       <c r="AP9" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="14.25" thickTop="1"/>
@@ -2971,8 +2973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDD2311-8857-4ECF-8573-8040401A87F4}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection sqref="A1:N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2993,25 +2995,25 @@
         <v>34</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>31</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I1" s="22" t="s">
         <v>32</v>
@@ -3020,83 +3022,83 @@
         <v>46</v>
       </c>
       <c r="K1" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="M1" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="N1" s="22" t="s">
         <v>174</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="40.5">
       <c r="A2" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="H2" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="22" t="s">
+      <c r="I2" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="M2" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="I2" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="22" t="s">
+      <c r="N2" s="22" t="s">
         <v>181</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="30.75" customHeight="1">
       <c r="A3" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E3" s="19">
         <v>32728</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H3" s="20">
         <v>42370</v>
@@ -3108,10 +3110,10 @@
         <v>13012345678</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M3" s="18">
         <v>12000</v>
@@ -3127,10 +3129,10 @@
       <c r="D4" s="21"/>
       <c r="E4" s="19"/>
       <c r="F4" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H4" s="20">
         <v>42370</v>
@@ -3142,10 +3144,10 @@
         <v>13012345678</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M4" s="18">
         <v>12000</v>
@@ -3172,25 +3174,25 @@
     </row>
     <row r="6" spans="1:14" ht="30.75" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E6" s="19">
         <v>32983</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H6" s="20">
         <v>42856</v>
@@ -3202,10 +3204,10 @@
         <v>13112345678</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M6" s="18"/>
       <c r="N6" s="18" t="s">
@@ -3219,10 +3221,10 @@
       <c r="D7" s="21"/>
       <c r="E7" s="19"/>
       <c r="F7" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H7" s="20">
         <v>39661</v>
@@ -3245,10 +3247,10 @@
       <c r="D8" s="21"/>
       <c r="E8" s="19"/>
       <c r="F8" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="17"/>
@@ -3259,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="30.75" customHeight="1">
@@ -3269,10 +3271,10 @@
       <c r="D9" s="21"/>
       <c r="E9" s="19"/>
       <c r="F9" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H9" s="20"/>
       <c r="I9" s="17"/>
@@ -3283,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="30.75" customHeight="1">
@@ -3304,25 +3306,25 @@
     </row>
     <row r="11" spans="1:14" ht="30.75" customHeight="1">
       <c r="A11" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E11" s="19">
         <v>33147</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H11" s="20">
         <v>43009</v>
@@ -3334,10 +3336,10 @@
         <v>13212345678</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M11" s="18"/>
       <c r="N11" s="18" t="s">
@@ -3351,10 +3353,10 @@
       <c r="D12" s="21"/>
       <c r="E12" s="19"/>
       <c r="F12" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H12" s="20">
         <v>43221</v>
@@ -3364,7 +3366,7 @@
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
@@ -3379,10 +3381,10 @@
       <c r="D13" s="21"/>
       <c r="E13" s="19"/>
       <c r="F13" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H13" s="20">
         <v>43353</v>
@@ -3392,7 +3394,7 @@
       </c>
       <c r="J13" s="17"/>
       <c r="K13" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L13" s="18"/>
       <c r="M13" s="18">
@@ -3409,10 +3411,10 @@
       <c r="D14" s="21"/>
       <c r="E14" s="19"/>
       <c r="F14" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H14" s="20">
         <v>43383</v>
@@ -3422,7 +3424,7 @@
       </c>
       <c r="J14" s="17"/>
       <c r="K14" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>

--- a/src/main/resources/ICBC-DATA.xlsx
+++ b/src/main/resources/ICBC-DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\AICP\ICBC\WebHook\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FF85C2-54D3-4608-BA01-3AB820B4FEE9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067DEC03-0148-4618-BB7E-34BF68D7F07B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="信用卡催收外呼信息" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="吞卡信息" sheetId="5" r:id="rId3"/>
     <sheet name="分期信息" sheetId="7" r:id="rId4"/>
     <sheet name="储蓄卡挂失信息" sheetId="8" r:id="rId5"/>
+    <sheet name="收不到余额信息" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="209">
   <si>
     <t>姓名</t>
   </si>
@@ -740,13 +741,86 @@
   <si>
     <t>刘二军</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>接收方式</t>
+  </si>
+  <si>
+    <t>信息状态</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>cardStatus</t>
+  </si>
+  <si>
+    <t>sysDate</t>
+  </si>
+  <si>
+    <t>sysJs</t>
+  </si>
+  <si>
+    <t>sysXx</t>
+  </si>
+  <si>
+    <t>短信</t>
+  </si>
+  <si>
+    <t>未发送</t>
+  </si>
+  <si>
+    <t>身份证号</t>
+  </si>
+  <si>
+    <t>起点金额</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>cardNumber</t>
+  </si>
+  <si>
+    <t>idCardNumber</t>
+  </si>
+  <si>
+    <t>startingAmount</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4270000056781230</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>995-06-05</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -798,6 +872,27 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -819,7 +914,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -890,13 +985,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -966,6 +1076,18 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -974,6 +1096,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1561,7 +1695,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="A1:F6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1704,8 +1838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CC4714-938C-4DED-8249-15DA7AA69E8A}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1862,7 +1996,7 @@
   <dimension ref="A1:AP10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1873,58 +2007,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="23" t="s">
+      <c r="A1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="23" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="23" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="23" t="s">
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="23" t="s">
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="23" t="s">
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="25"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="29"/>
       <c r="AO1" s="22"/>
       <c r="AP1" s="22"/>
     </row>
@@ -3437,4 +3571,153 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5CF3B6-B177-4342-8426-912BE4F25E02}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A2" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="6">
+        <v>13012345678</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="J3" s="6">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="25"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="G6" s="26"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="G10" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/ICBC-DATA.xlsx
+++ b/src/main/resources/ICBC-DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\AICP\ICBC\WebHook\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baidu/Desktop/webhookICBC/webhook/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067DEC03-0148-4618-BB7E-34BF68D7F07B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B979D898-DFE9-4C46-A994-4323C26785FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="信用卡催收外呼信息" sheetId="3" r:id="rId1"/>
@@ -21,18 +21,11 @@
     <sheet name="收不到余额信息" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="211">
   <si>
     <t>姓名</t>
   </si>
@@ -813,6 +806,14 @@
       </rPr>
       <t>995-06-05</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>柜面预留手机号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysMobile</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -844,6 +845,7 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -865,17 +867,20 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -914,7 +919,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1000,13 +1005,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1088,15 +1104,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1107,6 +1114,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1461,24 +1480,24 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="21.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="9.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="15">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1519,7 +1538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="27">
+    <row r="2" spans="1:13" ht="30">
       <c r="A2" s="22" t="s">
         <v>94</v>
       </c>
@@ -1698,16 +1717,16 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="25.125" customWidth="1"/>
-    <col min="4" max="4" width="31.25" customWidth="1"/>
-    <col min="5" max="5" width="27.125" customWidth="1"/>
+    <col min="1" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="22" t="s">
         <v>29</v>
       </c>
@@ -1727,7 +1746,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="22" t="s">
         <v>103</v>
       </c>
@@ -1842,19 +1861,19 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="22.25" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="46.125" customWidth="1"/>
-    <col min="7" max="7" width="27.875" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="46.1640625" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" thickBot="1">
+    <row r="1" spans="1:8" ht="16" thickBot="1">
       <c r="A1" s="16" t="s">
         <v>34</v>
       </c>
@@ -1880,7 +1899,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25" thickTop="1">
+    <row r="2" spans="1:8" ht="16" thickTop="1">
       <c r="A2" s="22" t="s">
         <v>94</v>
       </c>
@@ -1999,70 +2018,70 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="29.375" customWidth="1"/>
-    <col min="41" max="41" width="21.75" customWidth="1"/>
-    <col min="42" max="42" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="41" max="41" width="21.6640625" customWidth="1"/>
+    <col min="42" max="42" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="27" t="s">
+      <c r="A1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="27" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="27" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="27" t="s">
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="27" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="27" t="s">
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="29"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="33"/>
       <c r="AO1" s="22"/>
       <c r="AP1" s="22"/>
     </row>
-    <row r="2" spans="1:42" ht="54">
+    <row r="2" spans="1:42" ht="60">
       <c r="A2" s="22" t="s">
         <v>31</v>
       </c>
@@ -2190,7 +2209,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="40.5">
+    <row r="3" spans="1:42" ht="45">
       <c r="A3" s="22" t="s">
         <v>96</v>
       </c>
@@ -2318,7 +2337,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="16.5" thickBot="1">
+    <row r="4" spans="1:42" ht="18" thickBot="1">
       <c r="A4" s="10">
         <v>4135001122334690</v>
       </c>
@@ -2446,7 +2465,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
+    <row r="5" spans="1:42" ht="19" thickTop="1" thickBot="1">
       <c r="A5" s="10">
         <v>5309000000005570</v>
       </c>
@@ -2574,7 +2593,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
+    <row r="6" spans="1:42" ht="19" thickTop="1" thickBot="1">
       <c r="A6" s="10">
         <v>4135000000004690</v>
       </c>
@@ -2702,7 +2721,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
+    <row r="7" spans="1:42" ht="19" thickTop="1" thickBot="1">
       <c r="A7" s="10">
         <v>5309000000005570</v>
       </c>
@@ -2830,7 +2849,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
+    <row r="8" spans="1:42" ht="19" thickTop="1" thickBot="1">
       <c r="A8" s="10">
         <v>4135000000004690</v>
       </c>
@@ -2958,7 +2977,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
+    <row r="9" spans="1:42" ht="19" thickTop="1" thickBot="1">
       <c r="A9" s="10">
         <v>5309000000005570</v>
       </c>
@@ -3086,7 +3105,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="14.25" thickTop="1"/>
+    <row r="10" spans="1:42" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:D1"/>
@@ -3111,20 +3130,20 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="26.875" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="20.375" customWidth="1"/>
-    <col min="12" max="12" width="33.125" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" customWidth="1"/>
+    <col min="12" max="12" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" ht="15">
       <c r="A1" s="22" t="s">
         <v>34</v>
       </c>
@@ -3168,7 +3187,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="40.5">
+    <row r="2" spans="1:14" ht="30">
       <c r="A2" s="22" t="s">
         <v>94</v>
       </c>
@@ -3575,24 +3594,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5CF3B6-B177-4342-8426-912BE4F25E02}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:11" ht="15" thickBot="1">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -3619,12 +3639,15 @@
       <c r="I1" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="28" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A2" s="30" t="s">
+      <c r="K1" s="34" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1">
+      <c r="A2" s="27" t="s">
         <v>202</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -3651,18 +3674,21 @@
       <c r="I2" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="28" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="30" t="s">
+      <c r="K2" s="34" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="27" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="29" t="s">
         <v>207</v>
       </c>
       <c r="D3" s="6">
@@ -3671,7 +3697,7 @@
       <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="30" t="s">
         <v>208</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -3680,14 +3706,17 @@
       <c r="H3" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="29" t="s">
         <v>207</v>
       </c>
       <c r="J3" s="6">
         <v>12000</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="6">
+        <v>15838692921</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -3698,7 +3727,7 @@
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="23"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -3709,10 +3738,10 @@
       <c r="H5" s="23"/>
       <c r="I5" s="25"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="G6" s="26"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="G10" s="24"/>
     </row>
   </sheetData>

--- a/src/main/resources/ICBC-DATA.xlsx
+++ b/src/main/resources/ICBC-DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\AICP\ICBC\WebHook\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8801EF43-5175-4B8F-A629-569C936C7114}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF300DE-6D2F-497C-BCBD-B5B85A913490}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="277">
   <si>
     <t>姓名</t>
   </si>
@@ -1004,13 +1004,17 @@
     <t>2019年10月01日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -1510,6 +1514,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1519,50 +1580,14 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1590,27 +1615,6 @@
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2197,8 +2201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C9EB0D-85D9-47ED-B377-7DA30201B995}">
   <dimension ref="A1:AL22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AL7" sqref="AL7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2212,7 +2216,7 @@
     <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.125" style="63" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.125" style="39" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.5" bestFit="1" customWidth="1"/>
@@ -2220,862 +2224,862 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="M1" s="39"/>
-      <c r="N1" s="38" t="s">
+      <c r="M1" s="48"/>
+      <c r="N1" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="38" t="s">
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="38" t="s">
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="38" t="s">
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="38" t="s">
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="38" t="s">
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="36" t="s">
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="42" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="43" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="R2" s="43" t="s">
+      <c r="R2" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="S2" s="43" t="s">
+      <c r="S2" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="T2" s="43" t="s">
+      <c r="T2" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="U2" s="43" t="s">
+      <c r="U2" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="V2" s="43" t="s">
+      <c r="V2" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="W2" s="43" t="s">
+      <c r="W2" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="X2" s="43" t="s">
+      <c r="X2" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="Y2" s="43" t="s">
+      <c r="Y2" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="Z2" s="43" t="s">
+      <c r="Z2" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="AA2" s="43" t="s">
+      <c r="AA2" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="AB2" s="43" t="s">
+      <c r="AB2" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="AC2" s="43" t="s">
+      <c r="AC2" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="AD2" s="43" t="s">
+      <c r="AD2" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="AE2" s="43" t="s">
+      <c r="AE2" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="AF2" s="43" t="s">
+      <c r="AF2" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="AG2" s="43" t="s">
+      <c r="AG2" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="AH2" s="43" t="s">
+      <c r="AH2" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="AI2" s="43" t="s">
+      <c r="AI2" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="AJ2" s="43" t="s">
+      <c r="AJ2" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="AK2" s="43" t="s">
+      <c r="AK2" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="AL2" s="41"/>
+      <c r="AL2" s="43"/>
     </row>
     <row r="3" spans="1:38" ht="43.5" thickBot="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="K3" s="59" t="s">
+      <c r="K3" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="M3" s="33" t="s">
+      <c r="M3" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="N3" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="O3" s="35" t="s">
+      <c r="O3" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="P3" s="35" t="s">
+      <c r="P3" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="Q3" s="35" t="s">
+      <c r="Q3" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="33"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="30"/>
     </row>
     <row r="4" spans="1:38" ht="17.25" thickBot="1">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="35">
         <v>123789</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="35">
         <v>-4500</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="45">
+      <c r="J4" s="35">
         <v>4500</v>
       </c>
-      <c r="K4" s="45" t="s">
+      <c r="K4" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="L4" s="45">
+      <c r="L4" s="35">
         <v>5000</v>
       </c>
-      <c r="M4" s="45">
+      <c r="M4" s="35">
         <v>500</v>
       </c>
-      <c r="N4" s="46">
+      <c r="N4" s="36">
         <v>2.17</v>
       </c>
-      <c r="O4" s="46">
+      <c r="O4" s="36">
         <v>97.65</v>
       </c>
-      <c r="P4" s="46">
+      <c r="P4" s="36">
         <v>1533.65</v>
       </c>
-      <c r="Q4" s="46">
+      <c r="Q4" s="36">
         <v>1532</v>
       </c>
-      <c r="R4" s="46">
+      <c r="R4" s="36">
         <v>3.8</v>
       </c>
-      <c r="S4" s="46">
+      <c r="S4" s="36">
         <v>171</v>
       </c>
-      <c r="T4" s="46">
+      <c r="T4" s="36">
         <v>781</v>
       </c>
-      <c r="U4" s="46">
+      <c r="U4" s="36">
         <v>778</v>
       </c>
-      <c r="V4" s="46">
+      <c r="V4" s="36">
         <v>5.42</v>
       </c>
-      <c r="W4" s="46">
+      <c r="W4" s="36">
         <v>243.9</v>
       </c>
-      <c r="X4" s="46">
+      <c r="X4" s="36">
         <v>527.9</v>
       </c>
-      <c r="Y4" s="46">
+      <c r="Y4" s="36">
         <v>527</v>
       </c>
-      <c r="Z4" s="46">
+      <c r="Z4" s="36">
         <v>7.05</v>
       </c>
-      <c r="AA4" s="46">
+      <c r="AA4" s="36">
         <v>317.25</v>
       </c>
-      <c r="AB4" s="46">
+      <c r="AB4" s="36">
         <v>406.25</v>
       </c>
-      <c r="AC4" s="46">
+      <c r="AC4" s="36">
         <v>401</v>
       </c>
-      <c r="AD4" s="46">
+      <c r="AD4" s="36">
         <v>11.25</v>
       </c>
-      <c r="AE4" s="46">
+      <c r="AE4" s="36">
         <v>506.25</v>
       </c>
-      <c r="AF4" s="46">
+      <c r="AF4" s="36">
         <v>280.25</v>
       </c>
-      <c r="AG4" s="46">
+      <c r="AG4" s="36">
         <v>278</v>
       </c>
-      <c r="AH4" s="46">
+      <c r="AH4" s="36">
         <v>14.8</v>
       </c>
-      <c r="AI4" s="46">
+      <c r="AI4" s="36">
         <v>666</v>
       </c>
-      <c r="AJ4" s="46">
+      <c r="AJ4" s="36">
         <v>244</v>
       </c>
-      <c r="AK4" s="46">
+      <c r="AK4" s="36">
         <v>214</v>
       </c>
-      <c r="AL4" s="47" t="s">
+      <c r="AL4" s="37" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="17.25" thickBot="1">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="35">
         <v>246800</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="35">
         <v>-500</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="J5" s="45">
+      <c r="J5" s="35">
         <v>500</v>
       </c>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="L5" s="45">
+      <c r="L5" s="35">
         <v>5000</v>
       </c>
-      <c r="M5" s="45">
+      <c r="M5" s="35">
         <v>4500</v>
       </c>
-      <c r="N5" s="46">
+      <c r="N5" s="36">
         <v>2.17</v>
       </c>
-      <c r="O5" s="46">
+      <c r="O5" s="36">
         <v>10.85</v>
       </c>
-      <c r="P5" s="46">
+      <c r="P5" s="36">
         <v>172.85</v>
       </c>
-      <c r="Q5" s="46">
+      <c r="Q5" s="36">
         <v>169</v>
       </c>
-      <c r="R5" s="46">
+      <c r="R5" s="36">
         <v>3.8</v>
       </c>
-      <c r="S5" s="46">
+      <c r="S5" s="36">
         <v>19</v>
       </c>
-      <c r="T5" s="46">
+      <c r="T5" s="36">
         <v>89</v>
       </c>
-      <c r="U5" s="46">
+      <c r="U5" s="36">
         <v>86</v>
       </c>
-      <c r="V5" s="46">
+      <c r="V5" s="36">
         <v>5.42</v>
       </c>
-      <c r="W5" s="46">
+      <c r="W5" s="36">
         <v>27.1</v>
       </c>
-      <c r="X5" s="46">
+      <c r="X5" s="36">
         <v>63.1</v>
       </c>
-      <c r="Y5" s="46">
+      <c r="Y5" s="36">
         <v>58</v>
       </c>
-      <c r="Z5" s="46">
+      <c r="Z5" s="36">
         <v>7.05</v>
       </c>
-      <c r="AA5" s="46">
+      <c r="AA5" s="36">
         <v>35.25</v>
       </c>
-      <c r="AB5" s="46">
+      <c r="AB5" s="36">
         <v>62.25</v>
       </c>
-      <c r="AC5" s="46">
+      <c r="AC5" s="36">
         <v>43</v>
       </c>
-      <c r="AD5" s="46">
+      <c r="AD5" s="36">
         <v>11.25</v>
       </c>
-      <c r="AE5" s="46">
+      <c r="AE5" s="36">
         <v>56.25</v>
       </c>
-      <c r="AF5" s="46">
+      <c r="AF5" s="36">
         <v>46.25</v>
       </c>
-      <c r="AG5" s="46">
+      <c r="AG5" s="36">
         <v>30</v>
       </c>
-      <c r="AH5" s="46">
+      <c r="AH5" s="36">
         <v>14.8</v>
       </c>
-      <c r="AI5" s="46">
+      <c r="AI5" s="36">
         <v>74</v>
       </c>
-      <c r="AJ5" s="46">
+      <c r="AJ5" s="36">
         <v>45</v>
       </c>
-      <c r="AK5" s="46">
+      <c r="AK5" s="36">
         <v>23</v>
       </c>
-      <c r="AL5" s="47" t="s">
+      <c r="AL5" s="37" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="17.25" thickBot="1">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="35">
         <v>357951</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="35">
         <v>-2000</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="45">
+      <c r="J6" s="35">
         <v>2000</v>
       </c>
-      <c r="K6" s="45" t="s">
+      <c r="K6" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="L6" s="45">
+      <c r="L6" s="35">
         <v>5000</v>
       </c>
-      <c r="M6" s="45">
+      <c r="M6" s="35">
         <v>3000</v>
       </c>
-      <c r="N6" s="46">
+      <c r="N6" s="36">
         <v>2.17</v>
       </c>
-      <c r="O6" s="46">
+      <c r="O6" s="36">
         <v>43.4</v>
       </c>
-      <c r="P6" s="46">
+      <c r="P6" s="36">
         <v>683.4</v>
       </c>
-      <c r="Q6" s="46">
+      <c r="Q6" s="36">
         <v>680</v>
       </c>
-      <c r="R6" s="46">
+      <c r="R6" s="36">
         <v>3.8</v>
       </c>
-      <c r="S6" s="46">
+      <c r="S6" s="36">
         <v>76</v>
       </c>
-      <c r="T6" s="46">
+      <c r="T6" s="36">
         <v>351</v>
       </c>
-      <c r="U6" s="46">
+      <c r="U6" s="36">
         <v>345</v>
       </c>
-      <c r="V6" s="46">
+      <c r="V6" s="36">
         <v>5.42</v>
       </c>
-      <c r="W6" s="46">
+      <c r="W6" s="36">
         <v>108.4</v>
       </c>
-      <c r="X6" s="46">
+      <c r="X6" s="36">
         <v>236.4</v>
       </c>
-      <c r="Y6" s="46">
+      <c r="Y6" s="36">
         <v>234</v>
       </c>
-      <c r="Z6" s="46">
+      <c r="Z6" s="36">
         <v>7.05</v>
       </c>
-      <c r="AA6" s="46">
+      <c r="AA6" s="36">
         <v>141</v>
       </c>
-      <c r="AB6" s="46">
+      <c r="AB6" s="36">
         <v>194</v>
       </c>
-      <c r="AC6" s="46">
+      <c r="AC6" s="36">
         <v>177</v>
       </c>
-      <c r="AD6" s="46">
+      <c r="AD6" s="36">
         <v>11.25</v>
       </c>
-      <c r="AE6" s="46">
+      <c r="AE6" s="36">
         <v>225</v>
       </c>
-      <c r="AF6" s="46">
+      <c r="AF6" s="36">
         <v>134</v>
       </c>
-      <c r="AG6" s="46">
+      <c r="AG6" s="36">
         <v>123</v>
       </c>
-      <c r="AH6" s="46">
+      <c r="AH6" s="36">
         <v>14.8</v>
       </c>
-      <c r="AI6" s="46">
+      <c r="AI6" s="36">
         <v>296</v>
       </c>
-      <c r="AJ6" s="46">
+      <c r="AJ6" s="36">
         <v>111</v>
       </c>
-      <c r="AK6" s="46">
+      <c r="AK6" s="36">
         <v>95</v>
       </c>
-      <c r="AL6" s="47" t="s">
+      <c r="AL6" s="37" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="17.25" thickBot="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="35">
         <v>321321</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="35">
         <v>-3000</v>
       </c>
-      <c r="I7" s="45" t="s">
+      <c r="I7" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="45">
+      <c r="J7" s="35">
         <v>3000</v>
       </c>
-      <c r="K7" s="60" t="s">
+      <c r="K7" s="52" t="s">
+        <v>276</v>
+      </c>
+      <c r="L7" s="35">
+        <v>5000</v>
+      </c>
+      <c r="M7" s="35">
+        <v>2000</v>
+      </c>
+      <c r="N7" s="55" t="s">
+        <v>276</v>
+      </c>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="56"/>
+      <c r="AB7" s="56"/>
+      <c r="AC7" s="56"/>
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="56"/>
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="56"/>
+      <c r="AJ7" s="56"/>
+      <c r="AK7" s="57"/>
+      <c r="AL7" s="37" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="17.25" thickBot="1">
+      <c r="A8" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="35">
+        <v>654321</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="H8" s="35">
+        <v>0</v>
+      </c>
+      <c r="I8" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="L7" s="45">
+      <c r="J8" s="35">
+        <v>0</v>
+      </c>
+      <c r="K8" s="53"/>
+      <c r="L8" s="35">
         <v>5000</v>
       </c>
-      <c r="M7" s="45">
-        <v>2000</v>
-      </c>
-      <c r="N7" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="49"/>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="49"/>
-      <c r="AF7" s="49"/>
-      <c r="AG7" s="49"/>
-      <c r="AH7" s="49"/>
-      <c r="AI7" s="49"/>
-      <c r="AJ7" s="49"/>
-      <c r="AK7" s="50"/>
-      <c r="AL7" s="47" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" ht="17.25" thickBot="1">
-      <c r="A8" s="45" t="s">
-        <v>252</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="D8" s="45">
-        <v>654321</v>
-      </c>
-      <c r="E8" s="45" t="s">
+      <c r="M8" s="35">
+        <v>5000</v>
+      </c>
+      <c r="N8" s="58"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="59"/>
+      <c r="AG8" s="59"/>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="59"/>
+      <c r="AJ8" s="59"/>
+      <c r="AK8" s="60"/>
+      <c r="AL8" s="37" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="17.25" thickBot="1">
+      <c r="A9" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="D9" s="35">
+        <v>135790</v>
+      </c>
+      <c r="E9" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F9" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="G8" s="45" t="s">
-        <v>242</v>
-      </c>
-      <c r="H8" s="45">
-        <v>0</v>
-      </c>
-      <c r="I8" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="J8" s="45">
-        <v>0</v>
-      </c>
-      <c r="K8" s="61"/>
-      <c r="L8" s="45">
+      <c r="G9" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="H9" s="35">
+        <v>-1000</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="35">
+        <v>1000</v>
+      </c>
+      <c r="K9" s="53"/>
+      <c r="L9" s="35">
         <v>5000</v>
       </c>
-      <c r="M8" s="45">
+      <c r="M9" s="35">
+        <v>4000</v>
+      </c>
+      <c r="N9" s="58"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="59"/>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="59"/>
+      <c r="AG9" s="59"/>
+      <c r="AH9" s="59"/>
+      <c r="AI9" s="59"/>
+      <c r="AJ9" s="59"/>
+      <c r="AK9" s="60"/>
+      <c r="AL9" s="37" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="17.25" thickBot="1">
+      <c r="A10" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" s="35">
+        <v>159753</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="H10" s="35">
+        <v>-150</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="35">
+        <v>150</v>
+      </c>
+      <c r="K10" s="54"/>
+      <c r="L10" s="35">
         <v>5000</v>
       </c>
-      <c r="N8" s="51"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="52"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="52"/>
-      <c r="AF8" s="52"/>
-      <c r="AG8" s="52"/>
-      <c r="AH8" s="52"/>
-      <c r="AI8" s="52"/>
-      <c r="AJ8" s="52"/>
-      <c r="AK8" s="53"/>
-      <c r="AL8" s="47" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" ht="17.25" thickBot="1">
-      <c r="A9" s="45" t="s">
-        <v>254</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>270</v>
-      </c>
-      <c r="D9" s="45">
-        <v>135790</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="H9" s="45">
-        <v>-1000</v>
-      </c>
-      <c r="I9" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="45">
-        <v>1000</v>
-      </c>
-      <c r="K9" s="61"/>
-      <c r="L9" s="45">
-        <v>5000</v>
-      </c>
-      <c r="M9" s="45">
-        <v>4000</v>
-      </c>
-      <c r="N9" s="51"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="52"/>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="52"/>
-      <c r="AH9" s="52"/>
-      <c r="AI9" s="52"/>
-      <c r="AJ9" s="52"/>
-      <c r="AK9" s="53"/>
-      <c r="AL9" s="47" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="17.25" thickBot="1">
-      <c r="A10" s="45" t="s">
-        <v>256</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>271</v>
-      </c>
-      <c r="D10" s="45">
-        <v>159753</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>247</v>
-      </c>
-      <c r="H10" s="45">
-        <v>-150</v>
-      </c>
-      <c r="I10" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="45">
-        <v>150</v>
-      </c>
-      <c r="K10" s="62"/>
-      <c r="L10" s="45">
-        <v>5000</v>
-      </c>
-      <c r="M10" s="45">
+      <c r="M10" s="35">
         <v>4850</v>
       </c>
-      <c r="N10" s="54"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="55"/>
-      <c r="AB10" s="55"/>
-      <c r="AC10" s="55"/>
-      <c r="AD10" s="55"/>
-      <c r="AE10" s="55"/>
-      <c r="AF10" s="55"/>
-      <c r="AG10" s="55"/>
-      <c r="AH10" s="55"/>
-      <c r="AI10" s="55"/>
-      <c r="AJ10" s="55"/>
-      <c r="AK10" s="56"/>
-      <c r="AL10" s="47" t="s">
+      <c r="N10" s="61"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="62"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="62"/>
+      <c r="AD10" s="62"/>
+      <c r="AE10" s="62"/>
+      <c r="AF10" s="62"/>
+      <c r="AG10" s="62"/>
+      <c r="AH10" s="62"/>
+      <c r="AI10" s="62"/>
+      <c r="AJ10" s="62"/>
+      <c r="AK10" s="63"/>
+      <c r="AL10" s="37" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3111,9 +3115,10 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="K7:K10"/>
     <mergeCell ref="N7:AK10"/>
+    <mergeCell ref="AL1:AL2"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="V1:Y1"/>
@@ -3125,13 +3130,12 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3312,58 +3316,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="30"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="30" t="s">
+      <c r="A1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="30" t="s">
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="30" t="s">
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="30" t="s">
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="30" t="s">
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="30" t="s">
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="32"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="51"/>
       <c r="AO1" s="20"/>
       <c r="AP1" s="20"/>
     </row>

--- a/src/main/resources/ICBC-DATA.xlsx
+++ b/src/main/resources/ICBC-DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\AICP\ICBC\WebHook\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF300DE-6D2F-497C-BCBD-B5B85A913490}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC452CE-6AA0-4B62-B7D0-A70504D8939E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="272">
   <si>
     <t>姓名</t>
   </si>
@@ -833,27 +833,6 @@
     <t>首次扣款时间</t>
   </si>
   <si>
-    <t>额度</t>
-  </si>
-  <si>
-    <t>3期（PeriodsNO）</t>
-  </si>
-  <si>
-    <t>6期</t>
-  </si>
-  <si>
-    <t>9期</t>
-  </si>
-  <si>
-    <t>12期</t>
-  </si>
-  <si>
-    <t>18期</t>
-  </si>
-  <si>
-    <t>24期</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
@@ -932,81 +911,85 @@
     <t>不符合条件，商务卡</t>
   </si>
   <si>
+    <t>不符合条件，账户无欠款或已还完</t>
+  </si>
+  <si>
+    <t>熊六</t>
+  </si>
+  <si>
+    <t>不符合条件，副卡持卡人不能为主卡办账单分期，请主卡持卡人本人办理</t>
+  </si>
+  <si>
+    <t>熊七</t>
+  </si>
+  <si>
+    <t>不符合条件，账单未出无法办理账单分期，客户选择办理消费分期，跳至其他分期流程</t>
+  </si>
+  <si>
+    <t>110101199001010001</t>
+  </si>
+  <si>
+    <t>110101199001020001</t>
+  </si>
+  <si>
+    <t>110101199001030001</t>
+  </si>
+  <si>
+    <t>110101199001040001</t>
+  </si>
+  <si>
+    <t>110101199001050001</t>
+  </si>
+  <si>
+    <t>110101199001060001</t>
+  </si>
+  <si>
+    <t>110101199001070001</t>
+  </si>
+  <si>
+    <t>6225990013242525</t>
+  </si>
+  <si>
+    <t>6225990035523456</t>
+  </si>
+  <si>
+    <t>6225990035545678</t>
+  </si>
+  <si>
+    <t>6258580000123123</t>
+  </si>
+  <si>
+    <t>6225990013242636</t>
+  </si>
+  <si>
+    <t>6225990035512345</t>
+  </si>
+  <si>
+    <t>6225990035534567</t>
+  </si>
+  <si>
+    <t>cardType</t>
+  </si>
+  <si>
+    <t>mainOrElse</t>
+  </si>
+  <si>
+    <t>remainingAmount</t>
+  </si>
+  <si>
+    <t>2019年10月01日</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
     <t>熊五</t>
-  </si>
-  <si>
-    <t>不符合条件，账户无欠款或已还完</t>
-  </si>
-  <si>
-    <t>熊六</t>
-  </si>
-  <si>
-    <t>不符合条件，副卡持卡人不能为主卡办账单分期，请主卡持卡人本人办理</t>
-  </si>
-  <si>
-    <t>熊七</t>
-  </si>
-  <si>
-    <t>不符合条件，账单未出无法办理账单分期，客户选择办理消费分期，跳至其他分期流程</t>
-  </si>
-  <si>
-    <t>110101199001010001</t>
-  </si>
-  <si>
-    <t>110101199001020001</t>
-  </si>
-  <si>
-    <t>110101199001030001</t>
-  </si>
-  <si>
-    <t>110101199001040001</t>
-  </si>
-  <si>
-    <t>110101199001050001</t>
-  </si>
-  <si>
-    <t>110101199001060001</t>
-  </si>
-  <si>
-    <t>110101199001070001</t>
-  </si>
-  <si>
-    <t>6225990013242525</t>
-  </si>
-  <si>
-    <t>6225990035523456</t>
-  </si>
-  <si>
-    <t>6225990035545678</t>
-  </si>
-  <si>
-    <t>6258580000123123</t>
-  </si>
-  <si>
-    <t>6225990013242636</t>
-  </si>
-  <si>
-    <t>6225990035512345</t>
-  </si>
-  <si>
-    <t>6225990035534567</t>
-  </si>
-  <si>
-    <t>cardType</t>
-  </si>
-  <si>
-    <t>mainOrElse</t>
-  </si>
-  <si>
-    <t>remainingAmount</t>
-  </si>
-  <si>
-    <t>2019年10月01日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1016,7 +999,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1093,39 +1076,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0D0015"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF0D0015"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1144,14 +1096,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD7D8D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1248,182 +1194,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF2B2B2B"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF2B2B2B"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF2B2B2B"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF2B2B2B"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF2B2B2B"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF2B2B2B"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF2B2B2B"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF2B2B2B"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF2B2B2B"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF2B2B2B"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF2B2B2B"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF2B2B2B"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF2B2B2B"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF2B2B2B"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF2B2B2B"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF2B2B2B"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF2B2B2B"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF2B2B2B"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF2B2B2B"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF2B2B2B"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF2B2B2B"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF2B2B2B"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF2B2B2B"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF2B2B2B"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF2B2B2B"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF2B2B2B"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF2B2B2B"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF2B2B2B"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF2B2B2B"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF2B2B2B"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF2B2B2B"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF2B2B2B"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1514,62 +1291,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1579,42 +1314,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2199,944 +1898,900 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C9EB0D-85D9-47ED-B377-7DA30201B995}">
-  <dimension ref="A1:AL22"/>
+  <dimension ref="A1:AL13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AL7" sqref="AL7"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="22.875" customWidth="1"/>
     <col min="3" max="3" width="25.125" customWidth="1"/>
-    <col min="4" max="4" width="31.125" customWidth="1"/>
+    <col min="4" max="4" width="38.125" customWidth="1"/>
     <col min="5" max="5" width="27.125" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.125" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="79.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.25" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.375" customWidth="1"/>
+    <col min="15" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="19" max="37" width="9" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="80" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:38">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+    </row>
+    <row r="2" spans="1:38" ht="27">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B2" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D2" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E2" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F2" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G2" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H2" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I2" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J2" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K2" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L2" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="P2" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q2" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="R2" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="T2" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="U2" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="V2" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="W2" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="X2" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y2" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z2" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA2" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB2" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC2" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD2" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE2" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF2" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG2" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH2" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI2" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ2" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="AK2" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="AL2" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="M1" s="48"/>
-      <c r="N1" s="46" t="s">
-        <v>220</v>
-      </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="46" t="s">
-        <v>221</v>
-      </c>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="46" t="s">
-        <v>222</v>
-      </c>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="42" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="M2" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="O2" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="P2" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q2" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="R2" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="S2" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="T2" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="U2" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="V2" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="W2" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="X2" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y2" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="Z2" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA2" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="AB2" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="AC2" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="AD2" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="AE2" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="AF2" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="AG2" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="AH2" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="AI2" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="AJ2" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="AK2" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="AL2" s="43"/>
-    </row>
-    <row r="3" spans="1:38" ht="43.5" thickBot="1">
-      <c r="A3" s="34" t="s">
+    </row>
+    <row r="3" spans="1:38" ht="40.5">
+      <c r="A3" s="31" t="s">
         <v>192</v>
       </c>
       <c r="B3" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="F3" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="H3" s="30" t="s">
+      <c r="F3" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="O3" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="P3" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="Q3" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31"/>
+    </row>
+    <row r="4" spans="1:38" ht="16.5" thickBot="1">
+      <c r="A4" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="D4" s="33">
+        <v>123789</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="G4" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="H4" s="33">
+        <v>-4500</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="34">
+        <v>4500</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="L4" s="34">
+        <v>5000</v>
+      </c>
+      <c r="M4" s="34">
+        <v>500</v>
+      </c>
+      <c r="N4" s="34">
+        <v>2.17</v>
+      </c>
+      <c r="O4" s="34">
+        <v>97.65</v>
+      </c>
+      <c r="P4" s="34">
+        <v>1533.65</v>
+      </c>
+      <c r="Q4" s="34">
+        <v>1532</v>
+      </c>
+      <c r="R4" s="34">
+        <v>3.8</v>
+      </c>
+      <c r="S4" s="34">
+        <v>171</v>
+      </c>
+      <c r="T4" s="34">
+        <v>781</v>
+      </c>
+      <c r="U4" s="34">
+        <v>778</v>
+      </c>
+      <c r="V4" s="34">
+        <v>5.42</v>
+      </c>
+      <c r="W4" s="34">
+        <v>243.9</v>
+      </c>
+      <c r="X4" s="34">
+        <v>527.9</v>
+      </c>
+      <c r="Y4" s="34">
+        <v>527</v>
+      </c>
+      <c r="Z4" s="34">
+        <v>7.05</v>
+      </c>
+      <c r="AA4" s="34">
+        <v>317.25</v>
+      </c>
+      <c r="AB4" s="34">
+        <v>406.25</v>
+      </c>
+      <c r="AC4" s="34">
+        <v>401</v>
+      </c>
+      <c r="AD4" s="34">
+        <v>11.25</v>
+      </c>
+      <c r="AE4" s="34">
+        <v>506.25</v>
+      </c>
+      <c r="AF4" s="34">
+        <v>280.25</v>
+      </c>
+      <c r="AG4" s="34">
+        <v>278</v>
+      </c>
+      <c r="AH4" s="34">
+        <v>14.8</v>
+      </c>
+      <c r="AI4" s="34">
+        <v>666</v>
+      </c>
+      <c r="AJ4" s="34">
+        <v>244</v>
+      </c>
+      <c r="AK4" s="34">
+        <v>214</v>
+      </c>
+      <c r="AL4" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="L3" s="30" t="s">
+    </row>
+    <row r="5" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A5" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" s="33">
+        <v>246800</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="G5" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="M3" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="N3" s="32" t="s">
+      <c r="H5" s="33">
+        <v>-500</v>
+      </c>
+      <c r="I5" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="J5" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="L5" s="34">
+        <v>5000</v>
+      </c>
+      <c r="M5" s="34">
+        <v>4500</v>
+      </c>
+      <c r="N5" s="34">
+        <v>2.17</v>
+      </c>
+      <c r="O5" s="34">
+        <v>10.85</v>
+      </c>
+      <c r="P5" s="34">
+        <v>172.85</v>
+      </c>
+      <c r="Q5" s="34">
+        <v>169</v>
+      </c>
+      <c r="R5" s="34">
+        <v>3.8</v>
+      </c>
+      <c r="S5" s="34">
+        <v>19</v>
+      </c>
+      <c r="T5" s="34">
+        <v>89</v>
+      </c>
+      <c r="U5" s="34">
+        <v>86</v>
+      </c>
+      <c r="V5" s="34">
+        <v>5.42</v>
+      </c>
+      <c r="W5" s="34">
+        <v>27.1</v>
+      </c>
+      <c r="X5" s="34">
+        <v>63.1</v>
+      </c>
+      <c r="Y5" s="34">
+        <v>58</v>
+      </c>
+      <c r="Z5" s="34">
+        <v>7.05</v>
+      </c>
+      <c r="AA5" s="34">
+        <v>35.25</v>
+      </c>
+      <c r="AB5" s="34">
+        <v>62.25</v>
+      </c>
+      <c r="AC5" s="34">
+        <v>43</v>
+      </c>
+      <c r="AD5" s="34">
+        <v>11.25</v>
+      </c>
+      <c r="AE5" s="34">
+        <v>56.25</v>
+      </c>
+      <c r="AF5" s="34">
+        <v>46.25</v>
+      </c>
+      <c r="AG5" s="34">
+        <v>30</v>
+      </c>
+      <c r="AH5" s="34">
+        <v>14.8</v>
+      </c>
+      <c r="AI5" s="34">
+        <v>74</v>
+      </c>
+      <c r="AJ5" s="34">
+        <v>45</v>
+      </c>
+      <c r="AK5" s="34">
+        <v>23</v>
+      </c>
+      <c r="AL5" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="P3" s="32" t="s">
+    </row>
+    <row r="6" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A6" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="D6" s="33">
+        <v>357951</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="H6" s="33">
+        <v>-2000</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="L6" s="34">
+        <v>5000</v>
+      </c>
+      <c r="M6" s="34">
+        <v>3000</v>
+      </c>
+      <c r="N6" s="34">
+        <v>2.17</v>
+      </c>
+      <c r="O6" s="34">
+        <v>43.4</v>
+      </c>
+      <c r="P6" s="34">
+        <v>683.4</v>
+      </c>
+      <c r="Q6" s="34">
+        <v>680</v>
+      </c>
+      <c r="R6" s="34">
+        <v>3.8</v>
+      </c>
+      <c r="S6" s="34">
+        <v>76</v>
+      </c>
+      <c r="T6" s="34">
+        <v>351</v>
+      </c>
+      <c r="U6" s="34">
+        <v>345</v>
+      </c>
+      <c r="V6" s="34">
+        <v>5.42</v>
+      </c>
+      <c r="W6" s="34">
+        <v>108.4</v>
+      </c>
+      <c r="X6" s="34">
+        <v>236.4</v>
+      </c>
+      <c r="Y6" s="34">
+        <v>234</v>
+      </c>
+      <c r="Z6" s="34">
+        <v>7.05</v>
+      </c>
+      <c r="AA6" s="34">
+        <v>141</v>
+      </c>
+      <c r="AB6" s="34">
+        <v>194</v>
+      </c>
+      <c r="AC6" s="34">
+        <v>177</v>
+      </c>
+      <c r="AD6" s="34">
+        <v>11.25</v>
+      </c>
+      <c r="AE6" s="34">
+        <v>225</v>
+      </c>
+      <c r="AF6" s="34">
+        <v>134</v>
+      </c>
+      <c r="AG6" s="34">
+        <v>123</v>
+      </c>
+      <c r="AH6" s="34">
+        <v>14.8</v>
+      </c>
+      <c r="AI6" s="34">
+        <v>296</v>
+      </c>
+      <c r="AJ6" s="34">
+        <v>111</v>
+      </c>
+      <c r="AK6" s="34">
+        <v>95</v>
+      </c>
+      <c r="AL6" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="32"/>
-      <c r="AJ3" s="32"/>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="30"/>
-    </row>
-    <row r="4" spans="1:38" ht="17.25" thickBot="1">
-      <c r="A4" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="D4" s="35">
-        <v>123789</v>
-      </c>
-      <c r="E4" s="35" t="s">
+    </row>
+    <row r="7" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A7" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="33">
+        <v>321321</v>
+      </c>
+      <c r="E7" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F7" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="H7" s="33">
+        <v>-3000</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="K7" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="L7" s="34">
+        <v>5000</v>
+      </c>
+      <c r="M7" s="34">
+        <v>2000</v>
+      </c>
+      <c r="N7" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="34"/>
+      <c r="AH7" s="34"/>
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="34"/>
+      <c r="AL7" s="34" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A8" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" s="33">
+        <v>654321</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="G4" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="H4" s="35">
-        <v>-4500</v>
-      </c>
-      <c r="I4" s="35" t="s">
+      <c r="G8" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="H8" s="33">
+        <v>0</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="J8" s="34">
+        <v>0</v>
+      </c>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34">
+        <v>5000</v>
+      </c>
+      <c r="M8" s="34">
+        <v>5000</v>
+      </c>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="34"/>
+      <c r="AI8" s="34"/>
+      <c r="AJ8" s="34"/>
+      <c r="AK8" s="34"/>
+      <c r="AL8" s="34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A9" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="33">
+        <v>135790</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="H9" s="33">
+        <v>-1000</v>
+      </c>
+      <c r="I9" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="35">
-        <v>4500</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="L4" s="35">
+      <c r="J9" s="34">
+        <v>1000</v>
+      </c>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34">
         <v>5000</v>
       </c>
-      <c r="M4" s="35">
-        <v>500</v>
-      </c>
-      <c r="N4" s="36">
-        <v>2.17</v>
-      </c>
-      <c r="O4" s="36">
-        <v>97.65</v>
-      </c>
-      <c r="P4" s="36">
-        <v>1533.65</v>
-      </c>
-      <c r="Q4" s="36">
-        <v>1532</v>
-      </c>
-      <c r="R4" s="36">
-        <v>3.8</v>
-      </c>
-      <c r="S4" s="36">
-        <v>171</v>
-      </c>
-      <c r="T4" s="36">
-        <v>781</v>
-      </c>
-      <c r="U4" s="36">
-        <v>778</v>
-      </c>
-      <c r="V4" s="36">
-        <v>5.42</v>
-      </c>
-      <c r="W4" s="36">
-        <v>243.9</v>
-      </c>
-      <c r="X4" s="36">
-        <v>527.9</v>
-      </c>
-      <c r="Y4" s="36">
-        <v>527</v>
-      </c>
-      <c r="Z4" s="36">
-        <v>7.05</v>
-      </c>
-      <c r="AA4" s="36">
-        <v>317.25</v>
-      </c>
-      <c r="AB4" s="36">
-        <v>406.25</v>
-      </c>
-      <c r="AC4" s="36">
-        <v>401</v>
-      </c>
-      <c r="AD4" s="36">
-        <v>11.25</v>
-      </c>
-      <c r="AE4" s="36">
-        <v>506.25</v>
-      </c>
-      <c r="AF4" s="36">
-        <v>280.25</v>
-      </c>
-      <c r="AG4" s="36">
-        <v>278</v>
-      </c>
-      <c r="AH4" s="36">
-        <v>14.8</v>
-      </c>
-      <c r="AI4" s="36">
-        <v>666</v>
-      </c>
-      <c r="AJ4" s="36">
-        <v>244</v>
-      </c>
-      <c r="AK4" s="36">
-        <v>214</v>
-      </c>
-      <c r="AL4" s="37" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" ht="17.25" thickBot="1">
-      <c r="A5" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>259</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="D5" s="35">
-        <v>246800</v>
-      </c>
-      <c r="E5" s="35" t="s">
+      <c r="M9" s="34">
+        <v>4000</v>
+      </c>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="34" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A10" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="D10" s="33">
+        <v>159753</v>
+      </c>
+      <c r="E10" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="F5" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="H5" s="35">
-        <v>-500</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="J5" s="35">
-        <v>500</v>
-      </c>
-      <c r="K5" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="L5" s="35">
+      <c r="F10" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="H10" s="33">
+        <v>-150</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="34">
+        <v>150</v>
+      </c>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34">
         <v>5000</v>
       </c>
-      <c r="M5" s="35">
-        <v>4500</v>
-      </c>
-      <c r="N5" s="36">
-        <v>2.17</v>
-      </c>
-      <c r="O5" s="36">
-        <v>10.85</v>
-      </c>
-      <c r="P5" s="36">
-        <v>172.85</v>
-      </c>
-      <c r="Q5" s="36">
-        <v>169</v>
-      </c>
-      <c r="R5" s="36">
-        <v>3.8</v>
-      </c>
-      <c r="S5" s="36">
-        <v>19</v>
-      </c>
-      <c r="T5" s="36">
-        <v>89</v>
-      </c>
-      <c r="U5" s="36">
-        <v>86</v>
-      </c>
-      <c r="V5" s="36">
-        <v>5.42</v>
-      </c>
-      <c r="W5" s="36">
-        <v>27.1</v>
-      </c>
-      <c r="X5" s="36">
-        <v>63.1</v>
-      </c>
-      <c r="Y5" s="36">
-        <v>58</v>
-      </c>
-      <c r="Z5" s="36">
-        <v>7.05</v>
-      </c>
-      <c r="AA5" s="36">
-        <v>35.25</v>
-      </c>
-      <c r="AB5" s="36">
-        <v>62.25</v>
-      </c>
-      <c r="AC5" s="36">
-        <v>43</v>
-      </c>
-      <c r="AD5" s="36">
-        <v>11.25</v>
-      </c>
-      <c r="AE5" s="36">
-        <v>56.25</v>
-      </c>
-      <c r="AF5" s="36">
-        <v>46.25</v>
-      </c>
-      <c r="AG5" s="36">
-        <v>30</v>
-      </c>
-      <c r="AH5" s="36">
-        <v>14.8</v>
-      </c>
-      <c r="AI5" s="36">
-        <v>74</v>
-      </c>
-      <c r="AJ5" s="36">
-        <v>45</v>
-      </c>
-      <c r="AK5" s="36">
-        <v>23</v>
-      </c>
-      <c r="AL5" s="37" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" ht="17.25" thickBot="1">
-      <c r="A6" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>267</v>
-      </c>
-      <c r="D6" s="35">
-        <v>357951</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="H6" s="35">
-        <v>-2000</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="35">
-        <v>2000</v>
-      </c>
-      <c r="K6" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="L6" s="35">
-        <v>5000</v>
-      </c>
-      <c r="M6" s="35">
-        <v>3000</v>
-      </c>
-      <c r="N6" s="36">
-        <v>2.17</v>
-      </c>
-      <c r="O6" s="36">
-        <v>43.4</v>
-      </c>
-      <c r="P6" s="36">
-        <v>683.4</v>
-      </c>
-      <c r="Q6" s="36">
-        <v>680</v>
-      </c>
-      <c r="R6" s="36">
-        <v>3.8</v>
-      </c>
-      <c r="S6" s="36">
-        <v>76</v>
-      </c>
-      <c r="T6" s="36">
-        <v>351</v>
-      </c>
-      <c r="U6" s="36">
-        <v>345</v>
-      </c>
-      <c r="V6" s="36">
-        <v>5.42</v>
-      </c>
-      <c r="W6" s="36">
-        <v>108.4</v>
-      </c>
-      <c r="X6" s="36">
-        <v>236.4</v>
-      </c>
-      <c r="Y6" s="36">
-        <v>234</v>
-      </c>
-      <c r="Z6" s="36">
-        <v>7.05</v>
-      </c>
-      <c r="AA6" s="36">
-        <v>141</v>
-      </c>
-      <c r="AB6" s="36">
-        <v>194</v>
-      </c>
-      <c r="AC6" s="36">
-        <v>177</v>
-      </c>
-      <c r="AD6" s="36">
-        <v>11.25</v>
-      </c>
-      <c r="AE6" s="36">
-        <v>225</v>
-      </c>
-      <c r="AF6" s="36">
-        <v>134</v>
-      </c>
-      <c r="AG6" s="36">
-        <v>123</v>
-      </c>
-      <c r="AH6" s="36">
-        <v>14.8</v>
-      </c>
-      <c r="AI6" s="36">
-        <v>296</v>
-      </c>
-      <c r="AJ6" s="36">
-        <v>111</v>
-      </c>
-      <c r="AK6" s="36">
-        <v>95</v>
-      </c>
-      <c r="AL6" s="37" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" ht="17.25" thickBot="1">
-      <c r="A7" s="35" t="s">
+      <c r="M10" s="34">
+        <v>4850</v>
+      </c>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>268</v>
-      </c>
-      <c r="D7" s="35">
-        <v>321321</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="H7" s="35">
-        <v>-3000</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="35">
-        <v>3000</v>
-      </c>
-      <c r="K7" s="52" t="s">
-        <v>276</v>
-      </c>
-      <c r="L7" s="35">
-        <v>5000</v>
-      </c>
-      <c r="M7" s="35">
-        <v>2000</v>
-      </c>
-      <c r="N7" s="55" t="s">
-        <v>276</v>
-      </c>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="56"/>
-      <c r="AB7" s="56"/>
-      <c r="AC7" s="56"/>
-      <c r="AD7" s="56"/>
-      <c r="AE7" s="56"/>
-      <c r="AF7" s="56"/>
-      <c r="AG7" s="56"/>
-      <c r="AH7" s="56"/>
-      <c r="AI7" s="56"/>
-      <c r="AJ7" s="56"/>
-      <c r="AK7" s="57"/>
-      <c r="AL7" s="37" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" ht="17.25" thickBot="1">
-      <c r="A8" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="D8" s="35">
-        <v>654321</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="H8" s="35">
-        <v>0</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="J8" s="35">
-        <v>0</v>
-      </c>
-      <c r="K8" s="53"/>
-      <c r="L8" s="35">
-        <v>5000</v>
-      </c>
-      <c r="M8" s="35">
-        <v>5000</v>
-      </c>
-      <c r="N8" s="58"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="59"/>
-      <c r="AD8" s="59"/>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="59"/>
-      <c r="AG8" s="59"/>
-      <c r="AH8" s="59"/>
-      <c r="AI8" s="59"/>
-      <c r="AJ8" s="59"/>
-      <c r="AK8" s="60"/>
-      <c r="AL8" s="37" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" ht="17.25" thickBot="1">
-      <c r="A9" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="D9" s="35">
-        <v>135790</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="H9" s="35">
-        <v>-1000</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="35">
-        <v>1000</v>
-      </c>
-      <c r="K9" s="53"/>
-      <c r="L9" s="35">
-        <v>5000</v>
-      </c>
-      <c r="M9" s="35">
-        <v>4000</v>
-      </c>
-      <c r="N9" s="58"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="59"/>
-      <c r="AD9" s="59"/>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="59"/>
-      <c r="AG9" s="59"/>
-      <c r="AH9" s="59"/>
-      <c r="AI9" s="59"/>
-      <c r="AJ9" s="59"/>
-      <c r="AK9" s="60"/>
-      <c r="AL9" s="37" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="17.25" thickBot="1">
-      <c r="A10" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="D10" s="35">
-        <v>159753</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="H10" s="35">
-        <v>-150</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="35">
-        <v>150</v>
-      </c>
-      <c r="K10" s="54"/>
-      <c r="L10" s="35">
-        <v>5000</v>
-      </c>
-      <c r="M10" s="35">
-        <v>4850</v>
-      </c>
-      <c r="N10" s="61"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="62"/>
-      <c r="AC10" s="62"/>
-      <c r="AD10" s="62"/>
-      <c r="AE10" s="62"/>
-      <c r="AF10" s="62"/>
-      <c r="AG10" s="62"/>
-      <c r="AH10" s="62"/>
-      <c r="AI10" s="62"/>
-      <c r="AJ10" s="62"/>
-      <c r="AK10" s="63"/>
-      <c r="AL10" s="37" t="s">
-        <v>257</v>
-      </c>
+    </row>
+    <row r="11" spans="1:38" ht="14.25" thickTop="1">
+      <c r="K11"/>
+    </row>
+    <row r="12" spans="1:38">
+      <c r="K12"/>
     </row>
     <row r="13" spans="1:38">
       <c r="K13"/>
     </row>
-    <row r="14" spans="1:38">
-      <c r="K14"/>
-    </row>
-    <row r="15" spans="1:38">
-      <c r="K15"/>
-    </row>
-    <row r="16" spans="1:38">
-      <c r="K16"/>
-    </row>
-    <row r="17" spans="11:11">
-      <c r="K17"/>
-    </row>
-    <row r="18" spans="11:11">
-      <c r="K18"/>
-    </row>
-    <row r="19" spans="11:11">
-      <c r="K19"/>
-    </row>
-    <row r="20" spans="11:11">
-      <c r="K20"/>
-    </row>
-    <row r="21" spans="11:11">
-      <c r="K21"/>
-    </row>
-    <row r="22" spans="11:11">
-      <c r="K22"/>
-    </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="N7:AK10"/>
-    <mergeCell ref="AL1:AL2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3304,8 +2959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE72EEFD-0F28-41BD-80B6-AE746FF870AE}">
   <dimension ref="A1:AP10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection sqref="A1:AP9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -3316,58 +2971,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="49"/>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="49" t="s">
+      <c r="A1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="49" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="49" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="49" t="s">
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="49" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="49" t="s">
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="51"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="37"/>
       <c r="AO1" s="20"/>
       <c r="AP1" s="20"/>
     </row>

--- a/src/main/resources/ICBC-DATA.xlsx
+++ b/src/main/resources/ICBC-DATA.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\AICP\ICBC\WebHook\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC452CE-6AA0-4B62-B7D0-A70504D8939E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E94BE0-3EDA-4DD9-B03F-E993B4FCDF83}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="信用卡催收外呼信息" sheetId="3" r:id="rId1"/>
     <sheet name="账单分期流程信息" sheetId="4" r:id="rId2"/>
-    <sheet name="吞卡信息" sheetId="5" r:id="rId3"/>
+    <sheet name="吞卡流程信息" sheetId="5" r:id="rId3"/>
     <sheet name="信用卡分期流程信息" sheetId="7" r:id="rId4"/>
-    <sheet name="储蓄卡挂失信息" sheetId="8" r:id="rId5"/>
-    <sheet name="收不到余额信息" sheetId="9" r:id="rId6"/>
+    <sheet name="储蓄卡挂失流程信息" sheetId="8" r:id="rId5"/>
+    <sheet name="收不到余额提醒流程信息" sheetId="9" r:id="rId6"/>
+    <sheet name="一键调额流程信息" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="439">
   <si>
     <t>姓名</t>
   </si>
@@ -696,21 +697,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-  </si>
-  <si>
     <t>接收方式</t>
   </si>
   <si>
-    <t>信息状态</t>
-  </si>
-  <si>
     <t>phoneNumber</t>
   </si>
   <si>
-    <t>cardStatus</t>
-  </si>
-  <si>
     <t>sysDate</t>
   </si>
   <si>
@@ -729,52 +721,13 @@
     <t>身份证号</t>
   </si>
   <si>
-    <t>起点金额</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>userName</t>
   </si>
   <si>
-    <t>sex</t>
-  </si>
-  <si>
     <t>cardNumber</t>
   </si>
   <si>
     <t>idCardNumber</t>
-  </si>
-  <si>
-    <t>startingAmount</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>4270000056781230</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>995-06-05</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>柜面预留手机号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sysMobile</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>密码
@@ -990,6 +943,616 @@
   </si>
   <si>
     <t>熊五</t>
+  </si>
+  <si>
+    <t>证件号码</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>当前卡片额度</t>
+  </si>
+  <si>
+    <t>最高可调整的额度</t>
+  </si>
+  <si>
+    <t>实时生效最小值</t>
+  </si>
+  <si>
+    <t>系统身份</t>
+  </si>
+  <si>
+    <t>卡类型</t>
+  </si>
+  <si>
+    <t>卡类型1</t>
+  </si>
+  <si>
+    <t>正确</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>非注册客户身份</t>
+  </si>
+  <si>
+    <t>符合条件卡</t>
+  </si>
+  <si>
+    <t>非注册客户身份，符合条件卡</t>
+  </si>
+  <si>
+    <t>李四</t>
+  </si>
+  <si>
+    <t>52462719800101192X</t>
+  </si>
+  <si>
+    <t>没有符合条件的信用卡</t>
+  </si>
+  <si>
+    <t>逸贷卡</t>
+  </si>
+  <si>
+    <t>非注册客户身份，逸贷卡不支持</t>
+  </si>
+  <si>
+    <t>注册客户身份</t>
+  </si>
+  <si>
+    <t>非注册客户身份，未注册卡</t>
+  </si>
+  <si>
+    <t>王五</t>
+  </si>
+  <si>
+    <t>没有符合条件卡</t>
+  </si>
+  <si>
+    <t>注册客户身份，没有符合条件卡</t>
+  </si>
+  <si>
+    <t>赵六</t>
+  </si>
+  <si>
+    <t>私银黑金卡</t>
+  </si>
+  <si>
+    <t>非注册客户身份，私银黑金卡</t>
+  </si>
+  <si>
+    <t>钱七</t>
+  </si>
+  <si>
+    <t>符合条件卡（金卡）</t>
+  </si>
+  <si>
+    <t>金卡</t>
+  </si>
+  <si>
+    <t>非注册客户身份，符合条件卡（金卡）</t>
+  </si>
+  <si>
+    <t>刘二</t>
+  </si>
+  <si>
+    <t>系统降额</t>
+  </si>
+  <si>
+    <t>注册客户身份，系统降额，没有符合条件卡</t>
+  </si>
+  <si>
+    <t>孙一</t>
+  </si>
+  <si>
+    <t>学生卡</t>
+  </si>
+  <si>
+    <t>非注册客户身份，学生卡不支持</t>
+  </si>
+  <si>
+    <t>110111199001011000</t>
+  </si>
+  <si>
+    <t>110227198701011000</t>
+  </si>
+  <si>
+    <t>623221197001010000</t>
+  </si>
+  <si>
+    <t>110222198801011000</t>
+  </si>
+  <si>
+    <t>110227198801012000</t>
+  </si>
+  <si>
+    <t>110102199901013000</t>
+  </si>
+  <si>
+    <t>6252500022111230</t>
+  </si>
+  <si>
+    <t>6225990013242520</t>
+  </si>
+  <si>
+    <t>4135210013242520</t>
+  </si>
+  <si>
+    <t>6222460012341210</t>
+  </si>
+  <si>
+    <t>6252500022001230</t>
+  </si>
+  <si>
+    <t>6252500022004120</t>
+  </si>
+  <si>
+    <t>6252470012345670</t>
+  </si>
+  <si>
+    <t>6258590011332540</t>
+  </si>
+  <si>
+    <t>5309900132459680</t>
+  </si>
+  <si>
+    <t>4135000000000000</t>
+  </si>
+  <si>
+    <t>5309000000000000</t>
+  </si>
+  <si>
+    <t>注册标识</t>
+  </si>
+  <si>
+    <t>有明细的交易日期</t>
+  </si>
+  <si>
+    <t>当天交易明细笔数金额</t>
+  </si>
+  <si>
+    <t>发送状态</t>
+  </si>
+  <si>
+    <t>起点提醒金额</t>
+  </si>
+  <si>
+    <t>手机号</t>
+  </si>
+  <si>
+    <t>手机号是否为柜面预留</t>
+  </si>
+  <si>
+    <t>zcbs</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>startingAmount</t>
+  </si>
+  <si>
+    <t>ifPhone</t>
+  </si>
+  <si>
+    <t>张一</t>
+  </si>
+  <si>
+    <t>借记卡</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>发送</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>2019-07-02 消费-300.00人民币 财付通-罗森(北京)有限公司 
+2019-07-02 消费-789.00人民币 财付通-Apple 
+2019-07-02 消费-10001.00人民币 财付通-北京紫昱轩大食堂餐饮    </t>
+  </si>
+  <si>
+    <t>2019-07-03 消费-300.00人民币 财付通-罗森(北京)有限公司 
+2019-07-03 消费-789.00人民币 财付通-Apple 
+2019-07-03 消费-10001.00人民币 财付通-北京紫昱轩大食堂餐饮     </t>
+  </si>
+  <si>
+    <t>张二</t>
+  </si>
+  <si>
+    <t>2019-07-04 消费-800.00人民币 财付通-Apple 
+2019-07-04 消费-900.00人民币 财付通-星巴克（上海）商业有 
+2019-07-04 消费-1000.00人民币 财付通-Apple  </t>
+  </si>
+  <si>
+    <t>2019-07-05 消费-800.00人民币 财付通-Apple 
+2019-07-05 消费-900.00人民币 财付通-星巴克（上海）商业有 
+2019-07-05 消费-1000.00人民币 财付通-Apple  </t>
+  </si>
+  <si>
+    <t>2019-07-06 消费-800.00人民币 财付通-Apple 
+2019-07-06 消费-900.00人民币 财付通-星巴克（上海）商业有 
+2019-07-06 消费-1000.00人民币 财付通-Apple  </t>
+  </si>
+  <si>
+    <t>李一</t>
+  </si>
+  <si>
+    <t>2019-07-07 消费-600.00人民币 财付通-爱奇艺
+2019-07-07 消费-888.00人民币 支付宝
+2019-07-07 消费-299.00人民币 财付通-Apple</t>
+  </si>
+  <si>
+    <t>融e联</t>
+  </si>
+  <si>
+    <t>2019-07-08 消费-600.00人民币 财付通-爱奇艺
+2019-07-08 消费-888.00人民币 支付宝
+2019-07-08 消费-299.00人民币 财付通-Apple</t>
+  </si>
+  <si>
+    <t>2019-07-09 消费-600.00人民币 财付通-爱奇艺
+2019-07-09 消费-888.00人民币 支付宝
+2019-07-09 消费-299.00人民币 财付通-Apple</t>
+  </si>
+  <si>
+    <t>李二</t>
+  </si>
+  <si>
+    <t>2019-07-10 消费-301.00人民币 财付通-Apple
+2019-07-10 消费-90000.00人民币 财付通-北京紫昱轩大食堂餐饮
+2019-07-10 消费-285.00人民币 财付通-星巴克（上海）商业有</t>
+  </si>
+  <si>
+    <t>2019-07-11 消费-301.00人民币 财付通-Apple
+2019-07-11 消费-90000.00人民币 财付通-北京紫昱轩大食堂餐饮
+2019-07-11 消费-285.00人民币 财付通-星巴克（上海）商业有 </t>
+  </si>
+  <si>
+    <t>2019-07-12 消费-301.00人民币 财付通-Apple
+2019-07-12 消费-90000.00人民币 财付通-北京紫昱轩大食堂餐饮 
+2019-07-12 消费-285.00人民币 财付通-星巴克（上海）商业有  </t>
+  </si>
+  <si>
+    <t>王一</t>
+  </si>
+  <si>
+    <t>2019-07-13 消费-6000.00人民币京东支付-京东商城 
+2019-07-13 消费-90000.00人民币 财付通-Apple
+2019-07-13 消费-300.00人民币 财付通-Apple </t>
+  </si>
+  <si>
+    <t>——</t>
+  </si>
+  <si>
+    <t>2019-07-14 消费-6000.00人民币京东支付-京东商城 
+2019-07-14 消费-90000.00人民币 财付通-Apple
+2019-07-14 消费-300.00人民币 财付通-Apple </t>
+  </si>
+  <si>
+    <t>2019-07-15 消费-6000.00人民币京东支付-京东商城 
+2019-07-15 消费-90000.00人民币 财付通-Apple
+2019-07-15 消费-300.00人民币 财付通-Apple </t>
+  </si>
+  <si>
+    <t>王二</t>
+  </si>
+  <si>
+    <t>信用卡</t>
+  </si>
+  <si>
+    <t>2019-07-16 消费-600.00人民币 支付宝-百胜咨询（上海）有限公司
+2019-07-16 消费-200.00人民币 财付通-Apple 
+2019-07-16 消费-789.00人民币 钱袋宝-美团支付-美团支付</t>
+  </si>
+  <si>
+    <t>2019-07-17 消费-600.00人民币 支付宝-百胜咨询（上海）有限公司
+2019-07-17 消费-200.00人民币 财付通-Apple 
+2019-07-17 消费-789.00人民币 钱袋宝-美团支付-美团支付</t>
+  </si>
+  <si>
+    <t>2019-07-18 消费-600.00人民币 支付宝-百胜咨询（上海）有限公司
+2019-07-18 消费-200.00人民币 财付通-Apple 
+2019-07-18 消费-789.00人民币 钱袋宝-美团支付-美团支付</t>
+  </si>
+  <si>
+    <t>赵一</t>
+  </si>
+  <si>
+    <t>2019-07-19 消费-10001.00人民币 财付通-Apple
+2019-07-19 消费-600.00人民币 财付通-Apple
+2019-07-19 消费-150.00人民币 财付通-Apple</t>
+  </si>
+  <si>
+    <t>2019-07-20 消费-10001.00人民币 财付通-Apple
+2019-07-20 消费-600.00人民币 财付通-Apple
+2019-07-20 消费-150.00人民币 财付通-Apple</t>
+  </si>
+  <si>
+    <t>2019-07-21 消费-10001.00人民币 财付通-Apple
+2019-07-21 消费-600.00人民币 财付通-Apple
+2019-07-21 消费-150.00人民币 财付通-Apple</t>
+  </si>
+  <si>
+    <t>赵二</t>
+  </si>
+  <si>
+    <t>2019-07-22 消费-299.00人民币 钱袋宝-美团支付-美团支付
+2019-07-22 消费-301.00人民币 财付通-Apple
+2019-07-22 消费-90000.00人民币 财付通-Apple</t>
+  </si>
+  <si>
+    <t>2019-07-23 消费-299.00人民币 钱袋宝-美团支付-美团支付
+2019-07-23 消费-301.00人民币 财付通-Apple
+2019-07-23 消费-90000.00人民币 财付通-Apple</t>
+  </si>
+  <si>
+    <t>2019-07-24 消费-299.00人民币 钱袋宝-美团支付-美团支付
+2019-07-24 消费-301.00人民币 财付通-Apple
+2019-07-24 消费-90000.00人民币 财付通-Apple</t>
+  </si>
+  <si>
+    <t>陈一</t>
+  </si>
+  <si>
+    <t>2019-07-25 消费-285.00人民币 财付通-Apple
+2019-07-25 消费-6000.00人民币 财付通-Apple
+2019-07-25 消费-300.00人民币 财付通-北京紫昱轩大食堂餐饮</t>
+  </si>
+  <si>
+    <t>2019-07-26 消费-285.00人民币 财付通-Apple
+2019-07-26 消费-6000.00人民币 财付通-Apple
+2019-07-26 消费-300.00人民币 财付通-北京紫昱轩大食堂餐饮</t>
+  </si>
+  <si>
+    <t>2019-07-01 消费-285.00人民币 财付通-Apple
+2019-07-01 消费-6000.00人民币 财付通-Apple
+2019-07-01 消费-300.00人民币 财付通-北京紫昱轩大食堂餐饮</t>
+  </si>
+  <si>
+    <t>陈二</t>
+  </si>
+  <si>
+    <t>2019-07-02 消费-600.00人民币 财付通-Apple
+2019-07-02 消费-789.00人民币 财付通-北京紫昱轩大食堂餐饮
+2019-07-02 消费-288.00人民币 星巴克（上海）商业有限公司</t>
+  </si>
+  <si>
+    <t>2019-07-03 消费-600.00人民币 财付通-Apple
+2019-07-03 消费-789.00人民币 财付通-北京紫昱轩大食堂餐饮
+2019-07-03 消费-288.00人民币 星巴克（上海）商业有限公司</t>
+  </si>
+  <si>
+    <t>2019-07-04 消费-600.00人民币 财付通-Apple
+2019-07-04 消费-789.00人民币 财付通-北京紫昱轩大食堂餐饮
+2019-07-04 消费-288.00人民币 星巴克（上海）商业有限公司</t>
+  </si>
+  <si>
+    <t>2019-07-01 消费-300.00人民币 财付通-罗森(北京)有限公司 
+2019-07-01 消费-789.00人民币 财付通-Apple 
+2019-07-01 消费-10001.00人民币 财付通-北京紫昱轩大食堂餐饮     </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>9558800200126547412</t>
+  </si>
+  <si>
+    <t>6222020066541257863</t>
+  </si>
+  <si>
+    <t>6222080051475661241</t>
+  </si>
+  <si>
+    <t>6212880025471002321</t>
+  </si>
+  <si>
+    <t>6212218007585612311</t>
+  </si>
+  <si>
+    <t>370247521452847</t>
+  </si>
+  <si>
+    <t>4270302514756328</t>
+  </si>
+  <si>
+    <t>5309707496131245</t>
+  </si>
+  <si>
+    <t>6222306897452123</t>
+  </si>
+  <si>
+    <t>4580623256214745</t>
+  </si>
+  <si>
+    <t>2019年7月1日</t>
+  </si>
+  <si>
+    <t>2019年7月2日</t>
+  </si>
+  <si>
+    <t>2019年7月3日</t>
+  </si>
+  <si>
+    <t>2019年7月4日</t>
+  </si>
+  <si>
+    <t>2019年7月5日</t>
+  </si>
+  <si>
+    <t>2019年7月6日</t>
+  </si>
+  <si>
+    <t>2019年7月7日</t>
+  </si>
+  <si>
+    <t>2019年7月8日</t>
+  </si>
+  <si>
+    <t>2019年7月9日</t>
+  </si>
+  <si>
+    <t>2019年7月10日</t>
+  </si>
+  <si>
+    <t>2019年7月11日</t>
+  </si>
+  <si>
+    <t>2019年7月12日</t>
+  </si>
+  <si>
+    <t>2019年7月13日</t>
+  </si>
+  <si>
+    <t>2019年7月14日</t>
+  </si>
+  <si>
+    <t>2019年7月15日</t>
+  </si>
+  <si>
+    <t>2019年7月16日</t>
+  </si>
+  <si>
+    <t>2019年7月17日</t>
+  </si>
+  <si>
+    <t>2019年7月18日</t>
+  </si>
+  <si>
+    <t>2019年7月19日</t>
+  </si>
+  <si>
+    <t>2019年7月20日</t>
+  </si>
+  <si>
+    <t>2019年7月21日</t>
+  </si>
+  <si>
+    <t>2019年7月22日</t>
+  </si>
+  <si>
+    <t>2019年7月23日</t>
+  </si>
+  <si>
+    <t>2019年7月24日</t>
+  </si>
+  <si>
+    <t>2019年7月25日</t>
+  </si>
+  <si>
+    <t>2019年7月26日</t>
+  </si>
+  <si>
+    <t>2019年7月1日</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhiding</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额变动提醒是否制定</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡归属</t>
+  </si>
+  <si>
+    <t>卡类型2</t>
+  </si>
+  <si>
+    <t>IDCardNumber</t>
+  </si>
+  <si>
+    <t>未下挂信用卡</t>
+  </si>
+  <si>
+    <t>注册卡</t>
+  </si>
+  <si>
+    <t>未注册卡</t>
+  </si>
+  <si>
+    <t>本人卡</t>
+  </si>
+  <si>
+    <t>成员卡</t>
+  </si>
+  <si>
+    <t>6222020200010404321</t>
+  </si>
+  <si>
+    <t>6222991011221234</t>
+  </si>
+  <si>
+    <t>6222991011001111</t>
+  </si>
+  <si>
+    <t>卡级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sDefineCredit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quotaMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quotaMin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemIdentity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardowner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardType1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardType2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardJiBie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000</t>
+  </si>
+  <si>
+    <t>10000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -999,7 +1562,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1055,29 +1618,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="SimSun"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <color indexed="8"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1096,8 +1664,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1169,29 +1743,121 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color rgb="FF2B2B2B"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right style="medium">
+        <color rgb="FF2B2B2B"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color rgb="FF2B2B2B"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF2B2B2B"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF2B2B2B"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF2B2B2B"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF2B2B2B"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF2B2B2B"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <left/>
+      <right style="medium">
+        <color rgb="FF2B2B2B"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF2B2B2B"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF2B2B2B"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF2B2B2B"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF2B2B2B"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF2B2B2B"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF2B2B2B"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF2B2B2B"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF2B2B2B"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF2B2B2B"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF2B2B2B"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF2B2B2B"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF2B2B2B"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF2B2B2B"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF2B2B2B"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1200,7 +1866,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1218,9 +1884,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1264,33 +1927,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1306,6 +1942,27 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1314,6 +1971,66 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1685,84 +2402,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="27">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="19" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1900,7 +2617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C9EB0D-85D9-47ED-B377-7DA30201B995}">
   <dimension ref="A1:AL13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
@@ -1915,7 +2632,7 @@
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.25" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.25" style="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.375" customWidth="1"/>
@@ -1927,859 +2644,859 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31" t="s">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31" t="s">
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31" t="s">
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31" t="s">
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31" t="s">
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
     </row>
     <row r="2" spans="1:38" ht="27">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="X2" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y2" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z2" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA2" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB2" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC2" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD2" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE2" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF2" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG2" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH2" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="AI2" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ2" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK2" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL2" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="40.5">
+      <c r="A3" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="31" t="s">
+      <c r="C3" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
+    </row>
+    <row r="4" spans="1:38" ht="16.5" thickBot="1">
+      <c r="A4" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="23">
+        <v>123789</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="H4" s="23">
+        <v>-4500</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="24">
+        <v>4500</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="L4" s="24">
+        <v>5000</v>
+      </c>
+      <c r="M4" s="24">
+        <v>500</v>
+      </c>
+      <c r="N4" s="24">
+        <v>2.17</v>
+      </c>
+      <c r="O4" s="24">
+        <v>97.65</v>
+      </c>
+      <c r="P4" s="24">
+        <v>1533.65</v>
+      </c>
+      <c r="Q4" s="24">
+        <v>1532</v>
+      </c>
+      <c r="R4" s="24">
+        <v>3.8</v>
+      </c>
+      <c r="S4" s="24">
+        <v>171</v>
+      </c>
+      <c r="T4" s="24">
+        <v>781</v>
+      </c>
+      <c r="U4" s="24">
+        <v>778</v>
+      </c>
+      <c r="V4" s="24">
+        <v>5.42</v>
+      </c>
+      <c r="W4" s="24">
+        <v>243.9</v>
+      </c>
+      <c r="X4" s="24">
+        <v>527.9</v>
+      </c>
+      <c r="Y4" s="24">
+        <v>527</v>
+      </c>
+      <c r="Z4" s="24">
+        <v>7.05</v>
+      </c>
+      <c r="AA4" s="24">
+        <v>317.25</v>
+      </c>
+      <c r="AB4" s="24">
+        <v>406.25</v>
+      </c>
+      <c r="AC4" s="24">
+        <v>401</v>
+      </c>
+      <c r="AD4" s="24">
+        <v>11.25</v>
+      </c>
+      <c r="AE4" s="24">
+        <v>506.25</v>
+      </c>
+      <c r="AF4" s="24">
+        <v>280.25</v>
+      </c>
+      <c r="AG4" s="24">
+        <v>278</v>
+      </c>
+      <c r="AH4" s="24">
+        <v>14.8</v>
+      </c>
+      <c r="AI4" s="24">
+        <v>666</v>
+      </c>
+      <c r="AJ4" s="24">
+        <v>244</v>
+      </c>
+      <c r="AK4" s="24">
+        <v>214</v>
+      </c>
+      <c r="AL4" s="24" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A5" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="D5" s="23">
+        <v>246800</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="H5" s="23">
+        <v>-500</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="L5" s="24">
+        <v>5000</v>
+      </c>
+      <c r="M5" s="24">
+        <v>4500</v>
+      </c>
+      <c r="N5" s="24">
+        <v>2.17</v>
+      </c>
+      <c r="O5" s="24">
+        <v>10.85</v>
+      </c>
+      <c r="P5" s="24">
+        <v>172.85</v>
+      </c>
+      <c r="Q5" s="24">
+        <v>169</v>
+      </c>
+      <c r="R5" s="24">
+        <v>3.8</v>
+      </c>
+      <c r="S5" s="24">
+        <v>19</v>
+      </c>
+      <c r="T5" s="24">
+        <v>89</v>
+      </c>
+      <c r="U5" s="24">
+        <v>86</v>
+      </c>
+      <c r="V5" s="24">
+        <v>5.42</v>
+      </c>
+      <c r="W5" s="24">
+        <v>27.1</v>
+      </c>
+      <c r="X5" s="24">
+        <v>63.1</v>
+      </c>
+      <c r="Y5" s="24">
+        <v>58</v>
+      </c>
+      <c r="Z5" s="24">
+        <v>7.05</v>
+      </c>
+      <c r="AA5" s="24">
+        <v>35.25</v>
+      </c>
+      <c r="AB5" s="24">
+        <v>62.25</v>
+      </c>
+      <c r="AC5" s="24">
+        <v>43</v>
+      </c>
+      <c r="AD5" s="24">
+        <v>11.25</v>
+      </c>
+      <c r="AE5" s="24">
+        <v>56.25</v>
+      </c>
+      <c r="AF5" s="24">
+        <v>46.25</v>
+      </c>
+      <c r="AG5" s="24">
+        <v>30</v>
+      </c>
+      <c r="AH5" s="24">
+        <v>14.8</v>
+      </c>
+      <c r="AI5" s="24">
+        <v>74</v>
+      </c>
+      <c r="AJ5" s="24">
+        <v>45</v>
+      </c>
+      <c r="AK5" s="24">
+        <v>23</v>
+      </c>
+      <c r="AL5" s="24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A6" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="B6" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="23">
+        <v>357951</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F6" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="M2" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="O2" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="P2" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q2" s="31" t="s">
+      <c r="G6" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="H6" s="23">
+        <v>-2000</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="L6" s="24">
+        <v>5000</v>
+      </c>
+      <c r="M6" s="24">
+        <v>3000</v>
+      </c>
+      <c r="N6" s="24">
+        <v>2.17</v>
+      </c>
+      <c r="O6" s="24">
+        <v>43.4</v>
+      </c>
+      <c r="P6" s="24">
+        <v>683.4</v>
+      </c>
+      <c r="Q6" s="24">
+        <v>680</v>
+      </c>
+      <c r="R6" s="24">
+        <v>3.8</v>
+      </c>
+      <c r="S6" s="24">
+        <v>76</v>
+      </c>
+      <c r="T6" s="24">
+        <v>351</v>
+      </c>
+      <c r="U6" s="24">
+        <v>345</v>
+      </c>
+      <c r="V6" s="24">
+        <v>5.42</v>
+      </c>
+      <c r="W6" s="24">
+        <v>108.4</v>
+      </c>
+      <c r="X6" s="24">
+        <v>236.4</v>
+      </c>
+      <c r="Y6" s="24">
+        <v>234</v>
+      </c>
+      <c r="Z6" s="24">
+        <v>7.05</v>
+      </c>
+      <c r="AA6" s="24">
+        <v>141</v>
+      </c>
+      <c r="AB6" s="24">
+        <v>194</v>
+      </c>
+      <c r="AC6" s="24">
+        <v>177</v>
+      </c>
+      <c r="AD6" s="24">
+        <v>11.25</v>
+      </c>
+      <c r="AE6" s="24">
         <v>225</v>
       </c>
-      <c r="R2" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="S2" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="T2" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="U2" s="31" t="s">
+      <c r="AF6" s="24">
+        <v>134</v>
+      </c>
+      <c r="AG6" s="24">
+        <v>123</v>
+      </c>
+      <c r="AH6" s="24">
+        <v>14.8</v>
+      </c>
+      <c r="AI6" s="24">
+        <v>296</v>
+      </c>
+      <c r="AJ6" s="24">
+        <v>111</v>
+      </c>
+      <c r="AK6" s="24">
+        <v>95</v>
+      </c>
+      <c r="AL6" s="24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A7" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" s="23">
+        <v>321321</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="H7" s="23">
+        <v>-3000</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="L7" s="24">
+        <v>5000</v>
+      </c>
+      <c r="M7" s="24">
+        <v>2000</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="24"/>
+      <c r="AH7" s="24"/>
+      <c r="AI7" s="24"/>
+      <c r="AJ7" s="24"/>
+      <c r="AK7" s="24"/>
+      <c r="AL7" s="24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A8" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8" s="23">
+        <v>654321</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="V2" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="W2" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="X2" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y2" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="Z2" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="AA2" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB2" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC2" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD2" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE2" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF2" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG2" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="AH2" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI2" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="AJ2" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="AK2" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="AL2" s="31" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" ht="40.5">
-      <c r="A3" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="I3" s="31" t="s">
+      <c r="H8" s="23">
+        <v>0</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="J8" s="24">
+        <v>0</v>
+      </c>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24">
+        <v>5000</v>
+      </c>
+      <c r="M8" s="24">
+        <v>5000</v>
+      </c>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="24"/>
+      <c r="AG8" s="24"/>
+      <c r="AH8" s="24"/>
+      <c r="AI8" s="24"/>
+      <c r="AJ8" s="24"/>
+      <c r="AK8" s="24"/>
+      <c r="AL8" s="24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A9" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="D9" s="23">
+        <v>135790</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="J3" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="K3" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="L3" s="31" t="s">
+      <c r="H9" s="23">
+        <v>-1000</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="24">
+        <v>1000</v>
+      </c>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24">
+        <v>5000</v>
+      </c>
+      <c r="M9" s="24">
+        <v>4000</v>
+      </c>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="24"/>
+      <c r="AI9" s="24"/>
+      <c r="AJ9" s="24"/>
+      <c r="AK9" s="24"/>
+      <c r="AL9" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A10" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="23">
+        <v>159753</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="M3" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="N3" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="O3" s="31" t="s">
-        <v>232</v>
-      </c>
-      <c r="P3" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q3" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-    </row>
-    <row r="4" spans="1:38" ht="16.5" thickBot="1">
-      <c r="A4" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="D4" s="33">
-        <v>123789</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="H4" s="33">
-        <v>-4500</v>
-      </c>
-      <c r="I4" s="34" t="s">
+      <c r="H10" s="23">
+        <v>-150</v>
+      </c>
+      <c r="I10" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="34">
-        <v>4500</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="L4" s="34">
+      <c r="J10" s="24">
+        <v>150</v>
+      </c>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24">
         <v>5000</v>
       </c>
-      <c r="M4" s="34">
-        <v>500</v>
-      </c>
-      <c r="N4" s="34">
-        <v>2.17</v>
-      </c>
-      <c r="O4" s="34">
-        <v>97.65</v>
-      </c>
-      <c r="P4" s="34">
-        <v>1533.65</v>
-      </c>
-      <c r="Q4" s="34">
-        <v>1532</v>
-      </c>
-      <c r="R4" s="34">
-        <v>3.8</v>
-      </c>
-      <c r="S4" s="34">
-        <v>171</v>
-      </c>
-      <c r="T4" s="34">
-        <v>781</v>
-      </c>
-      <c r="U4" s="34">
-        <v>778</v>
-      </c>
-      <c r="V4" s="34">
-        <v>5.42</v>
-      </c>
-      <c r="W4" s="34">
-        <v>243.9</v>
-      </c>
-      <c r="X4" s="34">
-        <v>527.9</v>
-      </c>
-      <c r="Y4" s="34">
-        <v>527</v>
-      </c>
-      <c r="Z4" s="34">
-        <v>7.05</v>
-      </c>
-      <c r="AA4" s="34">
-        <v>317.25</v>
-      </c>
-      <c r="AB4" s="34">
-        <v>406.25</v>
-      </c>
-      <c r="AC4" s="34">
-        <v>401</v>
-      </c>
-      <c r="AD4" s="34">
-        <v>11.25</v>
-      </c>
-      <c r="AE4" s="34">
-        <v>506.25</v>
-      </c>
-      <c r="AF4" s="34">
-        <v>280.25</v>
-      </c>
-      <c r="AG4" s="34">
-        <v>278</v>
-      </c>
-      <c r="AH4" s="34">
-        <v>14.8</v>
-      </c>
-      <c r="AI4" s="34">
-        <v>666</v>
-      </c>
-      <c r="AJ4" s="34">
-        <v>244</v>
-      </c>
-      <c r="AK4" s="34">
-        <v>214</v>
-      </c>
-      <c r="AL4" s="34" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="D5" s="33">
-        <v>246800</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="H5" s="33">
-        <v>-500</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="L5" s="34">
-        <v>5000</v>
-      </c>
-      <c r="M5" s="34">
-        <v>4500</v>
-      </c>
-      <c r="N5" s="34">
-        <v>2.17</v>
-      </c>
-      <c r="O5" s="34">
-        <v>10.85</v>
-      </c>
-      <c r="P5" s="34">
-        <v>172.85</v>
-      </c>
-      <c r="Q5" s="34">
-        <v>169</v>
-      </c>
-      <c r="R5" s="34">
-        <v>3.8</v>
-      </c>
-      <c r="S5" s="34">
-        <v>19</v>
-      </c>
-      <c r="T5" s="34">
-        <v>89</v>
-      </c>
-      <c r="U5" s="34">
-        <v>86</v>
-      </c>
-      <c r="V5" s="34">
-        <v>5.42</v>
-      </c>
-      <c r="W5" s="34">
-        <v>27.1</v>
-      </c>
-      <c r="X5" s="34">
-        <v>63.1</v>
-      </c>
-      <c r="Y5" s="34">
-        <v>58</v>
-      </c>
-      <c r="Z5" s="34">
-        <v>7.05</v>
-      </c>
-      <c r="AA5" s="34">
-        <v>35.25</v>
-      </c>
-      <c r="AB5" s="34">
-        <v>62.25</v>
-      </c>
-      <c r="AC5" s="34">
-        <v>43</v>
-      </c>
-      <c r="AD5" s="34">
-        <v>11.25</v>
-      </c>
-      <c r="AE5" s="34">
-        <v>56.25</v>
-      </c>
-      <c r="AF5" s="34">
-        <v>46.25</v>
-      </c>
-      <c r="AG5" s="34">
-        <v>30</v>
-      </c>
-      <c r="AH5" s="34">
-        <v>14.8</v>
-      </c>
-      <c r="AI5" s="34">
-        <v>74</v>
-      </c>
-      <c r="AJ5" s="34">
-        <v>45</v>
-      </c>
-      <c r="AK5" s="34">
-        <v>23</v>
-      </c>
-      <c r="AL5" s="34" t="s">
+      <c r="M10" s="24">
+        <v>4850</v>
+      </c>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="24"/>
+      <c r="AH10" s="24"/>
+      <c r="AI10" s="24"/>
+      <c r="AJ10" s="24"/>
+      <c r="AK10" s="24"/>
+      <c r="AL10" s="24" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="D6" s="33">
-        <v>357951</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="H6" s="33">
-        <v>-2000</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>269</v>
-      </c>
-      <c r="K6" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="L6" s="34">
-        <v>5000</v>
-      </c>
-      <c r="M6" s="34">
-        <v>3000</v>
-      </c>
-      <c r="N6" s="34">
-        <v>2.17</v>
-      </c>
-      <c r="O6" s="34">
-        <v>43.4</v>
-      </c>
-      <c r="P6" s="34">
-        <v>683.4</v>
-      </c>
-      <c r="Q6" s="34">
-        <v>680</v>
-      </c>
-      <c r="R6" s="34">
-        <v>3.8</v>
-      </c>
-      <c r="S6" s="34">
-        <v>76</v>
-      </c>
-      <c r="T6" s="34">
-        <v>351</v>
-      </c>
-      <c r="U6" s="34">
-        <v>345</v>
-      </c>
-      <c r="V6" s="34">
-        <v>5.42</v>
-      </c>
-      <c r="W6" s="34">
-        <v>108.4</v>
-      </c>
-      <c r="X6" s="34">
-        <v>236.4</v>
-      </c>
-      <c r="Y6" s="34">
-        <v>234</v>
-      </c>
-      <c r="Z6" s="34">
-        <v>7.05</v>
-      </c>
-      <c r="AA6" s="34">
-        <v>141</v>
-      </c>
-      <c r="AB6" s="34">
-        <v>194</v>
-      </c>
-      <c r="AC6" s="34">
-        <v>177</v>
-      </c>
-      <c r="AD6" s="34">
-        <v>11.25</v>
-      </c>
-      <c r="AE6" s="34">
-        <v>225</v>
-      </c>
-      <c r="AF6" s="34">
-        <v>134</v>
-      </c>
-      <c r="AG6" s="34">
-        <v>123</v>
-      </c>
-      <c r="AH6" s="34">
-        <v>14.8</v>
-      </c>
-      <c r="AI6" s="34">
-        <v>296</v>
-      </c>
-      <c r="AJ6" s="34">
-        <v>111</v>
-      </c>
-      <c r="AK6" s="34">
-        <v>95</v>
-      </c>
-      <c r="AL6" s="34" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="D7" s="33">
-        <v>321321</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="H7" s="33">
-        <v>-3000</v>
-      </c>
-      <c r="I7" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="K7" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="L7" s="34">
-        <v>5000</v>
-      </c>
-      <c r="M7" s="34">
-        <v>2000</v>
-      </c>
-      <c r="N7" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
-      <c r="AD7" s="34"/>
-      <c r="AE7" s="34"/>
-      <c r="AF7" s="34"/>
-      <c r="AG7" s="34"/>
-      <c r="AH7" s="34"/>
-      <c r="AI7" s="34"/>
-      <c r="AJ7" s="34"/>
-      <c r="AK7" s="34"/>
-      <c r="AL7" s="34" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A8" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="D8" s="33">
-        <v>654321</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="H8" s="33">
-        <v>0</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="J8" s="34">
-        <v>0</v>
-      </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34">
-        <v>5000</v>
-      </c>
-      <c r="M8" s="34">
-        <v>5000</v>
-      </c>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34"/>
-      <c r="AD8" s="34"/>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="34"/>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="34"/>
-      <c r="AI8" s="34"/>
-      <c r="AJ8" s="34"/>
-      <c r="AK8" s="34"/>
-      <c r="AL8" s="34" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A9" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="D9" s="33">
-        <v>135790</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="H9" s="33">
-        <v>-1000</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="34">
-        <v>1000</v>
-      </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34">
-        <v>5000</v>
-      </c>
-      <c r="M9" s="34">
-        <v>4000</v>
-      </c>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="34"/>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="34"/>
-      <c r="AG9" s="34"/>
-      <c r="AH9" s="34"/>
-      <c r="AI9" s="34"/>
-      <c r="AJ9" s="34"/>
-      <c r="AK9" s="34"/>
-      <c r="AL9" s="34" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A10" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="D10" s="33">
-        <v>159753</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="H10" s="33">
-        <v>-150</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="34">
-        <v>150</v>
-      </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34">
-        <v>5000</v>
-      </c>
-      <c r="M10" s="34">
-        <v>4850</v>
-      </c>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="34"/>
-      <c r="AH10" s="34"/>
-      <c r="AI10" s="34"/>
-      <c r="AJ10" s="34"/>
-      <c r="AK10" s="34"/>
-      <c r="AL10" s="34" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:38" ht="14.25" thickTop="1">
@@ -2819,54 +3536,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" thickBot="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" thickTop="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="19" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2874,13 +3591,13 @@
       <c r="A3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="5">
         <v>13012345678</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="5">
@@ -2900,13 +3617,13 @@
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="5">
         <v>13012345679</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E4" s="5">
@@ -2926,13 +3643,13 @@
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="5">
         <v>13012345677</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="5">
@@ -2959,8 +3676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE72EEFD-0F28-41BD-80B6-AE746FF870AE}">
   <dimension ref="A1:AP10"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection sqref="A1:AP9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2971,1082 +3688,1082 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="35"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="35" t="s">
+      <c r="A1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="35" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="35" t="s">
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="35" t="s">
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="35" t="s">
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="35" t="s">
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="20"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
     </row>
     <row r="2" spans="1:42" ht="54">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="U2" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="V2" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="W2" s="20" t="s">
+      <c r="W2" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="X2" s="20" t="s">
+      <c r="X2" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="Y2" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="Z2" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="AA2" s="20" t="s">
+      <c r="AA2" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AB2" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="AC2" s="20" t="s">
+      <c r="AC2" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="AD2" s="20" t="s">
+      <c r="AD2" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="AE2" s="20" t="s">
+      <c r="AE2" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="AF2" s="20" t="s">
+      <c r="AF2" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="AG2" s="20" t="s">
+      <c r="AG2" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="AH2" s="20" t="s">
+      <c r="AH2" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="AI2" s="20" t="s">
+      <c r="AI2" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="AJ2" s="20" t="s">
+      <c r="AJ2" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="AK2" s="20" t="s">
+      <c r="AK2" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="AL2" s="20" t="s">
+      <c r="AL2" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="AM2" s="20" t="s">
+      <c r="AM2" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="AN2" s="20" t="s">
+      <c r="AN2" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="AO2" s="20" t="s">
+      <c r="AO2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AP2" s="20" t="s">
+      <c r="AP2" s="19" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:42" ht="40.5">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="P3" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="T3" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="U3" s="20" t="s">
+      <c r="U3" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="V3" s="20" t="s">
+      <c r="V3" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="W3" s="20" t="s">
+      <c r="W3" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="X3" s="20" t="s">
+      <c r="X3" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="Y3" s="20" t="s">
+      <c r="Y3" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="Z3" s="20" t="s">
+      <c r="Z3" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="AA3" s="20" t="s">
+      <c r="AA3" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="AB3" s="20" t="s">
+      <c r="AB3" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="AC3" s="20" t="s">
+      <c r="AC3" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="AD3" s="20" t="s">
+      <c r="AD3" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="AE3" s="20" t="s">
+      <c r="AE3" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="AF3" s="20" t="s">
+      <c r="AF3" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="AG3" s="20" t="s">
+      <c r="AG3" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="AH3" s="20" t="s">
+      <c r="AH3" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="AI3" s="20" t="s">
+      <c r="AI3" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="AJ3" s="20" t="s">
+      <c r="AJ3" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="AK3" s="20" t="s">
+      <c r="AK3" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="AL3" s="20" t="s">
+      <c r="AL3" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AM3" s="20" t="s">
+      <c r="AM3" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="AN3" s="20" t="s">
+      <c r="AN3" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AO3" s="20" t="s">
+      <c r="AO3" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AP3" s="20" t="s">
+      <c r="AP3" s="19" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:42" ht="16.5" thickBot="1">
-      <c r="A4" s="8">
-        <v>4135001122334690</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>10000</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>3334</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>3333</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>73</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>72</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="10">
         <v>217</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <v>1670</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="10">
         <v>1666</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="10">
         <v>65</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="10">
         <v>63</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="9">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="10">
         <v>380</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="10">
         <v>1112</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="10">
         <v>1111</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4" s="10">
         <v>62</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="10">
         <v>60</v>
       </c>
-      <c r="U4" s="10">
+      <c r="U4" s="9">
         <v>5.4199999999999998E-2</v>
       </c>
-      <c r="V4" s="11">
+      <c r="V4" s="10">
         <v>542</v>
       </c>
-      <c r="W4" s="11">
+      <c r="W4" s="10">
         <v>837</v>
       </c>
-      <c r="X4" s="11">
+      <c r="X4" s="10">
         <v>833</v>
       </c>
-      <c r="Y4" s="11">
+      <c r="Y4" s="10">
         <v>67</v>
       </c>
-      <c r="Z4" s="11">
+      <c r="Z4" s="10">
         <v>58</v>
       </c>
-      <c r="AA4" s="10">
+      <c r="AA4" s="9">
         <v>7.0499999999999993E-2</v>
       </c>
-      <c r="AB4" s="11">
+      <c r="AB4" s="10">
         <v>705</v>
       </c>
-      <c r="AC4" s="11">
+      <c r="AC4" s="10">
         <v>565</v>
       </c>
-      <c r="AD4" s="11">
+      <c r="AD4" s="10">
         <v>555</v>
       </c>
-      <c r="AE4" s="11">
+      <c r="AE4" s="10">
         <v>71</v>
       </c>
-      <c r="AF4" s="11">
+      <c r="AF4" s="10">
         <v>62</v>
       </c>
-      <c r="AG4" s="10">
+      <c r="AG4" s="9">
         <v>0.1125</v>
       </c>
-      <c r="AH4" s="11">
+      <c r="AH4" s="10">
         <v>1125</v>
       </c>
-      <c r="AI4" s="11">
+      <c r="AI4" s="10">
         <v>432</v>
       </c>
-      <c r="AJ4" s="11">
+      <c r="AJ4" s="10">
         <v>416</v>
       </c>
-      <c r="AK4" s="11">
+      <c r="AK4" s="10">
         <v>77</v>
       </c>
-      <c r="AL4" s="11">
+      <c r="AL4" s="10">
         <v>61</v>
       </c>
-      <c r="AM4" s="10">
+      <c r="AM4" s="9">
         <v>0.14799999999999999</v>
       </c>
-      <c r="AN4" s="11">
+      <c r="AN4" s="10">
         <v>1480</v>
       </c>
-      <c r="AO4" s="12">
+      <c r="AO4" s="11">
         <v>13312345678</v>
       </c>
-      <c r="AP4" s="13" t="s">
+      <c r="AP4" s="12" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="8">
-        <v>5309000000005570</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>20000</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>6668</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>6666</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>146</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>144</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <v>434</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <v>3334</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="10">
         <v>3333</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="10">
         <v>130</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="10">
         <v>126</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="9">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="10">
         <v>760</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="10">
         <v>2224</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="10">
         <v>2222</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="10">
         <v>124</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="10">
         <v>120</v>
       </c>
-      <c r="U5" s="10">
+      <c r="U5" s="9">
         <v>5.4199999999999998E-2</v>
       </c>
-      <c r="V5" s="11">
+      <c r="V5" s="10">
         <v>1084</v>
       </c>
-      <c r="W5" s="11">
+      <c r="W5" s="10">
         <v>1674</v>
       </c>
-      <c r="X5" s="11">
+      <c r="X5" s="10">
         <v>1666</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="Y5" s="10">
         <v>123</v>
       </c>
-      <c r="Z5" s="11">
+      <c r="Z5" s="10">
         <v>117</v>
       </c>
-      <c r="AA5" s="10">
+      <c r="AA5" s="9">
         <v>7.0499999999999993E-2</v>
       </c>
-      <c r="AB5" s="11">
+      <c r="AB5" s="10">
         <v>1410</v>
       </c>
-      <c r="AC5" s="11">
+      <c r="AC5" s="10">
         <v>1113</v>
       </c>
-      <c r="AD5" s="11">
+      <c r="AD5" s="10">
         <v>1111</v>
       </c>
-      <c r="AE5" s="11">
+      <c r="AE5" s="10">
         <v>125</v>
       </c>
-      <c r="AF5" s="11">
+      <c r="AF5" s="10">
         <v>125</v>
       </c>
-      <c r="AG5" s="10">
+      <c r="AG5" s="9">
         <v>0.1125</v>
       </c>
-      <c r="AH5" s="11">
+      <c r="AH5" s="10">
         <v>2250</v>
       </c>
-      <c r="AI5" s="11">
+      <c r="AI5" s="10">
         <v>841</v>
       </c>
-      <c r="AJ5" s="11">
+      <c r="AJ5" s="10">
         <v>833</v>
       </c>
-      <c r="AK5" s="11">
+      <c r="AK5" s="10">
         <v>131</v>
       </c>
-      <c r="AL5" s="11">
+      <c r="AL5" s="10">
         <v>123</v>
       </c>
-      <c r="AM5" s="10">
+      <c r="AM5" s="9">
         <v>0.14799999999999999</v>
       </c>
-      <c r="AN5" s="11">
+      <c r="AN5" s="10">
         <v>2960</v>
       </c>
-      <c r="AO5" s="13" t="s">
+      <c r="AO5" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AP5" s="13" t="s">
+      <c r="AP5" s="12" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="8">
-        <v>4135000000004690</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>30000</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>10000</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>10000</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>217</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>217</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="10">
         <v>651</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <v>5000</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <v>5000</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="10">
         <v>190</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="10">
         <v>190</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="9">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="10">
         <v>1140</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="10">
         <v>3334</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="10">
         <v>3333</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="10">
         <v>186</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="10">
         <v>180</v>
       </c>
-      <c r="U6" s="10">
+      <c r="U6" s="9">
         <v>5.4199999999999998E-2</v>
       </c>
-      <c r="V6" s="11">
+      <c r="V6" s="10">
         <v>1626</v>
       </c>
-      <c r="W6" s="11">
+      <c r="W6" s="10">
         <v>2500</v>
       </c>
-      <c r="X6" s="11">
+      <c r="X6" s="10">
         <v>2500</v>
       </c>
-      <c r="Y6" s="11">
+      <c r="Y6" s="10">
         <v>179</v>
       </c>
-      <c r="Z6" s="11">
+      <c r="Z6" s="10">
         <v>176</v>
       </c>
-      <c r="AA6" s="10">
+      <c r="AA6" s="9">
         <v>7.0499999999999993E-2</v>
       </c>
-      <c r="AB6" s="11">
+      <c r="AB6" s="10">
         <v>2115</v>
       </c>
-      <c r="AC6" s="11">
+      <c r="AC6" s="10">
         <v>1678</v>
       </c>
-      <c r="AD6" s="11">
+      <c r="AD6" s="10">
         <v>1666</v>
       </c>
-      <c r="AE6" s="11">
+      <c r="AE6" s="10">
         <v>196</v>
       </c>
-      <c r="AF6" s="11">
+      <c r="AF6" s="10">
         <v>187</v>
       </c>
-      <c r="AG6" s="10">
+      <c r="AG6" s="9">
         <v>0.1125</v>
       </c>
-      <c r="AH6" s="11">
+      <c r="AH6" s="10">
         <v>3375</v>
       </c>
-      <c r="AI6" s="11">
+      <c r="AI6" s="10">
         <v>1250</v>
       </c>
-      <c r="AJ6" s="11">
+      <c r="AJ6" s="10">
         <v>1250</v>
       </c>
-      <c r="AK6" s="11">
+      <c r="AK6" s="10">
         <v>185</v>
       </c>
-      <c r="AL6" s="11">
+      <c r="AL6" s="10">
         <v>185</v>
       </c>
-      <c r="AM6" s="10">
+      <c r="AM6" s="9">
         <v>0.14799999999999999</v>
       </c>
-      <c r="AN6" s="11">
+      <c r="AN6" s="10">
         <v>4440</v>
       </c>
-      <c r="AO6" s="12">
+      <c r="AO6" s="11">
         <v>13312345676</v>
       </c>
-      <c r="AP6" s="13" t="s">
+      <c r="AP6" s="12" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="8">
-        <v>5309000000005570</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>40000</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>13334</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>13333</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>290</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>289</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="9">
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <v>868</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <v>6670</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="10">
         <v>6666</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="10">
         <v>255</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="10">
         <v>253</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="9">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="10">
         <v>1520</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="10">
         <v>4448</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="10">
         <v>4444</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S7" s="10">
         <v>248</v>
       </c>
-      <c r="T7" s="11">
+      <c r="T7" s="10">
         <v>240</v>
       </c>
-      <c r="U7" s="10">
+      <c r="U7" s="9">
         <v>5.4199999999999998E-2</v>
       </c>
-      <c r="V7" s="11">
+      <c r="V7" s="10">
         <v>2168</v>
       </c>
-      <c r="W7" s="11">
+      <c r="W7" s="10">
         <v>3337</v>
       </c>
-      <c r="X7" s="11">
+      <c r="X7" s="10">
         <v>3333</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="Y7" s="10">
         <v>235</v>
       </c>
-      <c r="Z7" s="11">
+      <c r="Z7" s="10">
         <v>235</v>
       </c>
-      <c r="AA7" s="10">
+      <c r="AA7" s="9">
         <v>7.0499999999999993E-2</v>
       </c>
-      <c r="AB7" s="11">
+      <c r="AB7" s="10">
         <v>2820</v>
       </c>
-      <c r="AC7" s="11">
+      <c r="AC7" s="10">
         <v>2226</v>
       </c>
-      <c r="AD7" s="11">
+      <c r="AD7" s="10">
         <v>2222</v>
       </c>
-      <c r="AE7" s="11">
+      <c r="AE7" s="10">
         <v>250</v>
       </c>
-      <c r="AF7" s="11">
+      <c r="AF7" s="10">
         <v>250</v>
       </c>
-      <c r="AG7" s="10">
+      <c r="AG7" s="9">
         <v>0.1125</v>
       </c>
-      <c r="AH7" s="11">
+      <c r="AH7" s="10">
         <v>4500</v>
       </c>
-      <c r="AI7" s="11">
+      <c r="AI7" s="10">
         <v>1682</v>
       </c>
-      <c r="AJ7" s="11">
+      <c r="AJ7" s="10">
         <v>1666</v>
       </c>
-      <c r="AK7" s="11">
+      <c r="AK7" s="10">
         <v>262</v>
       </c>
-      <c r="AL7" s="11">
+      <c r="AL7" s="10">
         <v>246</v>
       </c>
-      <c r="AM7" s="10">
+      <c r="AM7" s="9">
         <v>0.14799999999999999</v>
       </c>
-      <c r="AN7" s="11">
+      <c r="AN7" s="10">
         <v>5920</v>
       </c>
-      <c r="AO7" s="12">
+      <c r="AO7" s="11">
         <v>13312345675</v>
       </c>
-      <c r="AP7" s="13" t="s">
+      <c r="AP7" s="12" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A8" s="8">
-        <v>4135000000004690</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>50000</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>16668</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>16666</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>363</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>361</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="9">
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="10">
         <v>1085</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="10">
         <v>8335</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="10">
         <v>8333</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="10">
         <v>320</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="10">
         <v>316</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="9">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="10">
         <v>1900</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="10">
         <v>5560</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="10">
         <v>5555</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S8" s="10">
         <v>302</v>
       </c>
-      <c r="T8" s="11">
+      <c r="T8" s="10">
         <v>301</v>
       </c>
-      <c r="U8" s="10">
+      <c r="U8" s="9">
         <v>5.4199999999999998E-2</v>
       </c>
-      <c r="V8" s="11">
+      <c r="V8" s="10">
         <v>2710</v>
       </c>
-      <c r="W8" s="11">
+      <c r="W8" s="10">
         <v>4174</v>
       </c>
-      <c r="X8" s="11">
+      <c r="X8" s="10">
         <v>4166</v>
       </c>
-      <c r="Y8" s="11">
+      <c r="Y8" s="10">
         <v>302</v>
       </c>
-      <c r="Z8" s="11">
+      <c r="Z8" s="10">
         <v>293</v>
       </c>
-      <c r="AA8" s="10">
+      <c r="AA8" s="9">
         <v>7.0499999999999993E-2</v>
       </c>
-      <c r="AB8" s="11">
+      <c r="AB8" s="10">
         <v>3525</v>
       </c>
-      <c r="AC8" s="11">
+      <c r="AC8" s="10">
         <v>2791</v>
       </c>
-      <c r="AD8" s="11">
+      <c r="AD8" s="10">
         <v>2777</v>
       </c>
-      <c r="AE8" s="11">
+      <c r="AE8" s="10">
         <v>321</v>
       </c>
-      <c r="AF8" s="11">
+      <c r="AF8" s="10">
         <v>312</v>
       </c>
-      <c r="AG8" s="10">
+      <c r="AG8" s="9">
         <v>0.1125</v>
       </c>
-      <c r="AH8" s="11">
+      <c r="AH8" s="10">
         <v>5625</v>
       </c>
-      <c r="AI8" s="11">
+      <c r="AI8" s="10">
         <v>2091</v>
       </c>
-      <c r="AJ8" s="11">
+      <c r="AJ8" s="10">
         <v>2083</v>
       </c>
-      <c r="AK8" s="11">
+      <c r="AK8" s="10">
         <v>316</v>
       </c>
-      <c r="AL8" s="11">
+      <c r="AL8" s="10">
         <v>308</v>
       </c>
-      <c r="AM8" s="10">
+      <c r="AM8" s="9">
         <v>0.14799999999999999</v>
       </c>
-      <c r="AN8" s="11">
+      <c r="AN8" s="10">
         <v>7400</v>
       </c>
-      <c r="AO8" s="12">
+      <c r="AO8" s="11">
         <v>13312345674</v>
       </c>
-      <c r="AP8" s="13" t="s">
+      <c r="AP8" s="12" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A9" s="8">
-        <v>5309000000005570</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>60000</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>20000</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>20000</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>434</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>434</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="10">
         <v>1302</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>10000</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="10">
         <v>10000</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="10">
         <v>380</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="10">
         <v>380</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="9">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="10">
         <v>2280</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="10">
         <v>6672</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="10">
         <v>6666</v>
       </c>
-      <c r="S9" s="11">
+      <c r="S9" s="10">
         <v>364</v>
       </c>
-      <c r="T9" s="11">
+      <c r="T9" s="10">
         <v>361</v>
       </c>
-      <c r="U9" s="10">
+      <c r="U9" s="9">
         <v>5.4199999999999998E-2</v>
       </c>
-      <c r="V9" s="11">
+      <c r="V9" s="10">
         <v>3252</v>
       </c>
-      <c r="W9" s="11">
+      <c r="W9" s="10">
         <v>5000</v>
       </c>
-      <c r="X9" s="11">
+      <c r="X9" s="10">
         <v>5000</v>
       </c>
-      <c r="Y9" s="11">
+      <c r="Y9" s="10">
         <v>358</v>
       </c>
-      <c r="Z9" s="11">
+      <c r="Z9" s="10">
         <v>352</v>
       </c>
-      <c r="AA9" s="10">
+      <c r="AA9" s="9">
         <v>7.0499999999999993E-2</v>
       </c>
-      <c r="AB9" s="11">
+      <c r="AB9" s="10">
         <v>4230</v>
       </c>
-      <c r="AC9" s="11">
+      <c r="AC9" s="10">
         <v>3339</v>
       </c>
-      <c r="AD9" s="11">
+      <c r="AD9" s="10">
         <v>3333</v>
       </c>
-      <c r="AE9" s="11">
+      <c r="AE9" s="10">
         <v>375</v>
       </c>
-      <c r="AF9" s="11">
+      <c r="AF9" s="10">
         <v>375</v>
       </c>
-      <c r="AG9" s="10">
+      <c r="AG9" s="9">
         <v>0.1125</v>
       </c>
-      <c r="AH9" s="11">
+      <c r="AH9" s="10">
         <v>6750</v>
       </c>
-      <c r="AI9" s="11">
+      <c r="AI9" s="10">
         <v>2500</v>
       </c>
-      <c r="AJ9" s="11">
+      <c r="AJ9" s="10">
         <v>2500</v>
       </c>
-      <c r="AK9" s="11">
+      <c r="AK9" s="10">
         <v>370</v>
       </c>
-      <c r="AL9" s="11">
+      <c r="AL9" s="10">
         <v>370</v>
       </c>
-      <c r="AM9" s="10">
+      <c r="AM9" s="9">
         <v>0.14799999999999999</v>
       </c>
-      <c r="AN9" s="11">
+      <c r="AN9" s="10">
         <v>8880</v>
       </c>
-      <c r="AO9" s="12">
+      <c r="AO9" s="11">
         <v>13312345673</v>
       </c>
-      <c r="AP9" s="13" t="s">
+      <c r="AP9" s="12" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4089,444 +4806,444 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="19" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="40.5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="19" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="30.75" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <v>32728</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="17">
         <v>42370</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="14">
         <v>123456</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="14">
         <v>13012345678</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="15">
         <v>12000</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="30.75" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="19" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="17">
         <v>42370</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="14">
         <v>132456</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="14">
         <v>13012345678</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="15">
         <v>12000</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30.75" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" ht="30.75" customHeight="1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>32983</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="17">
         <v>42856</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="14">
         <v>123456</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="14">
         <v>13112345678</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16" t="s">
+      <c r="M6" s="15"/>
+      <c r="N6" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30.75" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="19" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="17">
         <v>39661</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="14">
         <v>123456</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16" t="s">
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="30.75" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="19" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16">
+      <c r="H8" s="17"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15">
         <v>0</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="N8" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="30.75" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="19" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16">
+      <c r="H9" s="17"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15">
         <v>0</v>
       </c>
-      <c r="N9" s="16" t="s">
+      <c r="N9" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="30.75" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:14" ht="30.75" customHeight="1">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="16">
         <v>33147</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="17">
         <v>43009</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="14">
         <v>123456</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="14">
         <v>13212345678</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16" t="s">
+      <c r="M11" s="15"/>
+      <c r="N11" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="30.75" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="19" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="17">
         <v>43221</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="14">
         <v>123456</v>
       </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16" t="s">
+      <c r="J12" s="14"/>
+      <c r="K12" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16" t="s">
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="30.75" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="19" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="17">
         <v>43353</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="14">
         <v>123456</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="16" t="s">
+      <c r="J13" s="14"/>
+      <c r="K13" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16">
+      <c r="L13" s="15"/>
+      <c r="M13" s="15">
         <v>4125.25</v>
       </c>
-      <c r="N13" s="16" t="s">
+      <c r="N13" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="30.75" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="19" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="17">
         <v>43383</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="14">
         <v>123456</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="16" t="s">
+      <c r="J14" s="14"/>
+      <c r="K14" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16" t="s">
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4539,159 +5256,1922 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5CF3B6-B177-4342-8426-912BE4F25E02}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.75" style="35" customWidth="1"/>
     <col min="9" max="9" width="18.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5" customWidth="1"/>
+    <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:13" ht="30" customHeight="1">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="C1" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>411</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="I1" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="J1" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="30" customHeight="1">
+      <c r="A2" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="L2" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A2" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="M2" s="36" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30" customHeight="1">
+      <c r="A3" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="E3" s="39">
+        <v>190722</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>409</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>372</v>
+      </c>
+      <c r="I3" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="J3" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="K3" s="39">
+        <v>0</v>
+      </c>
+      <c r="L3" s="39">
+        <v>18612345678</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30" customHeight="1">
+      <c r="A4" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="E4" s="39">
+        <v>190722</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="K4" s="39">
+        <v>0</v>
+      </c>
+      <c r="L4" s="39">
+        <v>18612345678</v>
+      </c>
+      <c r="M4" s="39" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" customHeight="1">
+      <c r="A5" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="E5" s="39">
+        <v>190722</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>385</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>332</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="K5" s="39">
+        <v>0</v>
+      </c>
+      <c r="L5" s="39">
+        <v>18612345678</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="30" customHeight="1">
+      <c r="A6" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="E6" s="39">
+        <v>190723</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>386</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="J6" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="D3" s="6">
-        <v>13012345678</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="J3" s="6">
-        <v>12000</v>
-      </c>
-      <c r="K3" s="6">
-        <v>15838692921</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="23"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="G6" s="24"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="G10" s="22"/>
+      <c r="K6" s="39">
+        <v>1000</v>
+      </c>
+      <c r="L6" s="39">
+        <v>18724578612</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" customHeight="1">
+      <c r="A7" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="E7" s="39">
+        <v>190723</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>387</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="39">
+        <v>1000</v>
+      </c>
+      <c r="L7" s="39">
+        <v>18724578612</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" customHeight="1">
+      <c r="A8" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="E8" s="39">
+        <v>190723</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>388</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>336</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="K8" s="39">
+        <v>1000</v>
+      </c>
+      <c r="L8" s="39">
+        <v>18724578612</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30" customHeight="1">
+      <c r="A9" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="E9" s="39">
+        <v>190724</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>389</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="K9" s="39">
+        <v>0</v>
+      </c>
+      <c r="L9" s="39">
+        <v>13947851245</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30" customHeight="1">
+      <c r="A10" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="E10" s="39">
+        <v>190724</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>390</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="K10" s="39">
+        <v>0</v>
+      </c>
+      <c r="L10" s="39">
+        <v>13947851245</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30" customHeight="1">
+      <c r="A11" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="E11" s="39">
+        <v>190724</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>391</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="K11" s="39">
+        <v>0</v>
+      </c>
+      <c r="L11" s="39">
+        <v>13947851245</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30" customHeight="1">
+      <c r="A12" s="39" t="s">
+        <v>342</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="E12" s="39">
+        <v>190725</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="K12" s="39">
+        <v>1000</v>
+      </c>
+      <c r="L12" s="39">
+        <v>13847569541</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30" customHeight="1">
+      <c r="A13" s="39" t="s">
+        <v>342</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="E13" s="39">
+        <v>190725</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="K13" s="39">
+        <v>1000</v>
+      </c>
+      <c r="L13" s="39">
+        <v>13847569541</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="30" customHeight="1">
+      <c r="A14" s="39" t="s">
+        <v>342</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="E14" s="39">
+        <v>190725</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="I14" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="K14" s="39">
+        <v>1000</v>
+      </c>
+      <c r="L14" s="39">
+        <v>13847569541</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="30" customHeight="1">
+      <c r="A15" s="39" t="s">
+        <v>346</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="E15" s="39">
+        <v>190726</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="K15" s="39">
+        <v>1000</v>
+      </c>
+      <c r="L15" s="39">
+        <v>13745123547</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30" customHeight="1">
+      <c r="A16" s="39" t="s">
+        <v>346</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="E16" s="39">
+        <v>190726</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>349</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="K16" s="39">
+        <v>1000</v>
+      </c>
+      <c r="L16" s="39">
+        <v>13745123547</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="30" customHeight="1">
+      <c r="A17" s="39" t="s">
+        <v>346</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="E17" s="39">
+        <v>190726</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>397</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="I17" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="K17" s="39">
+        <v>1000</v>
+      </c>
+      <c r="L17" s="39">
+        <v>13745123547</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="30" customHeight="1">
+      <c r="A18" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="E18" s="39">
+        <v>190727</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="J18" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="K18" s="39">
+        <v>300</v>
+      </c>
+      <c r="L18" s="39">
+        <v>13644851444</v>
+      </c>
+      <c r="M18" s="39" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="30" customHeight="1">
+      <c r="A19" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="E19" s="39">
+        <v>190727</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>399</v>
+      </c>
+      <c r="H19" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="K19" s="39">
+        <v>300</v>
+      </c>
+      <c r="L19" s="39">
+        <v>13644851444</v>
+      </c>
+      <c r="M19" s="39" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="30" customHeight="1">
+      <c r="A20" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="E20" s="39">
+        <v>190727</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>400</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>355</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="J20" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="K20" s="39">
+        <v>300</v>
+      </c>
+      <c r="L20" s="39">
+        <v>13644851444</v>
+      </c>
+      <c r="M20" s="39" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="30" customHeight="1">
+      <c r="A21" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="E21" s="39">
+        <v>190728</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="I21" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="J21" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="K21" s="39">
+        <v>300</v>
+      </c>
+      <c r="L21" s="39">
+        <v>13569696465</v>
+      </c>
+      <c r="M21" s="39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="30" customHeight="1">
+      <c r="A22" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="E22" s="39">
+        <v>190728</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>402</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="J22" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="K22" s="39">
+        <v>300</v>
+      </c>
+      <c r="L22" s="39">
+        <v>13569696465</v>
+      </c>
+      <c r="M22" s="39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="30" customHeight="1">
+      <c r="A23" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="E23" s="39">
+        <v>190728</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>403</v>
+      </c>
+      <c r="H23" s="40" t="s">
+        <v>359</v>
+      </c>
+      <c r="I23" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="J23" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="K23" s="39">
+        <v>300</v>
+      </c>
+      <c r="L23" s="39">
+        <v>13569696465</v>
+      </c>
+      <c r="M23" s="39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="30" customHeight="1">
+      <c r="A24" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>380</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="E24" s="39">
+        <v>190729</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G24" s="39" t="s">
+        <v>404</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>361</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="J24" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="K24" s="39">
+        <v>300</v>
+      </c>
+      <c r="L24" s="39">
+        <v>13147852111</v>
+      </c>
+      <c r="M24" s="39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="30" customHeight="1">
+      <c r="A25" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>380</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="E25" s="39">
+        <v>190729</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>405</v>
+      </c>
+      <c r="H25" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="I25" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="J25" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="K25" s="39">
+        <v>300</v>
+      </c>
+      <c r="L25" s="39">
+        <v>13147852111</v>
+      </c>
+      <c r="M25" s="39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="30" customHeight="1">
+      <c r="A26" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>380</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="E26" s="39">
+        <v>190729</v>
+      </c>
+      <c r="F26" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G26" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="H26" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="I26" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="J26" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="K26" s="39">
+        <v>300</v>
+      </c>
+      <c r="L26" s="39">
+        <v>13147852111</v>
+      </c>
+      <c r="M26" s="39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="30" customHeight="1">
+      <c r="A27" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>381</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="E27" s="39">
+        <v>190730</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G27" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="H27" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="I27" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="J27" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="K27" s="39">
+        <v>300</v>
+      </c>
+      <c r="L27" s="39">
+        <v>13069654888</v>
+      </c>
+      <c r="M27" s="39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="30" customHeight="1">
+      <c r="A28" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>381</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="E28" s="39">
+        <v>190730</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G28" s="39" t="s">
+        <v>408</v>
+      </c>
+      <c r="H28" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="I28" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="J28" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="K28" s="39">
+        <v>300</v>
+      </c>
+      <c r="L28" s="39">
+        <v>13069654888</v>
+      </c>
+      <c r="M28" s="39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="30" customHeight="1">
+      <c r="A29" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>381</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="E29" s="39">
+        <v>190730</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G29" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="H29" s="40" t="s">
+        <v>367</v>
+      </c>
+      <c r="I29" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="J29" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="K29" s="39">
+        <v>300</v>
+      </c>
+      <c r="L29" s="39">
+        <v>13069654888</v>
+      </c>
+      <c r="M29" s="39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="30" customHeight="1">
+      <c r="A30" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="E30" s="39">
+        <v>190731</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="H30" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="J30" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="K30" s="39">
+        <v>300</v>
+      </c>
+      <c r="L30" s="39">
+        <v>13354784121</v>
+      </c>
+      <c r="M30" s="39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="30" customHeight="1">
+      <c r="A31" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="E31" s="39">
+        <v>190731</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>385</v>
+      </c>
+      <c r="H31" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="J31" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="K31" s="39">
+        <v>300</v>
+      </c>
+      <c r="L31" s="39">
+        <v>13354784121</v>
+      </c>
+      <c r="M31" s="39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="30" customHeight="1">
+      <c r="A32" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="E32" s="39">
+        <v>190731</v>
+      </c>
+      <c r="F32" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G32" s="39" t="s">
+        <v>386</v>
+      </c>
+      <c r="H32" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="I32" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="J32" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="K32" s="39">
+        <v>300</v>
+      </c>
+      <c r="L32" s="39">
+        <v>13354784121</v>
+      </c>
+      <c r="M32" s="39" t="s">
+        <v>328</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D1ADF8-5FB2-40D6-ABA5-038F78548C18}">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="44"/>
+    <col min="2" max="2" width="23.875" style="44" customWidth="1"/>
+    <col min="3" max="3" width="32" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="44" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="44" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.375" style="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12" style="44" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="40.125" style="44" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A2" s="45"/>
+      <c r="B2" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>265</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>412</v>
+      </c>
+      <c r="J2" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="K2" s="43" t="s">
+        <v>269</v>
+      </c>
+      <c r="L2" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="M2" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="N2" s="54"/>
+    </row>
+    <row r="3" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A3" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>414</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>424</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>425</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>427</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>428</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>429</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>430</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>431</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>432</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>433</v>
+      </c>
+      <c r="M3" s="46" t="s">
+        <v>434</v>
+      </c>
+      <c r="N3" s="46"/>
+    </row>
+    <row r="4" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" s="26">
+        <v>123456</v>
+      </c>
+      <c r="E4" s="26">
+        <v>5000</v>
+      </c>
+      <c r="F4" s="27">
+        <v>10000</v>
+      </c>
+      <c r="G4" s="28">
+        <v>2000</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="K4" s="26"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="25" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" s="26">
+        <v>123456</v>
+      </c>
+      <c r="E5" s="26">
+        <v>5000</v>
+      </c>
+      <c r="F5" s="27">
+        <v>10000</v>
+      </c>
+      <c r="G5" s="30">
+        <v>2000</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="25" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A6" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" s="26">
+        <v>123456</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="G6" s="30">
+        <v>2000</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="25" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A7" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" s="26">
+        <v>123321</v>
+      </c>
+      <c r="E7" s="26">
+        <v>5000</v>
+      </c>
+      <c r="F7" s="27">
+        <v>10000</v>
+      </c>
+      <c r="G7" s="30">
+        <v>2000</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A8" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>276</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="D8" s="26">
+        <v>123321</v>
+      </c>
+      <c r="E8" s="26">
+        <v>5000</v>
+      </c>
+      <c r="F8" s="27">
+        <v>10000</v>
+      </c>
+      <c r="G8" s="30">
+        <v>2000</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A9" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="D9" s="26">
+        <v>321321</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A10" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="D10" s="26">
+        <v>321321</v>
+      </c>
+      <c r="E10" s="26">
+        <v>5000</v>
+      </c>
+      <c r="F10" s="27">
+        <v>10000</v>
+      </c>
+      <c r="G10" s="30">
+        <v>2000</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A11" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="D11" s="26">
+        <v>112233</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>436</v>
+      </c>
+      <c r="G11" s="30">
+        <v>2000</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="K11" s="26"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="25" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A12" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="D12" s="26">
+        <v>112233</v>
+      </c>
+      <c r="E12" s="26">
+        <v>0</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="G12" s="30">
+        <v>2000</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="25" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A13" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="D13" s="26">
+        <v>147147</v>
+      </c>
+      <c r="E13" s="26">
+        <v>5000</v>
+      </c>
+      <c r="F13" s="27">
+        <v>10000</v>
+      </c>
+      <c r="G13" s="30">
+        <v>2000</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="N13" s="26" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A14" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="D14" s="31">
+        <v>456456</v>
+      </c>
+      <c r="E14" s="31">
+        <v>0</v>
+      </c>
+      <c r="F14" s="52"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="I14" s="31"/>
+      <c r="J14" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A15" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="D15" s="29">
+        <v>232323</v>
+      </c>
+      <c r="E15" s="29">
+        <v>3000</v>
+      </c>
+      <c r="F15" s="53"/>
+      <c r="G15" s="30">
+        <v>2000</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29" t="s">
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/ICBC-DATA.xlsx
+++ b/src/main/resources/ICBC-DATA.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\AICP\ICBC\WebHook\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E94BE0-3EDA-4DD9-B03F-E993B4FCDF83}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB70BF5-8A94-4053-8567-9F1FEC2AD879}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="信用卡催收外呼信息" sheetId="3" r:id="rId1"/>
+    <sheet name="信用卡催收外呼信息-暂不用" sheetId="3" r:id="rId1"/>
     <sheet name="账单分期流程信息" sheetId="4" r:id="rId2"/>
     <sheet name="吞卡流程信息" sheetId="5" r:id="rId3"/>
     <sheet name="信用卡分期流程信息" sheetId="7" r:id="rId4"/>
@@ -900,9 +900,6 @@
     <t>110101199001070001</t>
   </si>
   <si>
-    <t>6225990013242525</t>
-  </si>
-  <si>
     <t>6225990035523456</t>
   </si>
   <si>
@@ -1051,51 +1048,6 @@
   </si>
   <si>
     <t>非注册客户身份，学生卡不支持</t>
-  </si>
-  <si>
-    <t>110111199001011000</t>
-  </si>
-  <si>
-    <t>110227198701011000</t>
-  </si>
-  <si>
-    <t>623221197001010000</t>
-  </si>
-  <si>
-    <t>110222198801011000</t>
-  </si>
-  <si>
-    <t>110227198801012000</t>
-  </si>
-  <si>
-    <t>110102199901013000</t>
-  </si>
-  <si>
-    <t>6252500022111230</t>
-  </si>
-  <si>
-    <t>6225990013242520</t>
-  </si>
-  <si>
-    <t>4135210013242520</t>
-  </si>
-  <si>
-    <t>6222460012341210</t>
-  </si>
-  <si>
-    <t>6252500022001230</t>
-  </si>
-  <si>
-    <t>6252500022004120</t>
-  </si>
-  <si>
-    <t>6252470012345670</t>
-  </si>
-  <si>
-    <t>6258590011332540</t>
-  </si>
-  <si>
-    <t>5309900132459680</t>
   </si>
   <si>
     <t>4135000000000000</t>
@@ -1553,6 +1505,55 @@
   <si>
     <t>10000</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6225990013242525</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110111199001011811</t>
+  </si>
+  <si>
+    <t>110227198701011121</t>
+  </si>
+  <si>
+    <t>623221197001010012</t>
+  </si>
+  <si>
+    <t>110222198801011820</t>
+  </si>
+  <si>
+    <t>110227198801012221</t>
+  </si>
+  <si>
+    <t>110102199901013315</t>
+  </si>
+  <si>
+    <t>6252500022111234</t>
+  </si>
+  <si>
+    <t>6225990013242525</t>
+  </si>
+  <si>
+    <t>4135210013242522</t>
+  </si>
+  <si>
+    <t>6222460012341211</t>
+  </si>
+  <si>
+    <t>6252500022001234</t>
+  </si>
+  <si>
+    <t>6252500022004123</t>
+  </si>
+  <si>
+    <t>6252470012345678</t>
+  </si>
+  <si>
+    <t>6258590011332546</t>
+  </si>
+  <si>
+    <t>5309900132459689</t>
   </si>
 </sst>
 </file>
@@ -1963,15 +1964,6 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1990,9 +1982,6 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2001,9 +1990,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2027,6 +2013,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2381,7 +2382,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2617,8 +2618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C9EB0D-85D9-47ED-B377-7DA30201B995}">
   <dimension ref="A1:AL13"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2826,10 +2827,10 @@
         <v>195</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>216</v>
@@ -2847,7 +2848,7 @@
         <v>220</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N3" s="21" t="s">
         <v>221</v>
@@ -2891,7 +2892,7 @@
         <v>240</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>247</v>
+        <v>423</v>
       </c>
       <c r="D4" s="23">
         <v>123789</v>
@@ -2915,7 +2916,7 @@
         <v>4500</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L4" s="24">
         <v>5000</v>
@@ -3007,7 +3008,7 @@
         <v>241</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D5" s="23">
         <v>246800</v>
@@ -3028,10 +3029,10 @@
         <v>228</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L5" s="24">
         <v>5000</v>
@@ -3123,7 +3124,7 @@
         <v>242</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D6" s="23">
         <v>357951</v>
@@ -3144,10 +3145,10 @@
         <v>16</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L6" s="24">
         <v>5000</v>
@@ -3239,7 +3240,7 @@
         <v>243</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D7" s="23">
         <v>321321</v>
@@ -3260,7 +3261,7 @@
         <v>16</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K7" s="24" t="s">
         <v>233</v>
@@ -3303,13 +3304,13 @@
     </row>
     <row r="8" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
       <c r="A8" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>244</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D8" s="23">
         <v>654321</v>
@@ -3375,7 +3376,7 @@
         <v>245</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D9" s="23">
         <v>135790</v>
@@ -3441,7 +3442,7 @@
         <v>246</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D10" s="23">
         <v>159753</v>
@@ -3688,58 +3689,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="32"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="32" t="s">
+      <c r="A1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="32" t="s">
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="32" t="s">
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="32" t="s">
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="32" t="s">
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="32" t="s">
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="34"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="52"/>
       <c r="AO1" s="19"/>
       <c r="AP1" s="19"/>
     </row>
@@ -4001,7 +4002,7 @@
     </row>
     <row r="4" spans="1:42" ht="16.5" thickBot="1">
       <c r="A4" s="22" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>178</v>
@@ -4129,7 +4130,7 @@
     </row>
     <row r="5" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="22" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>44</v>
@@ -4257,7 +4258,7 @@
     </row>
     <row r="6" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="22" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>45</v>
@@ -4385,7 +4386,7 @@
     </row>
     <row r="7" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="22" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>179</v>
@@ -4513,7 +4514,7 @@
     </row>
     <row r="8" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
       <c r="A8" s="22" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>46</v>
@@ -4641,7 +4642,7 @@
     </row>
     <row r="9" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
       <c r="A9" s="22" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>47</v>
@@ -5270,7 +5271,7 @@
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="59.75" style="35" customWidth="1"/>
+    <col min="8" max="8" width="59.75" style="32" customWidth="1"/>
     <col min="9" max="9" width="18.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5" customWidth="1"/>
@@ -5279,1315 +5280,1315 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="36" t="s">
-        <v>268</v>
-      </c>
-      <c r="D1" s="36" t="s">
+      <c r="C1" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="30" customHeight="1">
+      <c r="A2" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30" customHeight="1">
+      <c r="A3" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="E3" s="36">
+        <v>190722</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="K3" s="36">
+        <v>0</v>
+      </c>
+      <c r="L3" s="36">
+        <v>18612345678</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30" customHeight="1">
+      <c r="A4" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="E4" s="36">
+        <v>190722</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="H4" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="E1" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>411</v>
-      </c>
-      <c r="G1" s="36" t="s">
+      <c r="I4" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="K4" s="36">
+        <v>0</v>
+      </c>
+      <c r="L4" s="36">
+        <v>18612345678</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" customHeight="1">
+      <c r="A5" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="E5" s="36">
+        <v>190722</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="H5" s="37" t="s">
         <v>316</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="I5" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="K5" s="36">
+        <v>0</v>
+      </c>
+      <c r="L5" s="36">
+        <v>18612345678</v>
+      </c>
+      <c r="M5" s="36" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="30" customHeight="1">
+      <c r="A6" s="36" t="s">
         <v>317</v>
       </c>
-      <c r="I1" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="J1" s="36" t="s">
+      <c r="B6" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="E6" s="36">
+        <v>190723</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>370</v>
+      </c>
+      <c r="H6" s="37" t="s">
         <v>318</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="I6" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="K6" s="36">
+        <v>1000</v>
+      </c>
+      <c r="L6" s="36">
+        <v>18724578612</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" customHeight="1">
+      <c r="A7" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="E7" s="36">
+        <v>190723</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="H7" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="I7" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="36">
+        <v>1000</v>
+      </c>
+      <c r="L7" s="36">
+        <v>18724578612</v>
+      </c>
+      <c r="M7" s="36" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" customHeight="1">
+      <c r="A8" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="E8" s="36">
+        <v>190723</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="H8" s="37" t="s">
         <v>320</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="I8" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="K8" s="36">
+        <v>1000</v>
+      </c>
+      <c r="L8" s="36">
+        <v>18724578612</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30" customHeight="1">
+      <c r="A9" s="36" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1">
-      <c r="A2" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2" s="36" t="s">
+      <c r="B9" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="E9" s="36">
+        <v>190724</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="H9" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="E2" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>410</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="H2" s="37" t="s">
+      <c r="I9" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="I2" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="K2" s="38" t="s">
+      <c r="J9" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="K9" s="36">
+        <v>0</v>
+      </c>
+      <c r="L9" s="36">
+        <v>13947851245</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30" customHeight="1">
+      <c r="A10" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="E10" s="36">
+        <v>190724</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="H10" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="L2" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="M2" s="36" t="s">
+      <c r="I10" s="36" t="s">
+        <v>323</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="K10" s="36">
+        <v>0</v>
+      </c>
+      <c r="L10" s="36">
+        <v>13947851245</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30" customHeight="1">
+      <c r="A11" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="E11" s="36">
+        <v>190724</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="H11" s="37" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="30" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="I11" s="36" t="s">
+        <v>323</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="K11" s="36">
+        <v>0</v>
+      </c>
+      <c r="L11" s="36">
+        <v>13947851245</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30" customHeight="1">
+      <c r="A12" s="36" t="s">
         <v>326</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>373</v>
-      </c>
-      <c r="C3" s="39" t="s">
+      <c r="B12" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="E12" s="36">
+        <v>190725</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="H12" s="37" t="s">
         <v>327</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="I12" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="K12" s="36">
+        <v>1000</v>
+      </c>
+      <c r="L12" s="36">
+        <v>13847569541</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30" customHeight="1">
+      <c r="A13" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="E13" s="36">
+        <v>190725</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="H13" s="37" t="s">
         <v>328</v>
       </c>
-      <c r="E3" s="39">
-        <v>190722</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>409</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>372</v>
-      </c>
-      <c r="I3" s="39" t="s">
+      <c r="I13" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J13" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="K13" s="36">
+        <v>1000</v>
+      </c>
+      <c r="L13" s="36">
+        <v>13847569541</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="30" customHeight="1">
+      <c r="A14" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="E14" s="36">
+        <v>190725</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="H14" s="37" t="s">
         <v>329</v>
       </c>
-      <c r="K3" s="39">
-        <v>0</v>
-      </c>
-      <c r="L3" s="39">
-        <v>18612345678</v>
-      </c>
-      <c r="M3" s="39" t="s">
+      <c r="I14" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="K14" s="36">
+        <v>1000</v>
+      </c>
+      <c r="L14" s="36">
+        <v>13847569541</v>
+      </c>
+      <c r="M14" s="36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="30" customHeight="1">
+      <c r="A15" s="36" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="30" customHeight="1">
-      <c r="A4" s="39" t="s">
-        <v>326</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>373</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="E4" s="39">
-        <v>190722</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="G4" s="39" t="s">
+      <c r="B15" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="E15" s="36">
+        <v>190726</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>379</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="K15" s="36">
+        <v>1000</v>
+      </c>
+      <c r="L15" s="36">
+        <v>13745123547</v>
+      </c>
+      <c r="M15" s="36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30" customHeight="1">
+      <c r="A16" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="E16" s="36">
+        <v>190726</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="K16" s="36">
+        <v>1000</v>
+      </c>
+      <c r="L16" s="36">
+        <v>13745123547</v>
+      </c>
+      <c r="M16" s="36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="30" customHeight="1">
+      <c r="A17" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="E17" s="36">
+        <v>190726</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="K17" s="36">
+        <v>1000</v>
+      </c>
+      <c r="L17" s="36">
+        <v>13745123547</v>
+      </c>
+      <c r="M17" s="36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="30" customHeight="1">
+      <c r="A18" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="E18" s="36">
+        <v>190727</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="K18" s="36">
+        <v>300</v>
+      </c>
+      <c r="L18" s="36">
+        <v>13644851444</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="30" customHeight="1">
+      <c r="A19" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="E19" s="36">
+        <v>190727</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="J19" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="K19" s="36">
+        <v>300</v>
+      </c>
+      <c r="L19" s="36">
+        <v>13644851444</v>
+      </c>
+      <c r="M19" s="36" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="30" customHeight="1">
+      <c r="A20" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="E20" s="36">
+        <v>190727</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G20" s="36" t="s">
         <v>384</v>
       </c>
-      <c r="H4" s="40" t="s">
-        <v>331</v>
-      </c>
-      <c r="I4" s="39" t="s">
+      <c r="H20" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="I20" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="J4" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="K4" s="39">
-        <v>0</v>
-      </c>
-      <c r="L4" s="39">
-        <v>18612345678</v>
-      </c>
-      <c r="M4" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1">
-      <c r="A5" s="39" t="s">
-        <v>326</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>373</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="E5" s="39">
-        <v>190722</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="G5" s="39" t="s">
+      <c r="J20" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="K20" s="36">
+        <v>300</v>
+      </c>
+      <c r="L20" s="36">
+        <v>13644851444</v>
+      </c>
+      <c r="M20" s="36" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="30" customHeight="1">
+      <c r="A21" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="E21" s="36">
+        <v>190728</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G21" s="36" t="s">
         <v>385</v>
       </c>
-      <c r="H5" s="40" t="s">
-        <v>332</v>
-      </c>
-      <c r="I5" s="39" t="s">
+      <c r="H21" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="I21" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="J5" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="K5" s="39">
-        <v>0</v>
-      </c>
-      <c r="L5" s="39">
-        <v>18612345678</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="30" customHeight="1">
-      <c r="A6" s="39" t="s">
-        <v>333</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>374</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="E6" s="39">
-        <v>190723</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="G6" s="39" t="s">
+      <c r="J21" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="K21" s="36">
+        <v>300</v>
+      </c>
+      <c r="L21" s="36">
+        <v>13569696465</v>
+      </c>
+      <c r="M21" s="36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="30" customHeight="1">
+      <c r="A22" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="E22" s="36">
+        <v>190728</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G22" s="36" t="s">
         <v>386</v>
       </c>
-      <c r="H6" s="40" t="s">
-        <v>334</v>
-      </c>
-      <c r="I6" s="39" t="s">
+      <c r="H22" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="I22" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="J6" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="K6" s="39">
-        <v>1000</v>
-      </c>
-      <c r="L6" s="39">
-        <v>18724578612</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
-        <v>333</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>374</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="E7" s="39">
-        <v>190723</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="G7" s="39" t="s">
+      <c r="J22" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="K22" s="36">
+        <v>300</v>
+      </c>
+      <c r="L22" s="36">
+        <v>13569696465</v>
+      </c>
+      <c r="M22" s="36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="30" customHeight="1">
+      <c r="A23" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="E23" s="36">
+        <v>190728</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G23" s="36" t="s">
         <v>387</v>
       </c>
-      <c r="H7" s="40" t="s">
-        <v>335</v>
-      </c>
-      <c r="I7" s="39" t="s">
+      <c r="H23" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="I23" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="J7" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="K7" s="39">
-        <v>1000</v>
-      </c>
-      <c r="L7" s="39">
-        <v>18724578612</v>
-      </c>
-      <c r="M7" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1">
-      <c r="A8" s="39" t="s">
-        <v>333</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>374</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="E8" s="39">
-        <v>190723</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="G8" s="39" t="s">
+      <c r="J23" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="K23" s="36">
+        <v>300</v>
+      </c>
+      <c r="L23" s="36">
+        <v>13569696465</v>
+      </c>
+      <c r="M23" s="36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="30" customHeight="1">
+      <c r="A24" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="E24" s="36">
+        <v>190729</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G24" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H24" s="37" t="s">
+        <v>345</v>
+      </c>
+      <c r="I24" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="J24" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="K24" s="36">
+        <v>300</v>
+      </c>
+      <c r="L24" s="36">
+        <v>13147852111</v>
+      </c>
+      <c r="M24" s="36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="30" customHeight="1">
+      <c r="A25" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="C25" s="36" t="s">
         <v>336</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="D25" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="E25" s="36">
+        <v>190729</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="H25" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="I25" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="J8" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="K8" s="39">
-        <v>1000</v>
-      </c>
-      <c r="L8" s="39">
-        <v>18724578612</v>
-      </c>
-      <c r="M8" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>337</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>375</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="E9" s="39">
-        <v>190724</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>389</v>
-      </c>
-      <c r="H9" s="40" t="s">
-        <v>338</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>339</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="K9" s="39">
-        <v>0</v>
-      </c>
-      <c r="L9" s="39">
-        <v>13947851245</v>
-      </c>
-      <c r="M9" s="39" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1">
-      <c r="A10" s="39" t="s">
-        <v>337</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>375</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="E10" s="39">
-        <v>190724</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="G10" s="39" t="s">
+      <c r="J25" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="K25" s="36">
+        <v>300</v>
+      </c>
+      <c r="L25" s="36">
+        <v>13147852111</v>
+      </c>
+      <c r="M25" s="36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="30" customHeight="1">
+      <c r="A26" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="E26" s="36">
+        <v>190729</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G26" s="36" t="s">
         <v>390</v>
       </c>
-      <c r="H10" s="40" t="s">
-        <v>340</v>
-      </c>
-      <c r="I10" s="39" t="s">
-        <v>339</v>
-      </c>
-      <c r="J10" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="K10" s="39">
-        <v>0</v>
-      </c>
-      <c r="L10" s="39">
-        <v>13947851245</v>
-      </c>
-      <c r="M10" s="39" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1">
-      <c r="A11" s="39" t="s">
-        <v>337</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>375</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="E11" s="39">
-        <v>190724</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="G11" s="39" t="s">
+      <c r="H26" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="I26" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="J26" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="K26" s="36">
+        <v>300</v>
+      </c>
+      <c r="L26" s="36">
+        <v>13147852111</v>
+      </c>
+      <c r="M26" s="36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="30" customHeight="1">
+      <c r="A27" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="E27" s="36">
+        <v>190730</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G27" s="36" t="s">
         <v>391</v>
       </c>
-      <c r="H11" s="40" t="s">
-        <v>341</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>339</v>
-      </c>
-      <c r="J11" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="K11" s="39">
-        <v>0</v>
-      </c>
-      <c r="L11" s="39">
-        <v>13947851245</v>
-      </c>
-      <c r="M11" s="39" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1">
-      <c r="A12" s="39" t="s">
-        <v>342</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>376</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="E12" s="39">
-        <v>190725</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="G12" s="39" t="s">
+      <c r="H27" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="I27" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="J27" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="K27" s="36">
+        <v>300</v>
+      </c>
+      <c r="L27" s="36">
+        <v>13069654888</v>
+      </c>
+      <c r="M27" s="36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="30" customHeight="1">
+      <c r="A28" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="E28" s="36">
+        <v>190730</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G28" s="36" t="s">
         <v>392</v>
       </c>
-      <c r="H12" s="40" t="s">
-        <v>343</v>
-      </c>
-      <c r="I12" s="39" t="s">
+      <c r="H28" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="I28" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="J12" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="K12" s="39">
-        <v>1000</v>
-      </c>
-      <c r="L12" s="39">
-        <v>13847569541</v>
-      </c>
-      <c r="M12" s="39" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="30" customHeight="1">
-      <c r="A13" s="39" t="s">
-        <v>342</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>376</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="E13" s="39">
-        <v>190725</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>393</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>344</v>
-      </c>
-      <c r="I13" s="39" t="s">
+      <c r="J28" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="K28" s="36">
+        <v>300</v>
+      </c>
+      <c r="L28" s="36">
+        <v>13069654888</v>
+      </c>
+      <c r="M28" s="36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="30" customHeight="1">
+      <c r="A29" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="E29" s="36">
+        <v>190730</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G29" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="H29" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="I29" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="J13" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="K13" s="39">
-        <v>1000</v>
-      </c>
-      <c r="L13" s="39">
-        <v>13847569541</v>
-      </c>
-      <c r="M13" s="39" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="30" customHeight="1">
-      <c r="A14" s="39" t="s">
-        <v>342</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>376</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="E14" s="39">
-        <v>190725</v>
-      </c>
-      <c r="F14" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>394</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>345</v>
-      </c>
-      <c r="I14" s="39" t="s">
+      <c r="J29" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="K29" s="36">
+        <v>300</v>
+      </c>
+      <c r="L29" s="36">
+        <v>13069654888</v>
+      </c>
+      <c r="M29" s="36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="30" customHeight="1">
+      <c r="A30" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="E30" s="36">
+        <v>190731</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G30" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="H30" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="I30" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="J14" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="K14" s="39">
-        <v>1000</v>
-      </c>
-      <c r="L14" s="39">
-        <v>13847569541</v>
-      </c>
-      <c r="M14" s="39" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="30" customHeight="1">
-      <c r="A15" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>377</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="E15" s="39">
-        <v>190726</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>395</v>
-      </c>
-      <c r="H15" s="40" t="s">
-        <v>347</v>
-      </c>
-      <c r="I15" s="39" t="s">
-        <v>348</v>
-      </c>
-      <c r="J15" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="K15" s="39">
-        <v>1000</v>
-      </c>
-      <c r="L15" s="39">
-        <v>13745123547</v>
-      </c>
-      <c r="M15" s="39" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="30" customHeight="1">
-      <c r="A16" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>377</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="E16" s="39">
-        <v>190726</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="G16" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>349</v>
-      </c>
-      <c r="I16" s="39" t="s">
-        <v>348</v>
-      </c>
-      <c r="J16" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="K16" s="39">
-        <v>1000</v>
-      </c>
-      <c r="L16" s="39">
-        <v>13745123547</v>
-      </c>
-      <c r="M16" s="39" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="30" customHeight="1">
-      <c r="A17" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>377</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="E17" s="39">
-        <v>190726</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>397</v>
-      </c>
-      <c r="H17" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="I17" s="39" t="s">
-        <v>348</v>
-      </c>
-      <c r="J17" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="K17" s="39">
-        <v>1000</v>
-      </c>
-      <c r="L17" s="39">
-        <v>13745123547</v>
-      </c>
-      <c r="M17" s="39" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="30" customHeight="1">
-      <c r="A18" s="39" t="s">
-        <v>351</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>378</v>
-      </c>
-      <c r="C18" s="39" t="s">
+      <c r="J30" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="K30" s="36">
+        <v>300</v>
+      </c>
+      <c r="L30" s="36">
+        <v>13354784121</v>
+      </c>
+      <c r="M30" s="36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="30" customHeight="1">
+      <c r="A31" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="D18" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="E18" s="39">
-        <v>190727</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="G18" s="39" t="s">
-        <v>398</v>
-      </c>
-      <c r="H18" s="40" t="s">
-        <v>353</v>
-      </c>
-      <c r="I18" s="39" t="s">
+      <c r="B31" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="E31" s="36">
+        <v>190731</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G31" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="H31" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="I31" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="J18" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="K18" s="39">
+      <c r="J31" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="K31" s="36">
         <v>300</v>
       </c>
-      <c r="L18" s="39">
-        <v>13644851444</v>
-      </c>
-      <c r="M18" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="30" customHeight="1">
-      <c r="A19" s="39" t="s">
-        <v>351</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>378</v>
-      </c>
-      <c r="C19" s="39" t="s">
+      <c r="L31" s="36">
+        <v>13354784121</v>
+      </c>
+      <c r="M31" s="36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="30" customHeight="1">
+      <c r="A32" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="D19" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="E19" s="39">
-        <v>190727</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="G19" s="39" t="s">
-        <v>399</v>
-      </c>
-      <c r="H19" s="40" t="s">
-        <v>354</v>
-      </c>
-      <c r="I19" s="39" t="s">
+      <c r="B32" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="E32" s="36">
+        <v>190731</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G32" s="36" t="s">
+        <v>370</v>
+      </c>
+      <c r="H32" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="I32" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="J19" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="K19" s="39">
+      <c r="J32" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="K32" s="36">
         <v>300</v>
       </c>
-      <c r="L19" s="39">
-        <v>13644851444</v>
-      </c>
-      <c r="M19" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="30" customHeight="1">
-      <c r="A20" s="39" t="s">
-        <v>351</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>378</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="E20" s="39">
-        <v>190727</v>
-      </c>
-      <c r="F20" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="G20" s="39" t="s">
-        <v>400</v>
-      </c>
-      <c r="H20" s="40" t="s">
-        <v>355</v>
-      </c>
-      <c r="I20" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="J20" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="K20" s="39">
-        <v>300</v>
-      </c>
-      <c r="L20" s="39">
-        <v>13644851444</v>
-      </c>
-      <c r="M20" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="30" customHeight="1">
-      <c r="A21" s="39" t="s">
-        <v>356</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>379</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="E21" s="39">
-        <v>190728</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="G21" s="39" t="s">
-        <v>401</v>
-      </c>
-      <c r="H21" s="40" t="s">
-        <v>357</v>
-      </c>
-      <c r="I21" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="J21" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="K21" s="39">
-        <v>300</v>
-      </c>
-      <c r="L21" s="39">
-        <v>13569696465</v>
-      </c>
-      <c r="M21" s="39" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="30" customHeight="1">
-      <c r="A22" s="39" t="s">
-        <v>356</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>379</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="E22" s="39">
-        <v>190728</v>
-      </c>
-      <c r="F22" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="G22" s="39" t="s">
-        <v>402</v>
-      </c>
-      <c r="H22" s="40" t="s">
-        <v>358</v>
-      </c>
-      <c r="I22" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="J22" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="K22" s="39">
-        <v>300</v>
-      </c>
-      <c r="L22" s="39">
-        <v>13569696465</v>
-      </c>
-      <c r="M22" s="39" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="30" customHeight="1">
-      <c r="A23" s="39" t="s">
-        <v>356</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>379</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="E23" s="39">
-        <v>190728</v>
-      </c>
-      <c r="F23" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="G23" s="39" t="s">
-        <v>403</v>
-      </c>
-      <c r="H23" s="40" t="s">
-        <v>359</v>
-      </c>
-      <c r="I23" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="J23" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="K23" s="39">
-        <v>300</v>
-      </c>
-      <c r="L23" s="39">
-        <v>13569696465</v>
-      </c>
-      <c r="M23" s="39" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="30" customHeight="1">
-      <c r="A24" s="39" t="s">
-        <v>360</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>380</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="E24" s="39">
-        <v>190729</v>
-      </c>
-      <c r="F24" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="G24" s="39" t="s">
-        <v>404</v>
-      </c>
-      <c r="H24" s="40" t="s">
-        <v>361</v>
-      </c>
-      <c r="I24" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="J24" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="K24" s="39">
-        <v>300</v>
-      </c>
-      <c r="L24" s="39">
-        <v>13147852111</v>
-      </c>
-      <c r="M24" s="39" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="30" customHeight="1">
-      <c r="A25" s="39" t="s">
-        <v>360</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>380</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="E25" s="39">
-        <v>190729</v>
-      </c>
-      <c r="F25" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="G25" s="39" t="s">
-        <v>405</v>
-      </c>
-      <c r="H25" s="40" t="s">
-        <v>362</v>
-      </c>
-      <c r="I25" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="J25" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="K25" s="39">
-        <v>300</v>
-      </c>
-      <c r="L25" s="39">
-        <v>13147852111</v>
-      </c>
-      <c r="M25" s="39" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="30" customHeight="1">
-      <c r="A26" s="39" t="s">
-        <v>360</v>
-      </c>
-      <c r="B26" s="39" t="s">
-        <v>380</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="E26" s="39">
-        <v>190729</v>
-      </c>
-      <c r="F26" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="G26" s="39" t="s">
-        <v>406</v>
-      </c>
-      <c r="H26" s="40" t="s">
-        <v>363</v>
-      </c>
-      <c r="I26" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="J26" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="K26" s="39">
-        <v>300</v>
-      </c>
-      <c r="L26" s="39">
-        <v>13147852111</v>
-      </c>
-      <c r="M26" s="39" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="30" customHeight="1">
-      <c r="A27" s="39" t="s">
-        <v>364</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>381</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="E27" s="39">
-        <v>190730</v>
-      </c>
-      <c r="F27" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="G27" s="39" t="s">
-        <v>407</v>
-      </c>
-      <c r="H27" s="40" t="s">
-        <v>365</v>
-      </c>
-      <c r="I27" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="J27" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="K27" s="39">
-        <v>300</v>
-      </c>
-      <c r="L27" s="39">
-        <v>13069654888</v>
-      </c>
-      <c r="M27" s="39" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="30" customHeight="1">
-      <c r="A28" s="39" t="s">
-        <v>364</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>381</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="E28" s="39">
-        <v>190730</v>
-      </c>
-      <c r="F28" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="G28" s="39" t="s">
-        <v>408</v>
-      </c>
-      <c r="H28" s="40" t="s">
-        <v>366</v>
-      </c>
-      <c r="I28" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="J28" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="K28" s="39">
-        <v>300</v>
-      </c>
-      <c r="L28" s="39">
-        <v>13069654888</v>
-      </c>
-      <c r="M28" s="39" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="30" customHeight="1">
-      <c r="A29" s="39" t="s">
-        <v>364</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>381</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="E29" s="39">
-        <v>190730</v>
-      </c>
-      <c r="F29" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="G29" s="39" t="s">
-        <v>383</v>
-      </c>
-      <c r="H29" s="40" t="s">
-        <v>367</v>
-      </c>
-      <c r="I29" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="J29" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="K29" s="39">
-        <v>300</v>
-      </c>
-      <c r="L29" s="39">
-        <v>13069654888</v>
-      </c>
-      <c r="M29" s="39" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="30" customHeight="1">
-      <c r="A30" s="39" t="s">
-        <v>368</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>382</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="D30" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="E30" s="39">
-        <v>190731</v>
-      </c>
-      <c r="F30" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="G30" s="39" t="s">
-        <v>384</v>
-      </c>
-      <c r="H30" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="I30" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="J30" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="K30" s="39">
-        <v>300</v>
-      </c>
-      <c r="L30" s="39">
+      <c r="L32" s="36">
         <v>13354784121</v>
       </c>
-      <c r="M30" s="39" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="30" customHeight="1">
-      <c r="A31" s="39" t="s">
-        <v>368</v>
-      </c>
-      <c r="B31" s="39" t="s">
-        <v>382</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="D31" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="E31" s="39">
-        <v>190731</v>
-      </c>
-      <c r="F31" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="G31" s="39" t="s">
-        <v>385</v>
-      </c>
-      <c r="H31" s="40" t="s">
-        <v>370</v>
-      </c>
-      <c r="I31" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="J31" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="K31" s="39">
-        <v>300</v>
-      </c>
-      <c r="L31" s="39">
-        <v>13354784121</v>
-      </c>
-      <c r="M31" s="39" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="30" customHeight="1">
-      <c r="A32" s="39" t="s">
-        <v>368</v>
-      </c>
-      <c r="B32" s="39" t="s">
-        <v>382</v>
-      </c>
-      <c r="C32" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="D32" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="E32" s="39">
-        <v>190731</v>
-      </c>
-      <c r="F32" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="G32" s="39" t="s">
-        <v>386</v>
-      </c>
-      <c r="H32" s="40" t="s">
-        <v>371</v>
-      </c>
-      <c r="I32" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="J32" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="K32" s="39">
-        <v>300</v>
-      </c>
-      <c r="L32" s="39">
-        <v>13354784121</v>
-      </c>
-      <c r="M32" s="39" t="s">
-        <v>328</v>
+      <c r="M32" s="36" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -6601,144 +6602,144 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D1ADF8-5FB2-40D6-ABA5-038F78548C18}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="44"/>
-    <col min="2" max="2" width="23.875" style="44" customWidth="1"/>
-    <col min="3" max="3" width="32" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.375" style="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.25" style="44" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="44" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.375" style="44" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12" style="44" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="40.125" style="44" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="44"/>
+    <col min="1" max="1" width="9" style="40"/>
+    <col min="2" max="2" width="23.875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="32" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.375" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="40.125" style="40" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="C1" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="42" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A2" s="54"/>
+      <c r="B2" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="51" t="s">
+      <c r="F2" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>397</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="N2" s="49"/>
+    </row>
+    <row r="3" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A3" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="C2" s="51" t="s">
-        <v>270</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>270</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>264</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>265</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>266</v>
-      </c>
-      <c r="H2" s="43" t="s">
-        <v>267</v>
-      </c>
-      <c r="I2" s="43" t="s">
+      <c r="B3" s="41" t="s">
+        <v>398</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>408</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>411</v>
+      </c>
+      <c r="G3" s="44" t="s">
         <v>412</v>
       </c>
-      <c r="J2" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="K2" s="43" t="s">
-        <v>269</v>
-      </c>
-      <c r="L2" s="43" t="s">
+      <c r="H3" s="42" t="s">
         <v>413</v>
       </c>
-      <c r="M2" s="43" t="s">
-        <v>423</v>
-      </c>
-      <c r="N2" s="54"/>
-    </row>
-    <row r="3" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A3" s="46" t="s">
-        <v>271</v>
-      </c>
-      <c r="B3" s="46" t="s">
+      <c r="I3" s="42" t="s">
         <v>414</v>
       </c>
-      <c r="C3" s="46" t="s">
-        <v>424</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>425</v>
-      </c>
-      <c r="E3" s="48" t="s">
-        <v>426</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>427</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>428</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>429</v>
-      </c>
-      <c r="I3" s="47" t="s">
-        <v>430</v>
-      </c>
-      <c r="J3" s="47" t="s">
-        <v>431</v>
-      </c>
-      <c r="K3" s="47" t="s">
-        <v>432</v>
-      </c>
-      <c r="L3" s="47" t="s">
-        <v>433</v>
-      </c>
-      <c r="M3" s="46" t="s">
-        <v>434</v>
-      </c>
-      <c r="N3" s="46"/>
+      <c r="J3" s="42" t="s">
+        <v>415</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>416</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>418</v>
+      </c>
+      <c r="N3" s="41"/>
     </row>
     <row r="4" spans="1:14" ht="14.25" thickBot="1">
       <c r="A4" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>298</v>
+        <v>424</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>304</v>
+        <v>430</v>
       </c>
       <c r="D4" s="26">
         <v>123456</v>
@@ -6753,28 +6754,28 @@
         <v>2000</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I4" s="26"/>
       <c r="J4" s="26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K4" s="26"/>
       <c r="L4" s="29"/>
       <c r="M4" s="29"/>
       <c r="N4" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" thickBot="1">
       <c r="A5" s="25" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>298</v>
+        <v>424</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>305</v>
+        <v>431</v>
       </c>
       <c r="D5" s="26">
         <v>123456</v>
@@ -6789,17 +6790,17 @@
         <v>2000</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I5" s="26"/>
       <c r="J5" s="26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K5" s="26"/>
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
       <c r="N5" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="14.25" thickBot="1">
@@ -6807,46 +6808,46 @@
         <v>13</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>298</v>
+        <v>424</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>306</v>
+        <v>432</v>
       </c>
       <c r="D6" s="26">
         <v>123456</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="G6" s="30">
         <v>2000</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I6" s="26"/>
       <c r="J6" s="26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
       <c r="N6" s="25" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A7" s="45" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A7" s="50" t="s">
+      <c r="B7" s="45" t="s">
         <v>275</v>
       </c>
-      <c r="B7" s="50" t="s">
-        <v>276</v>
-      </c>
       <c r="C7" s="26" t="s">
-        <v>307</v>
+        <v>433</v>
       </c>
       <c r="D7" s="26">
         <v>123321</v>
@@ -6861,30 +6862,30 @@
         <v>2000</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I7" s="26"/>
       <c r="J7" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="K7" s="26" t="s">
         <v>277</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>278</v>
       </c>
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
       <c r="N7" s="26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" s="45" t="s">
         <v>275</v>
       </c>
-      <c r="B8" s="50" t="s">
-        <v>276</v>
-      </c>
       <c r="C8" s="26" t="s">
-        <v>308</v>
+        <v>434</v>
       </c>
       <c r="D8" s="26">
         <v>123321</v>
@@ -6899,30 +6900,30 @@
         <v>2000</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I8" s="26"/>
       <c r="J8" s="26" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="K8" s="26"/>
       <c r="L8" s="26" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="M8" s="26"/>
       <c r="N8" s="26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A9" s="45" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A9" s="50" t="s">
-        <v>282</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>299</v>
+      <c r="B9" s="45" t="s">
+        <v>425</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="D9" s="26">
         <v>321321</v>
@@ -6931,28 +6932,28 @@
       <c r="F9" s="27"/>
       <c r="G9" s="30"/>
       <c r="H9" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I9" s="26"/>
       <c r="J9" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K9" s="26"/>
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
       <c r="N9" s="26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A10" s="50" t="s">
-        <v>282</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>299</v>
+      <c r="A10" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>425</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>309</v>
+        <v>435</v>
       </c>
       <c r="D10" s="26">
         <v>321321</v>
@@ -6967,68 +6968,68 @@
         <v>2000</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I10" s="26"/>
       <c r="J10" s="26" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="K10" s="26"/>
       <c r="L10" s="26" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="M10" s="26"/>
       <c r="N10" s="26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.25" thickBot="1">
       <c r="A11" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>300</v>
+        <v>426</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="D11" s="26">
         <v>112233</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="G11" s="30">
         <v>2000</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K11" s="26"/>
       <c r="L11" s="31"/>
       <c r="M11" s="31"/>
       <c r="N11" s="25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="14.25" thickBot="1">
       <c r="A12" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>300</v>
+        <v>426</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="D12" s="26">
         <v>112233</v>
@@ -7037,36 +7038,36 @@
         <v>0</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="G12" s="30">
         <v>2000</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
       <c r="M12" s="26"/>
       <c r="N12" s="25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="14.25" thickBot="1">
       <c r="A13" s="26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>301</v>
+        <v>427</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>310</v>
+        <v>436</v>
       </c>
       <c r="D13" s="26">
         <v>147147</v>
@@ -7081,30 +7082,30 @@
         <v>2000</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I13" s="26"/>
       <c r="J13" s="26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
       <c r="M13" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="N13" s="26" t="s">
         <v>290</v>
-      </c>
-      <c r="N13" s="26" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="14.25" thickBot="1">
       <c r="A14" s="31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>302</v>
+        <v>428</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>311</v>
+        <v>437</v>
       </c>
       <c r="D14" s="31">
         <v>456456</v>
@@ -7112,33 +7113,33 @@
       <c r="E14" s="31">
         <v>0</v>
       </c>
-      <c r="F14" s="52"/>
+      <c r="F14" s="47"/>
       <c r="G14" s="30"/>
       <c r="H14" s="26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I14" s="31"/>
       <c r="J14" s="26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K14" s="31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L14" s="31"/>
       <c r="M14" s="31"/>
       <c r="N14" s="31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.25" thickBot="1">
       <c r="A15" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>303</v>
+        <v>429</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>312</v>
+        <v>438</v>
       </c>
       <c r="D15" s="29">
         <v>232323</v>
@@ -7146,24 +7147,24 @@
       <c r="E15" s="29">
         <v>3000</v>
       </c>
-      <c r="F15" s="53"/>
+      <c r="F15" s="48"/>
       <c r="G15" s="30">
         <v>2000</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
       <c r="N15" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/ICBC-DATA.xlsx
+++ b/src/main/resources/ICBC-DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\AICP\ICBC\WebHook\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB70BF5-8A94-4053-8567-9F1FEC2AD879}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7578C5B8-F5CB-4027-B97C-104E4C796A0A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="信用卡催收外呼信息-暂不用" sheetId="3" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="储蓄卡挂失流程信息" sheetId="8" r:id="rId5"/>
     <sheet name="收不到余额提醒流程信息" sheetId="9" r:id="rId6"/>
     <sheet name="一键调额流程信息" sheetId="10" r:id="rId7"/>
+    <sheet name="助手调用信息" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="474">
   <si>
     <t>姓名</t>
   </si>
@@ -1021,9 +1022,6 @@
   </si>
   <si>
     <t>钱七</t>
-  </si>
-  <si>
-    <t>符合条件卡（金卡）</t>
   </si>
   <si>
     <t>金卡</t>
@@ -1554,6 +1552,120 @@
   </si>
   <si>
     <t>5309900132459689</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴零</t>
+  </si>
+  <si>
+    <t>110101199901011821</t>
+  </si>
+  <si>
+    <t>654654</t>
+  </si>
+  <si>
+    <t>白金卡</t>
+  </si>
+  <si>
+    <t>额度上限为空</t>
+  </si>
+  <si>
+    <t>6225990012122122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户姓名</t>
+  </si>
+  <si>
+    <t>来电手机号
+（柜面预留手机号）</t>
+  </si>
+  <si>
+    <t>其他手机号
+（非柜面预留手机号）</t>
+  </si>
+  <si>
+    <t>取款密码</t>
+  </si>
+  <si>
+    <t>开户行</t>
+  </si>
+  <si>
+    <t>phoneNumberOth</t>
+  </si>
+  <si>
+    <t>CardNumber</t>
+  </si>
+  <si>
+    <t>passWord</t>
+  </si>
+  <si>
+    <t>accountBalance</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>钱一</t>
+  </si>
+  <si>
+    <t>北京市分行营业部</t>
+  </si>
+  <si>
+    <t>孔二</t>
+  </si>
+  <si>
+    <t>刘七</t>
+  </si>
+  <si>
+    <t>110101199501011111</t>
+  </si>
+  <si>
+    <t>110101199001011112</t>
+  </si>
+  <si>
+    <t>110101197001011113</t>
+  </si>
+  <si>
+    <t>110101198001011114</t>
+  </si>
+  <si>
+    <t>110101195001011115</t>
+  </si>
+  <si>
+    <t>110101197001011116</t>
+  </si>
+  <si>
+    <t>110101194001011117</t>
+  </si>
+  <si>
+    <t>6222020211111111111</t>
+  </si>
+  <si>
+    <t>6222020211111111112</t>
+  </si>
+  <si>
+    <t>6222020211111111113</t>
+  </si>
+  <si>
+    <t>6222020211111111114</t>
+  </si>
+  <si>
+    <t>6222020211111111115</t>
+  </si>
+  <si>
+    <t>6222020211111111116</t>
+  </si>
+  <si>
+    <t>6222020211111111117</t>
+  </si>
+  <si>
+    <t>符合条件卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王二</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1563,7 +1675,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1645,6 +1757,19 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1672,7 +1797,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1850,24 +1975,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF2B2B2B"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF2B2B2B"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2012,11 +2126,20 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2892,7 +3015,7 @@
         <v>240</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D4" s="23">
         <v>123789</v>
@@ -3521,7 +3644,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -3689,58 +3812,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="50"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="50" t="s">
+      <c r="A1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="50" t="s">
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="50" t="s">
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="50" t="s">
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="50" t="s">
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="50" t="s">
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="52"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="55"/>
       <c r="AO1" s="19"/>
       <c r="AP1" s="19"/>
     </row>
@@ -4002,7 +4125,7 @@
     </row>
     <row r="4" spans="1:42" ht="16.5" thickBot="1">
       <c r="A4" s="22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>178</v>
@@ -4130,7 +4253,7 @@
     </row>
     <row r="5" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>44</v>
@@ -4258,7 +4381,7 @@
     </row>
     <row r="6" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>45</v>
@@ -4386,7 +4509,7 @@
     </row>
     <row r="7" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>179</v>
@@ -4514,7 +4637,7 @@
     </row>
     <row r="8" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
       <c r="A8" s="22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>46</v>
@@ -4642,7 +4765,7 @@
     </row>
     <row r="9" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
       <c r="A9" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>47</v>
@@ -5259,8 +5382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5CF3B6-B177-4342-8426-912BE4F25E02}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -5290,34 +5413,34 @@
         <v>267</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>262</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G1" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1" s="34" t="s">
         <v>300</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>301</v>
       </c>
       <c r="I1" s="33" t="s">
         <v>180</v>
       </c>
       <c r="J1" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="K1" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="L1" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="M1" s="33" t="s">
         <v>304</v>
-      </c>
-      <c r="M1" s="33" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1">
@@ -5331,19 +5454,19 @@
         <v>253</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>194</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G2" s="33" t="s">
         <v>182</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I2" s="33" t="s">
         <v>183</v>
@@ -5352,45 +5475,45 @@
         <v>184</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L2" s="33" t="s">
         <v>181</v>
       </c>
       <c r="M2" s="33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1">
       <c r="A3" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="C3" s="36" t="s">
+      <c r="D3" s="36" t="s">
         <v>311</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>312</v>
       </c>
       <c r="E3" s="36">
         <v>190722</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I3" s="36" t="s">
         <v>185</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K3" s="36">
         <v>0</v>
@@ -5399,39 +5522,39 @@
         <v>18612345678</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1">
       <c r="A4" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="C4" s="36" t="s">
+      <c r="D4" s="36" t="s">
         <v>311</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>312</v>
       </c>
       <c r="E4" s="36">
         <v>190722</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I4" s="36" t="s">
         <v>185</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K4" s="36">
         <v>0</v>
@@ -5440,39 +5563,39 @@
         <v>18612345678</v>
       </c>
       <c r="M4" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1">
       <c r="A5" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="C5" s="36" t="s">
+      <c r="D5" s="36" t="s">
         <v>311</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>312</v>
       </c>
       <c r="E5" s="36">
         <v>190722</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I5" s="36" t="s">
         <v>185</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K5" s="36">
         <v>0</v>
@@ -5481,33 +5604,33 @@
         <v>18612345678</v>
       </c>
       <c r="M5" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1">
       <c r="A6" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E6" s="36">
         <v>190723</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I6" s="36" t="s">
         <v>185</v>
@@ -5522,33 +5645,33 @@
         <v>18724578612</v>
       </c>
       <c r="M6" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1">
       <c r="A7" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E7" s="36">
         <v>190723</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I7" s="36" t="s">
         <v>185</v>
@@ -5563,33 +5686,33 @@
         <v>18724578612</v>
       </c>
       <c r="M7" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="30" customHeight="1">
       <c r="A8" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E8" s="36">
         <v>190723</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I8" s="36" t="s">
         <v>185</v>
@@ -5604,39 +5727,39 @@
         <v>18724578612</v>
       </c>
       <c r="M8" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1">
       <c r="A9" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E9" s="36">
         <v>190724</v>
       </c>
       <c r="F9" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="J9" s="36" t="s">
         <v>312</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>322</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>313</v>
       </c>
       <c r="K9" s="36">
         <v>0</v>
@@ -5645,39 +5768,39 @@
         <v>13947851245</v>
       </c>
       <c r="M9" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="30" customHeight="1">
       <c r="A10" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E10" s="36">
         <v>190724</v>
       </c>
       <c r="F10" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="J10" s="36" t="s">
         <v>312</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>374</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>324</v>
-      </c>
-      <c r="I10" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="J10" s="36" t="s">
-        <v>313</v>
       </c>
       <c r="K10" s="36">
         <v>0</v>
@@ -5686,39 +5809,39 @@
         <v>13947851245</v>
       </c>
       <c r="M10" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="30" customHeight="1">
       <c r="A11" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E11" s="36">
         <v>190724</v>
       </c>
       <c r="F11" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="J11" s="36" t="s">
         <v>312</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>325</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="J11" s="36" t="s">
-        <v>313</v>
       </c>
       <c r="K11" s="36">
         <v>0</v>
@@ -5727,33 +5850,33 @@
         <v>13947851245</v>
       </c>
       <c r="M11" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1">
       <c r="A12" s="36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E12" s="36">
         <v>190725</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I12" s="36" t="s">
         <v>185</v>
@@ -5768,33 +5891,33 @@
         <v>13847569541</v>
       </c>
       <c r="M12" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="30" customHeight="1">
       <c r="A13" s="36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E13" s="36">
         <v>190725</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H13" s="37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I13" s="36" t="s">
         <v>185</v>
@@ -5809,33 +5932,33 @@
         <v>13847569541</v>
       </c>
       <c r="M13" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="30" customHeight="1">
       <c r="A14" s="36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E14" s="36">
         <v>190725</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I14" s="36" t="s">
         <v>185</v>
@@ -5850,36 +5973,36 @@
         <v>13847569541</v>
       </c>
       <c r="M14" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="30" customHeight="1">
       <c r="A15" s="36" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C15" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="D15" s="36" t="s">
         <v>311</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>312</v>
       </c>
       <c r="E15" s="36">
         <v>190726</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H15" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="I15" s="36" t="s">
         <v>331</v>
-      </c>
-      <c r="I15" s="36" t="s">
-        <v>332</v>
       </c>
       <c r="J15" s="36" t="s">
         <v>186</v>
@@ -5891,36 +6014,36 @@
         <v>13745123547</v>
       </c>
       <c r="M15" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="30" customHeight="1">
       <c r="A16" s="36" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C16" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="D16" s="36" t="s">
         <v>311</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>312</v>
       </c>
       <c r="E16" s="36">
         <v>190726</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H16" s="37" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J16" s="36" t="s">
         <v>186</v>
@@ -5932,36 +6055,36 @@
         <v>13745123547</v>
       </c>
       <c r="M16" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="30" customHeight="1">
       <c r="A17" s="36" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C17" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="D17" s="36" t="s">
         <v>311</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>312</v>
       </c>
       <c r="E17" s="36">
         <v>190726</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H17" s="37" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J17" s="36" t="s">
         <v>186</v>
@@ -5973,39 +6096,39 @@
         <v>13745123547</v>
       </c>
       <c r="M17" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="30" customHeight="1">
       <c r="A18" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="C18" s="36" t="s">
         <v>335</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>336</v>
-      </c>
       <c r="D18" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E18" s="36">
         <v>190727</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H18" s="37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I18" s="36" t="s">
         <v>185</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K18" s="36">
         <v>300</v>
@@ -6014,39 +6137,39 @@
         <v>13644851444</v>
       </c>
       <c r="M18" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="30" customHeight="1">
       <c r="A19" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="C19" s="36" t="s">
         <v>335</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>336</v>
-      </c>
       <c r="D19" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E19" s="36">
         <v>190727</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H19" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I19" s="36" t="s">
         <v>185</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K19" s="36">
         <v>300</v>
@@ -6055,39 +6178,39 @@
         <v>13644851444</v>
       </c>
       <c r="M19" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="30" customHeight="1">
       <c r="A20" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="C20" s="36" t="s">
         <v>335</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>336</v>
-      </c>
       <c r="D20" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E20" s="36">
         <v>190727</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H20" s="37" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I20" s="36" t="s">
         <v>185</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K20" s="36">
         <v>300</v>
@@ -6096,39 +6219,39 @@
         <v>13644851444</v>
       </c>
       <c r="M20" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="30" customHeight="1">
       <c r="A21" s="36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E21" s="36">
         <v>190728</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H21" s="37" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I21" s="36" t="s">
         <v>185</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K21" s="36">
         <v>300</v>
@@ -6137,39 +6260,39 @@
         <v>13569696465</v>
       </c>
       <c r="M21" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="30" customHeight="1">
       <c r="A22" s="36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E22" s="36">
         <v>190728</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I22" s="36" t="s">
         <v>185</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K22" s="36">
         <v>300</v>
@@ -6178,39 +6301,39 @@
         <v>13569696465</v>
       </c>
       <c r="M22" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="30" customHeight="1">
       <c r="A23" s="36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E23" s="36">
         <v>190728</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I23" s="36" t="s">
         <v>185</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K23" s="36">
         <v>300</v>
@@ -6219,39 +6342,39 @@
         <v>13569696465</v>
       </c>
       <c r="M23" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="30" customHeight="1">
       <c r="A24" s="36" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E24" s="36">
         <v>190729</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I24" s="36" t="s">
         <v>185</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K24" s="36">
         <v>300</v>
@@ -6260,39 +6383,39 @@
         <v>13147852111</v>
       </c>
       <c r="M24" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="30" customHeight="1">
       <c r="A25" s="36" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E25" s="36">
         <v>190729</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I25" s="36" t="s">
         <v>185</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K25" s="36">
         <v>300</v>
@@ -6301,39 +6424,39 @@
         <v>13147852111</v>
       </c>
       <c r="M25" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="30" customHeight="1">
       <c r="A26" s="36" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E26" s="36">
         <v>190729</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H26" s="37" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I26" s="36" t="s">
         <v>185</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K26" s="36">
         <v>300</v>
@@ -6342,39 +6465,39 @@
         <v>13147852111</v>
       </c>
       <c r="M26" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1">
       <c r="A27" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E27" s="36">
         <v>190730</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I27" s="36" t="s">
         <v>185</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K27" s="36">
         <v>300</v>
@@ -6383,39 +6506,39 @@
         <v>13069654888</v>
       </c>
       <c r="M27" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="30" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E28" s="36">
         <v>190730</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H28" s="37" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I28" s="36" t="s">
         <v>185</v>
       </c>
       <c r="J28" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K28" s="36">
         <v>300</v>
@@ -6424,39 +6547,39 @@
         <v>13069654888</v>
       </c>
       <c r="M28" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="30" customHeight="1">
       <c r="A29" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E29" s="36">
         <v>190730</v>
       </c>
       <c r="F29" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G29" s="36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I29" s="36" t="s">
         <v>185</v>
       </c>
       <c r="J29" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K29" s="36">
         <v>300</v>
@@ -6465,39 +6588,39 @@
         <v>13069654888</v>
       </c>
       <c r="M29" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="30" customHeight="1">
       <c r="A30" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E30" s="36">
         <v>190731</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I30" s="36" t="s">
         <v>185</v>
       </c>
       <c r="J30" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K30" s="36">
         <v>300</v>
@@ -6506,39 +6629,39 @@
         <v>13354784121</v>
       </c>
       <c r="M30" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="30" customHeight="1">
       <c r="A31" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E31" s="36">
         <v>190731</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H31" s="37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I31" s="36" t="s">
         <v>185</v>
       </c>
       <c r="J31" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K31" s="36">
         <v>300</v>
@@ -6547,39 +6670,39 @@
         <v>13354784121</v>
       </c>
       <c r="M31" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="30" customHeight="1">
       <c r="A32" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E32" s="36">
         <v>190731</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H32" s="37" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I32" s="36" t="s">
         <v>185</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K32" s="36">
         <v>300</v>
@@ -6588,7 +6711,7 @@
         <v>13354784121</v>
       </c>
       <c r="M32" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -6600,10 +6723,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D1ADF8-5FB2-40D6-ABA5-038F78548C18}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21:M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6624,7 +6747,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="38" t="s">
@@ -6650,7 +6773,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A2" s="54"/>
+      <c r="A2" s="57"/>
       <c r="B2" s="46" t="s">
         <v>269</v>
       </c>
@@ -6673,7 +6796,7 @@
         <v>266</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J2" s="39" t="s">
         <v>267</v>
@@ -6682,52 +6805,52 @@
         <v>268</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M2" s="39" t="s">
-        <v>407</v>
-      </c>
-      <c r="N2" s="49"/>
+        <v>406</v>
+      </c>
+      <c r="N2" s="48"/>
     </row>
     <row r="3" spans="1:14" ht="14.25" thickBot="1">
       <c r="A3" s="41" t="s">
         <v>270</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C3" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="D3" s="42" t="s">
         <v>408</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="E3" s="43" t="s">
         <v>409</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="F3" s="43" t="s">
         <v>410</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="G3" s="44" t="s">
         <v>411</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="H3" s="42" t="s">
         <v>412</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="I3" s="42" t="s">
         <v>413</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="J3" s="42" t="s">
         <v>414</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="K3" s="42" t="s">
         <v>415</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="L3" s="42" t="s">
         <v>416</v>
       </c>
-      <c r="L3" s="42" t="s">
+      <c r="M3" s="41" t="s">
         <v>417</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>418</v>
       </c>
       <c r="N3" s="41"/>
     </row>
@@ -6736,10 +6859,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D4" s="26">
         <v>123456</v>
@@ -6772,10 +6895,10 @@
         <v>31</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D5" s="26">
         <v>123456</v>
@@ -6808,19 +6931,19 @@
         <v>13</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D6" s="26">
         <v>123456</v>
       </c>
       <c r="E6" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="F6" s="27" t="s">
         <v>421</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>422</v>
       </c>
       <c r="G6" s="30">
         <v>2000</v>
@@ -6847,7 +6970,7 @@
         <v>275</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D7" s="26">
         <v>123321</v>
@@ -6885,7 +7008,7 @@
         <v>275</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" s="26">
         <v>123321</v>
@@ -6904,11 +7027,11 @@
       </c>
       <c r="I8" s="26"/>
       <c r="J8" s="26" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K8" s="26"/>
       <c r="L8" s="26" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M8" s="26"/>
       <c r="N8" s="26" t="s">
@@ -6920,10 +7043,10 @@
         <v>281</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D9" s="26">
         <v>321321</v>
@@ -6950,10 +7073,10 @@
         <v>281</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D10" s="26">
         <v>321321</v>
@@ -6972,11 +7095,11 @@
       </c>
       <c r="I10" s="26"/>
       <c r="J10" s="26" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K10" s="26"/>
       <c r="L10" s="26" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M10" s="26"/>
       <c r="N10" s="26" t="s">
@@ -6988,19 +7111,19 @@
         <v>284</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D11" s="26">
         <v>112233</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G11" s="30">
         <v>2000</v>
@@ -7009,7 +7132,7 @@
         <v>271</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J11" s="26" t="s">
         <v>285</v>
@@ -7026,10 +7149,10 @@
         <v>284</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D12" s="26">
         <v>112233</v>
@@ -7038,7 +7161,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G12" s="30">
         <v>2000</v>
@@ -7047,7 +7170,7 @@
         <v>271</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J12" s="26" t="s">
         <v>285</v>
@@ -7064,10 +7187,10 @@
         <v>287</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D13" s="26">
         <v>147147</v>
@@ -7086,26 +7209,26 @@
       </c>
       <c r="I13" s="26"/>
       <c r="J13" s="26" t="s">
-        <v>288</v>
+        <v>472</v>
       </c>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
       <c r="M13" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="N13" s="26" t="s">
         <v>289</v>
-      </c>
-      <c r="N13" s="26" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="14.25" thickBot="1">
       <c r="A14" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D14" s="31">
         <v>456456</v>
@@ -7123,48 +7246,84 @@
         <v>276</v>
       </c>
       <c r="K14" s="31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L14" s="31"/>
       <c r="M14" s="31"/>
       <c r="N14" s="31" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="25" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A15" s="29" t="s">
+      <c r="B15" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="D15" s="25">
+        <v>232323</v>
+      </c>
+      <c r="E15" s="25">
+        <v>3000</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25">
+        <v>2000</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="K15" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>429</v>
-      </c>
-      <c r="C15" s="29" t="s">
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="49" t="s">
         <v>438</v>
       </c>
-      <c r="D15" s="29">
-        <v>232323</v>
-      </c>
-      <c r="E15" s="29">
-        <v>3000</v>
-      </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="30">
-        <v>2000</v>
-      </c>
-      <c r="H15" s="26" t="s">
+      <c r="B16" s="49" t="s">
+        <v>439</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>440</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="H16" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="K15" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29" t="s">
-        <v>296</v>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50" t="s">
+        <v>472</v>
+      </c>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49" t="s">
+        <v>441</v>
+      </c>
+      <c r="N16" s="49" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -7175,4 +7334,265 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FA26D4-8908-49A4-BC8D-DA17B9F7E5D3}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="40"/>
+    <col min="2" max="2" width="20.25" style="40" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="40" customWidth="1"/>
+    <col min="4" max="4" width="28.25" style="40" customWidth="1"/>
+    <col min="5" max="5" width="24.625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="40" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="40" customWidth="1"/>
+    <col min="8" max="8" width="27.75" style="40" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24.75" thickBot="1">
+      <c r="A1" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>447</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="24.75" thickBot="1">
+      <c r="A2" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>451</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>452</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.25" thickBot="1">
+      <c r="A3" s="52" t="s">
+        <v>454</v>
+      </c>
+      <c r="B3" s="52">
+        <v>11111111111</v>
+      </c>
+      <c r="C3" s="52">
+        <v>22222222221</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>458</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>465</v>
+      </c>
+      <c r="F3" s="52">
+        <v>112233</v>
+      </c>
+      <c r="G3" s="52">
+        <v>111</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.25" thickBot="1">
+      <c r="A4" s="52" t="s">
+        <v>456</v>
+      </c>
+      <c r="B4" s="52">
+        <v>11111111112</v>
+      </c>
+      <c r="C4" s="52">
+        <v>22222222222</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>459</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>466</v>
+      </c>
+      <c r="F4" s="52">
+        <v>112233</v>
+      </c>
+      <c r="G4" s="52">
+        <v>112</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" thickBot="1">
+      <c r="A5" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="52">
+        <v>11111111113</v>
+      </c>
+      <c r="C5" s="52">
+        <v>22222222223</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>460</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>467</v>
+      </c>
+      <c r="F5" s="52">
+        <v>112233</v>
+      </c>
+      <c r="G5" s="52">
+        <v>113</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.25" thickBot="1">
+      <c r="A6" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" s="52">
+        <v>11111111114</v>
+      </c>
+      <c r="C6" s="52">
+        <v>22222222224</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>461</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>468</v>
+      </c>
+      <c r="F6" s="52">
+        <v>112233</v>
+      </c>
+      <c r="G6" s="52">
+        <v>114</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" thickBot="1">
+      <c r="A7" s="52" t="s">
+        <v>281</v>
+      </c>
+      <c r="B7" s="52">
+        <v>11111111115</v>
+      </c>
+      <c r="C7" s="52">
+        <v>22222222225</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>462</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>469</v>
+      </c>
+      <c r="F7" s="52">
+        <v>112233</v>
+      </c>
+      <c r="G7" s="52">
+        <v>115</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.25" thickBot="1">
+      <c r="A8" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="B8" s="52">
+        <v>11111111116</v>
+      </c>
+      <c r="C8" s="52">
+        <v>22222222226</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>470</v>
+      </c>
+      <c r="F8" s="52">
+        <v>112233</v>
+      </c>
+      <c r="G8" s="52">
+        <v>116</v>
+      </c>
+      <c r="H8" s="52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.25" thickBot="1">
+      <c r="A9" s="52" t="s">
+        <v>457</v>
+      </c>
+      <c r="B9" s="52">
+        <v>11111111117</v>
+      </c>
+      <c r="C9" s="52">
+        <v>22222222227</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>464</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>471</v>
+      </c>
+      <c r="F9" s="52">
+        <v>112233</v>
+      </c>
+      <c r="G9" s="52">
+        <v>117</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/ICBC-DATA.xlsx
+++ b/src/main/resources/ICBC-DATA.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\AICP\ICBC\WebHook\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D04BCD-1243-4D2A-9760-BC36B58FF2D3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="信用卡催收外呼信息-暂不用" sheetId="3" r:id="rId1"/>
@@ -22,12 +16,12 @@
     <sheet name="一键调额流程信息" sheetId="10" r:id="rId7"/>
     <sheet name="助手调用信息" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="487">
   <si>
     <t>姓名</t>
   </si>
@@ -1719,11 +1713,19 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>测试编号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -2174,6 +2176,12 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2188,12 +2196,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2540,7 +2542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2777,7 +2779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C9EB0D-85D9-47ED-B377-7DA30201B995}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3679,10 +3681,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CC4714-938C-4DED-8249-15DA7AA69E8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -3754,16 +3756,16 @@
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="51" t="s">
         <v>469</v>
       </c>
       <c r="C3">
         <v>13012345678</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="51" t="s">
         <v>465</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="51" t="s">
         <v>470</v>
       </c>
       <c r="F3" t="s">
@@ -3772,7 +3774,7 @@
       <c r="G3" t="s">
         <v>472</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="52" t="s">
         <v>484</v>
       </c>
     </row>
@@ -3780,16 +3782,16 @@
       <c r="A4" t="s">
         <v>473</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="51" t="s">
         <v>474</v>
       </c>
       <c r="C4">
         <v>13212345678</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="51" t="s">
         <v>466</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="51" t="s">
         <v>475</v>
       </c>
       <c r="F4" t="s">
@@ -3798,7 +3800,7 @@
       <c r="G4" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="52" t="s">
         <v>483</v>
       </c>
     </row>
@@ -3806,16 +3808,16 @@
       <c r="A5" t="s">
         <v>477</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="51" t="s">
         <v>478</v>
       </c>
       <c r="C5">
         <v>13212347890</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="51" t="s">
         <v>479</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="51" t="s">
         <v>480</v>
       </c>
       <c r="F5" t="s">
@@ -3824,7 +3826,7 @@
       <c r="G5" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="52" t="s">
         <v>482</v>
       </c>
     </row>
@@ -3836,7 +3838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE72EEFD-0F28-41BD-80B6-AE746FF870AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3851,58 +3853,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="51"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="51" t="s">
+      <c r="A1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="51" t="s">
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="51" t="s">
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="51" t="s">
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="51" t="s">
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="51" t="s">
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="53"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="55"/>
       <c r="AO1" s="17"/>
       <c r="AP1" s="17"/>
     </row>
@@ -4948,7 +4950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDD2311-8857-4ECF-8573-8040401A87F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5418,11 +5420,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5CF3B6-B177-4342-8426-912BE4F25E02}">
-  <dimension ref="A1:M32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -5441,7 +5443,7 @@
     <col min="13" max="13" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" customHeight="1">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -5481,8 +5483,11 @@
       <c r="M1" s="31" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1">
+      <c r="N1" s="31" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="30" customHeight="1">
       <c r="A2" s="31" t="s">
         <v>178</v>
       </c>
@@ -5522,8 +5527,11 @@
       <c r="M2" s="31" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="30" customHeight="1">
+      <c r="N2" s="31" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="30" customHeight="1">
       <c r="A3" s="34" t="s">
         <v>298</v>
       </c>
@@ -5563,8 +5571,11 @@
       <c r="M3" s="34" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="30" customHeight="1">
+      <c r="N3" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="30" customHeight="1">
       <c r="A4" s="34" t="s">
         <v>298</v>
       </c>
@@ -5604,8 +5615,11 @@
       <c r="M4" s="34" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1">
+      <c r="N4" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30" customHeight="1">
       <c r="A5" s="34" t="s">
         <v>298</v>
       </c>
@@ -5645,8 +5659,11 @@
       <c r="M5" s="34" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="30" customHeight="1">
+      <c r="N5" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1">
       <c r="A6" s="34" t="s">
         <v>305</v>
       </c>
@@ -5686,8 +5703,11 @@
       <c r="M6" s="34" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1">
+      <c r="N6" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1">
       <c r="A7" s="34" t="s">
         <v>305</v>
       </c>
@@ -5727,8 +5747,11 @@
       <c r="M7" s="34" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1">
+      <c r="N7" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="30" customHeight="1">
       <c r="A8" s="34" t="s">
         <v>305</v>
       </c>
@@ -5768,8 +5791,11 @@
       <c r="M8" s="34" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1">
+      <c r="N8" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30" customHeight="1">
       <c r="A9" s="34" t="s">
         <v>309</v>
       </c>
@@ -5809,8 +5835,11 @@
       <c r="M9" s="34" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1">
+      <c r="N9" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30" customHeight="1">
       <c r="A10" s="34" t="s">
         <v>309</v>
       </c>
@@ -5850,8 +5879,11 @@
       <c r="M10" s="34" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1">
+      <c r="N10" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="30" customHeight="1">
       <c r="A11" s="34" t="s">
         <v>309</v>
       </c>
@@ -5891,8 +5923,11 @@
       <c r="M11" s="34" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1">
+      <c r="N11" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="30" customHeight="1">
       <c r="A12" s="34" t="s">
         <v>314</v>
       </c>
@@ -5932,8 +5967,11 @@
       <c r="M12" s="34" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="30" customHeight="1">
+      <c r="N12" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="30" customHeight="1">
       <c r="A13" s="34" t="s">
         <v>314</v>
       </c>
@@ -5973,8 +6011,11 @@
       <c r="M13" s="34" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="30" customHeight="1">
+      <c r="N13" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="30" customHeight="1">
       <c r="A14" s="34" t="s">
         <v>314</v>
       </c>
@@ -6014,8 +6055,11 @@
       <c r="M14" s="34" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="30" customHeight="1">
+      <c r="N14" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="30" customHeight="1">
       <c r="A15" s="34" t="s">
         <v>318</v>
       </c>
@@ -6055,8 +6099,11 @@
       <c r="M15" s="34" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="30" customHeight="1">
+      <c r="N15" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="30" customHeight="1">
       <c r="A16" s="34" t="s">
         <v>318</v>
       </c>
@@ -6096,8 +6143,11 @@
       <c r="M16" s="34" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="30" customHeight="1">
+      <c r="N16" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="30" customHeight="1">
       <c r="A17" s="34" t="s">
         <v>318</v>
       </c>
@@ -6137,8 +6187,11 @@
       <c r="M17" s="34" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="30" customHeight="1">
+      <c r="N17" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="30" customHeight="1">
       <c r="A18" s="34" t="s">
         <v>460</v>
       </c>
@@ -6178,8 +6231,11 @@
       <c r="M18" s="34" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="30" customHeight="1">
+      <c r="N18" s="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="30" customHeight="1">
       <c r="A19" s="34" t="s">
         <v>323</v>
       </c>
@@ -6219,8 +6275,11 @@
       <c r="M19" s="34" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="30" customHeight="1">
+      <c r="N19" s="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="30" customHeight="1">
       <c r="A20" s="34" t="s">
         <v>323</v>
       </c>
@@ -6260,8 +6319,11 @@
       <c r="M20" s="34" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="30" customHeight="1">
+      <c r="N20" s="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="30" customHeight="1">
       <c r="A21" s="34" t="s">
         <v>328</v>
       </c>
@@ -6301,8 +6363,11 @@
       <c r="M21" s="34" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="30" customHeight="1">
+      <c r="N21" s="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="30" customHeight="1">
       <c r="A22" s="34" t="s">
         <v>328</v>
       </c>
@@ -6342,8 +6407,11 @@
       <c r="M22" s="34" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="30" customHeight="1">
+      <c r="N22" s="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="30" customHeight="1">
       <c r="A23" s="34" t="s">
         <v>328</v>
       </c>
@@ -6383,8 +6451,11 @@
       <c r="M23" s="34" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="30" customHeight="1">
+      <c r="N23" s="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="30" customHeight="1">
       <c r="A24" s="34" t="s">
         <v>332</v>
       </c>
@@ -6424,8 +6495,11 @@
       <c r="M24" s="34" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="30" customHeight="1">
+      <c r="N24" s="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="30" customHeight="1">
       <c r="A25" s="34" t="s">
         <v>332</v>
       </c>
@@ -6465,8 +6539,11 @@
       <c r="M25" s="34" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="30" customHeight="1">
+      <c r="N25" s="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="30" customHeight="1">
       <c r="A26" s="34" t="s">
         <v>332</v>
       </c>
@@ -6506,8 +6583,11 @@
       <c r="M26" s="34" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="30" customHeight="1">
+      <c r="N26" s="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="30" customHeight="1">
       <c r="A27" s="34" t="s">
         <v>336</v>
       </c>
@@ -6547,8 +6627,11 @@
       <c r="M27" s="34" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="30" customHeight="1">
+      <c r="N27" s="34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="30" customHeight="1">
       <c r="A28" s="34" t="s">
         <v>336</v>
       </c>
@@ -6588,8 +6671,11 @@
       <c r="M28" s="34" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="30" customHeight="1">
+      <c r="N28" s="34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="30" customHeight="1">
       <c r="A29" s="34" t="s">
         <v>336</v>
       </c>
@@ -6629,8 +6715,11 @@
       <c r="M29" s="34" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="30" customHeight="1">
+      <c r="N29" s="34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="30" customHeight="1">
       <c r="A30" s="34" t="s">
         <v>340</v>
       </c>
@@ -6670,8 +6759,11 @@
       <c r="M30" s="34" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="30" customHeight="1">
+      <c r="N30" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="30" customHeight="1">
       <c r="A31" s="34" t="s">
         <v>340</v>
       </c>
@@ -6711,8 +6803,11 @@
       <c r="M31" s="34" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="30" customHeight="1">
+      <c r="N31" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="30" customHeight="1">
       <c r="A32" s="34" t="s">
         <v>340</v>
       </c>
@@ -6751,6 +6846,9 @@
       </c>
       <c r="M32" s="34" t="s">
         <v>300</v>
+      </c>
+      <c r="N32" s="34">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -6761,7 +6859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D1ADF8-5FB2-40D6-ABA5-038F78548C18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6786,7 +6884,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="36" t="s">
@@ -6812,7 +6910,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A2" s="55"/>
+      <c r="A2" s="57"/>
       <c r="B2" s="44" t="s">
         <v>259</v>
       </c>
@@ -7382,7 +7480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FA26D4-8908-49A4-BC8D-DA17B9F7E5D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/src/main/resources/ICBC-DATA.xlsx
+++ b/src/main/resources/ICBC-DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\AICP\ICBC\WebHook\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243F4AC4-3810-4EFB-A5F9-63333DF3C4B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50BB44A-7E42-4ED4-A3C1-0B9AE6D00C5B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="信用卡催收外呼信息-暂不用" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="523">
   <si>
     <t>姓名</t>
   </si>
@@ -1517,9 +1517,6 @@
     <t>北京市朝阳区德胜门外大街100号</t>
   </si>
   <si>
-    <t>军字第10021315</t>
-  </si>
-  <si>
     <t>北京市海淀区北四环西路66号</t>
   </si>
   <si>
@@ -1763,6 +1760,23 @@
   <si>
     <t>6251612222222222</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10021315</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>002002127</t>
+  </si>
+  <si>
+    <t>020212345</t>
+  </si>
+  <si>
+    <t>020210045</t>
   </si>
 </sst>
 </file>
@@ -2148,7 +2162,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2320,23 +2334,17 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3840,8 +3848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CC4714-938C-4DED-8249-15DA7AA69E8A}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -3870,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C1" s="45" t="s">
         <v>9</v>
@@ -3879,16 +3887,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="51" t="s">
+        <v>480</v>
+      </c>
+      <c r="F1" s="52" t="s">
         <v>481</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="G1" s="52" t="s">
         <v>482</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="H1" s="52" t="s">
         <v>483</v>
-      </c>
-      <c r="H1" s="52" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickTop="1" thickBot="1">
@@ -3905,16 +3913,16 @@
         <v>139</v>
       </c>
       <c r="E2" s="53" t="s">
+        <v>484</v>
+      </c>
+      <c r="F2" s="53" t="s">
         <v>485</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>486</v>
       </c>
       <c r="G2" s="53" t="s">
         <v>399</v>
       </c>
       <c r="H2" s="53" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
@@ -3922,77 +3930,77 @@
         <v>13</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>503</v>
-      </c>
-      <c r="E3" s="54">
-        <v>2002127</v>
+        <v>502</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>520</v>
       </c>
       <c r="F3" s="54" t="s">
+        <v>487</v>
+      </c>
+      <c r="G3" s="54" t="s">
         <v>488</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="H3" s="54" t="s">
         <v>489</v>
-      </c>
-      <c r="H3" s="54" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="54" t="s">
+        <v>490</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>499</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>473</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>503</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>521</v>
+      </c>
+      <c r="F4" s="54" t="s">
         <v>491</v>
       </c>
-      <c r="B4" s="54" t="s">
-        <v>500</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>474</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>504</v>
-      </c>
-      <c r="E4" s="54">
-        <v>20212345</v>
-      </c>
-      <c r="F4" s="54" t="s">
+      <c r="G4" s="54" t="s">
         <v>492</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="H4" s="54" t="s">
         <v>493</v>
-      </c>
-      <c r="H4" s="54" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
       <c r="A5" s="54" t="s">
+        <v>494</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>500</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>501</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>504</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>522</v>
+      </c>
+      <c r="F5" s="54" t="s">
         <v>495</v>
       </c>
-      <c r="B5" s="54" t="s">
-        <v>501</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>502</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>505</v>
-      </c>
-      <c r="E5" s="54">
-        <v>20210045</v>
-      </c>
-      <c r="F5" s="54" t="s">
+      <c r="G5" s="54" t="s">
         <v>496</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="H5" s="54" t="s">
         <v>497</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -4018,58 +4026,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="63"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="63" t="s">
+      <c r="A1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="63" t="s">
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="63" t="s">
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="63" t="s">
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="63" t="s">
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="63" t="s">
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="65"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="63"/>
       <c r="AO1" s="11"/>
       <c r="AP1" s="11"/>
     </row>
@@ -5118,29 +5126,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDD2311-8857-4ECF-8573-8040401A87F4}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.75" style="32" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.125" style="32" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15" style="32" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.875" style="32"/>
+    <col min="1" max="1" width="13.875" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.75" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.125" style="40" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" style="40" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.875" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="43.5" thickBot="1">
@@ -5190,94 +5198,94 @@
         <v>435</v>
       </c>
       <c r="P1" s="46" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A2" s="57" t="s">
+        <v>445</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>446</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>449</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>450</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>451</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>452</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>453</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>455</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>398</v>
+      </c>
+      <c r="N2" s="58" t="s">
+        <v>456</v>
+      </c>
+      <c r="O2" s="59" t="s">
+        <v>457</v>
+      </c>
+      <c r="P2" s="59" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A3" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>459</v>
+      </c>
+      <c r="E3" s="47" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A2" s="60" t="s">
-        <v>446</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>447</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>448</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>449</v>
-      </c>
-      <c r="E2" s="61" t="s">
-        <v>450</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>451</v>
-      </c>
-      <c r="G2" s="61" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>452</v>
-      </c>
-      <c r="I2" s="61" t="s">
-        <v>453</v>
-      </c>
-      <c r="J2" s="61" t="s">
-        <v>454</v>
-      </c>
-      <c r="K2" s="61" t="s">
-        <v>455</v>
-      </c>
-      <c r="L2" s="61" t="s">
-        <v>456</v>
-      </c>
-      <c r="M2" s="61" t="s">
-        <v>398</v>
-      </c>
-      <c r="N2" s="61" t="s">
-        <v>457</v>
-      </c>
-      <c r="O2" s="62" t="s">
-        <v>458</v>
-      </c>
-      <c r="P2" s="62" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A3" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="57" t="s">
-        <v>460</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>507</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>518</v>
+      <c r="F3" s="47" t="s">
+        <v>517</v>
       </c>
       <c r="G3" s="47" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>510</v>
-      </c>
-      <c r="I3" s="57">
+        <v>509</v>
+      </c>
+      <c r="I3" s="47">
         <v>123456</v>
       </c>
-      <c r="J3" s="57" t="s">
-        <v>472</v>
+      <c r="J3" s="47" t="s">
+        <v>471</v>
       </c>
       <c r="K3" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="57" t="s">
+      <c r="L3" s="47" t="s">
         <v>40</v>
       </c>
       <c r="M3" s="47">
@@ -5287,47 +5295,47 @@
         <v>20</v>
       </c>
       <c r="O3" s="47" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="P3" s="47" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="57" t="s">
-        <v>460</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>507</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>462</v>
+      <c r="D4" s="47" t="s">
+        <v>459</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>506</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>461</v>
       </c>
       <c r="G4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="H4" s="47" t="s">
-        <v>510</v>
-      </c>
-      <c r="I4" s="57">
+        <v>509</v>
+      </c>
+      <c r="I4" s="47">
         <v>132456</v>
       </c>
-      <c r="J4" s="57" t="s">
-        <v>472</v>
+      <c r="J4" s="47" t="s">
+        <v>471</v>
       </c>
       <c r="K4" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="57" t="s">
+      <c r="L4" s="47" t="s">
         <v>436</v>
       </c>
       <c r="M4" s="47">
@@ -5337,47 +5345,47 @@
         <v>20</v>
       </c>
       <c r="O4" s="47" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="P4" s="47" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="58" t="s">
-        <v>437</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>508</v>
-      </c>
-      <c r="F5" s="58" t="s">
-        <v>463</v>
+      <c r="D5" s="48" t="s">
+        <v>519</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>507</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>462</v>
       </c>
       <c r="G5" s="48" t="s">
         <v>44</v>
       </c>
       <c r="H5" s="48" t="s">
-        <v>511</v>
-      </c>
-      <c r="I5" s="58">
+        <v>510</v>
+      </c>
+      <c r="I5" s="48">
         <v>123456</v>
       </c>
-      <c r="J5" s="58" t="s">
-        <v>473</v>
-      </c>
-      <c r="K5" s="58" t="s">
+      <c r="J5" s="48" t="s">
+        <v>472</v>
+      </c>
+      <c r="K5" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="58" t="s">
+      <c r="L5" s="48" t="s">
         <v>46</v>
       </c>
       <c r="M5" s="48">
@@ -5387,48 +5395,48 @@
         <v>20</v>
       </c>
       <c r="O5" s="48" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="P5" s="48" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="58" t="s">
-        <v>437</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>508</v>
-      </c>
-      <c r="F6" s="58" t="s">
-        <v>464</v>
+      <c r="D6" s="48" t="s">
+        <v>519</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>507</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>463</v>
       </c>
       <c r="G6" s="48" t="s">
         <v>47</v>
       </c>
       <c r="H6" s="48" t="s">
-        <v>512</v>
-      </c>
-      <c r="I6" s="58">
+        <v>511</v>
+      </c>
+      <c r="I6" s="48">
         <v>123456</v>
       </c>
-      <c r="J6" s="58" t="s">
-        <v>473</v>
-      </c>
-      <c r="K6" s="58" t="s">
+      <c r="J6" s="48" t="s">
+        <v>472</v>
+      </c>
+      <c r="K6" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="58" t="s">
-        <v>438</v>
+      <c r="L6" s="48" t="s">
+        <v>437</v>
       </c>
       <c r="M6" s="48">
         <v>50000</v>
@@ -5437,48 +5445,48 @@
         <v>20</v>
       </c>
       <c r="O6" s="48" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="P6" s="48" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="58" t="s">
-        <v>437</v>
-      </c>
-      <c r="E7" s="58" t="s">
-        <v>508</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>465</v>
+      <c r="D7" s="48" t="s">
+        <v>519</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>507</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>464</v>
       </c>
       <c r="G7" s="48" t="s">
         <v>48</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>512</v>
-      </c>
-      <c r="I7" s="58">
+        <v>511</v>
+      </c>
+      <c r="I7" s="48">
         <v>123456</v>
       </c>
-      <c r="J7" s="58" t="s">
-        <v>473</v>
-      </c>
-      <c r="K7" s="58" t="s">
+      <c r="J7" s="48" t="s">
+        <v>472</v>
+      </c>
+      <c r="K7" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="58" t="s">
-        <v>439</v>
+      <c r="L7" s="48" t="s">
+        <v>438</v>
       </c>
       <c r="M7" s="48">
         <v>0</v>
@@ -5487,48 +5495,48 @@
         <v>49</v>
       </c>
       <c r="O7" s="48" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="P7" s="48" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="58" t="s">
-        <v>437</v>
-      </c>
-      <c r="E8" s="58" t="s">
-        <v>508</v>
-      </c>
-      <c r="F8" s="58" t="s">
-        <v>466</v>
+      <c r="D8" s="48" t="s">
+        <v>519</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>507</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>465</v>
       </c>
       <c r="G8" s="48" t="s">
         <v>48</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>512</v>
-      </c>
-      <c r="I8" s="58">
+        <v>511</v>
+      </c>
+      <c r="I8" s="48">
         <v>123456</v>
       </c>
-      <c r="J8" s="58" t="s">
-        <v>473</v>
-      </c>
-      <c r="K8" s="58" t="s">
+      <c r="J8" s="48" t="s">
+        <v>472</v>
+      </c>
+      <c r="K8" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="58" t="s">
-        <v>440</v>
+      <c r="L8" s="48" t="s">
+        <v>439</v>
       </c>
       <c r="M8" s="48">
         <v>0</v>
@@ -5537,47 +5545,47 @@
         <v>49</v>
       </c>
       <c r="O8" s="48" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="P8" s="48" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="57" t="s">
-        <v>461</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>509</v>
-      </c>
-      <c r="F9" s="59" t="s">
-        <v>467</v>
+      <c r="D9" s="47" t="s">
+        <v>460</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>508</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>466</v>
       </c>
       <c r="G9" s="47" t="s">
         <v>44</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>513</v>
-      </c>
-      <c r="I9" s="57">
+        <v>512</v>
+      </c>
+      <c r="I9" s="47">
         <v>123456</v>
       </c>
-      <c r="J9" s="57" t="s">
-        <v>474</v>
+      <c r="J9" s="47" t="s">
+        <v>473</v>
       </c>
       <c r="K9" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="57" t="s">
+      <c r="L9" s="47" t="s">
         <v>52</v>
       </c>
       <c r="M9" s="47">
@@ -5587,48 +5595,48 @@
         <v>20</v>
       </c>
       <c r="O9" s="47" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="P9" s="47" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="57" t="s">
-        <v>461</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>509</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>468</v>
+      <c r="D10" s="47" t="s">
+        <v>460</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>508</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>467</v>
       </c>
       <c r="G10" s="47" t="s">
         <v>44</v>
       </c>
       <c r="H10" s="47" t="s">
-        <v>514</v>
-      </c>
-      <c r="I10" s="57">
+        <v>513</v>
+      </c>
+      <c r="I10" s="47">
         <v>123456</v>
       </c>
-      <c r="J10" s="57" t="s">
-        <v>474</v>
+      <c r="J10" s="47" t="s">
+        <v>473</v>
       </c>
       <c r="K10" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="L10" s="57" t="s">
-        <v>441</v>
+      <c r="L10" s="47" t="s">
+        <v>440</v>
       </c>
       <c r="M10" s="47">
         <v>7000</v>
@@ -5637,48 +5645,48 @@
         <v>20</v>
       </c>
       <c r="O10" s="47" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="P10" s="47" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="57" t="s">
-        <v>461</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>509</v>
-      </c>
-      <c r="F11" s="57" t="s">
-        <v>469</v>
+      <c r="D11" s="47" t="s">
+        <v>460</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>508</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>468</v>
       </c>
       <c r="G11" s="47" t="s">
         <v>44</v>
       </c>
       <c r="H11" s="47" t="s">
-        <v>515</v>
-      </c>
-      <c r="I11" s="57">
+        <v>514</v>
+      </c>
+      <c r="I11" s="47">
         <v>123456</v>
       </c>
-      <c r="J11" s="57" t="s">
-        <v>474</v>
+      <c r="J11" s="47" t="s">
+        <v>473</v>
       </c>
       <c r="K11" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="57" t="s">
-        <v>442</v>
+      <c r="L11" s="47" t="s">
+        <v>441</v>
       </c>
       <c r="M11" s="47">
         <v>4125.25</v>
@@ -5687,48 +5695,48 @@
         <v>20</v>
       </c>
       <c r="O11" s="47" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="P11" s="47" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="57" t="s">
-        <v>461</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>509</v>
-      </c>
-      <c r="F12" s="57" t="s">
-        <v>470</v>
+      <c r="D12" s="47" t="s">
+        <v>460</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>508</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>469</v>
       </c>
       <c r="G12" s="47" t="s">
         <v>44</v>
       </c>
       <c r="H12" s="47" t="s">
-        <v>516</v>
-      </c>
-      <c r="I12" s="57">
+        <v>515</v>
+      </c>
+      <c r="I12" s="47">
         <v>123456</v>
       </c>
-      <c r="J12" s="57" t="s">
-        <v>474</v>
+      <c r="J12" s="47" t="s">
+        <v>473</v>
       </c>
       <c r="K12" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="L12" s="57" t="s">
-        <v>443</v>
+      <c r="L12" s="47" t="s">
+        <v>442</v>
       </c>
       <c r="M12" s="47">
         <v>5000</v>
@@ -5737,48 +5745,48 @@
         <v>20</v>
       </c>
       <c r="O12" s="47" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="P12" s="47" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="57" t="s">
-        <v>461</v>
-      </c>
-      <c r="E13" s="57" t="s">
-        <v>509</v>
-      </c>
-      <c r="F13" s="57" t="s">
-        <v>471</v>
+      <c r="D13" s="47" t="s">
+        <v>460</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>508</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>470</v>
       </c>
       <c r="G13" s="47" t="s">
         <v>44</v>
       </c>
       <c r="H13" s="47" t="s">
-        <v>517</v>
-      </c>
-      <c r="I13" s="57">
+        <v>516</v>
+      </c>
+      <c r="I13" s="47">
         <v>123456</v>
       </c>
-      <c r="J13" s="57" t="s">
-        <v>474</v>
+      <c r="J13" s="47" t="s">
+        <v>473</v>
       </c>
       <c r="K13" s="47" t="s">
+        <v>443</v>
+      </c>
+      <c r="L13" s="47" t="s">
         <v>444</v>
-      </c>
-      <c r="L13" s="57" t="s">
-        <v>445</v>
       </c>
       <c r="M13" s="47">
         <v>10000</v>
@@ -5787,10 +5795,10 @@
         <v>20</v>
       </c>
       <c r="O13" s="47" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="P13" s="47" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="14.25" thickTop="1"/>
@@ -7172,7 +7180,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" thickBot="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
@@ -7199,7 +7207,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.25" thickBot="1">
-      <c r="A2" s="67"/>
+      <c r="A2" s="65"/>
       <c r="B2" s="38" t="s">
         <v>219</v>
       </c>
@@ -7237,7 +7245,7 @@
         <v>354</v>
       </c>
       <c r="N2" s="44" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O2" s="39"/>
     </row>
@@ -7282,7 +7290,7 @@
         <v>365</v>
       </c>
       <c r="N3" s="49" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="O3" s="33"/>
     </row>
@@ -7321,7 +7329,7 @@
         <v>421</v>
       </c>
       <c r="N4" s="50" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O4" s="17" t="s">
         <v>223</v>
@@ -7403,7 +7411,7 @@
         <v>421</v>
       </c>
       <c r="N6" s="50" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O6" s="17" t="s">
         <v>223</v>
@@ -7485,7 +7493,7 @@
       </c>
       <c r="M8" s="18"/>
       <c r="N8" s="50" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O8" s="18" t="s">
         <v>229</v>
@@ -7557,7 +7565,7 @@
       </c>
       <c r="M10" s="18"/>
       <c r="N10" s="50" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O10" s="18" t="s">
         <v>229</v>
@@ -7684,7 +7692,7 @@
         <v>236</v>
       </c>
       <c r="N13" s="50" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O13" s="18" t="s">
         <v>237</v>
@@ -7797,7 +7805,7 @@
         <v>387</v>
       </c>
       <c r="N16" s="50" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O16" s="18" t="s">
         <v>388</v>

--- a/src/main/resources/ICBC-DATA.xlsx
+++ b/src/main/resources/ICBC-DATA.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="489">
   <si>
     <t>姓名</t>
   </si>
@@ -1238,9 +1238,6 @@
 2019-07-01 消费-789.00人民币 财付通-Apple 
 2019-07-01 消费-10001.00人民币 财付通-北京紫昱轩大食堂餐饮     </t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>9558800200126547412</t>
   </si>
   <si>
     <t>6222020066541257863</t>
@@ -1719,6 +1716,17 @@
   </si>
   <si>
     <t>NO</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>6251612222222222</t>
+  </si>
+  <si>
+    <t>cardNumber</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>6251612222222222</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3056,7 +3064,7 @@
         <v>230</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D4" s="21">
         <v>123789</v>
@@ -3757,77 +3765,77 @@
         <v>13</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C3">
         <v>13012345678</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E3" s="51" t="s">
+        <v>469</v>
+      </c>
+      <c r="F3" t="s">
         <v>470</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>471</v>
       </c>
-      <c r="G3" t="s">
-        <v>472</v>
-      </c>
       <c r="H3" s="52" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="27.75" customHeight="1">
       <c r="A4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B4" s="51" t="s">
         <v>473</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>474</v>
       </c>
       <c r="C4">
         <v>13212345678</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E4" s="51" t="s">
+        <v>474</v>
+      </c>
+      <c r="F4" t="s">
         <v>475</v>
-      </c>
-      <c r="F4" t="s">
-        <v>476</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
       </c>
       <c r="H4" s="52" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="27.75" customHeight="1">
       <c r="A5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B5" s="51" t="s">
         <v>477</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>478</v>
       </c>
       <c r="C5">
         <v>13212347890</v>
       </c>
       <c r="D5" s="51" t="s">
+        <v>478</v>
+      </c>
+      <c r="E5" s="51" t="s">
         <v>479</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="F5" t="s">
         <v>480</v>
-      </c>
-      <c r="F5" t="s">
-        <v>481</v>
       </c>
       <c r="G5" t="s">
         <v>43</v>
       </c>
       <c r="H5" s="52" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -4166,7 +4174,7 @@
     </row>
     <row r="4" spans="1:42" ht="16.5" thickBot="1">
       <c r="A4" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>168</v>
@@ -4294,7 +4302,7 @@
     </row>
     <row r="5" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>38</v>
@@ -5423,8 +5431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -5460,7 +5468,7 @@
         <v>252</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>288</v>
@@ -5484,7 +5492,7 @@
         <v>293</v>
       </c>
       <c r="N1" s="31" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1">
@@ -5492,7 +5500,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>179</v>
+        <v>487</v>
       </c>
       <c r="C2" s="31" t="s">
         <v>243</v>
@@ -5504,7 +5512,7 @@
         <v>184</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>172</v>
@@ -5528,7 +5536,7 @@
         <v>297</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1">
@@ -5536,7 +5544,7 @@
         <v>298</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>345</v>
+        <v>488</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>299</v>
@@ -5551,7 +5559,7 @@
         <v>300</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H3" s="35" t="s">
         <v>344</v>
@@ -5580,7 +5588,7 @@
         <v>298</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>345</v>
+        <v>486</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>299</v>
@@ -5595,7 +5603,7 @@
         <v>300</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H4" s="35" t="s">
         <v>303</v>
@@ -5624,7 +5632,7 @@
         <v>298</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>345</v>
+        <v>486</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>299</v>
@@ -5639,7 +5647,7 @@
         <v>300</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H5" s="35" t="s">
         <v>304</v>
@@ -5668,7 +5676,7 @@
         <v>305</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>299</v>
@@ -5683,7 +5691,7 @@
         <v>300</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H6" s="35" t="s">
         <v>306</v>
@@ -5712,7 +5720,7 @@
         <v>305</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>299</v>
@@ -5727,7 +5735,7 @@
         <v>300</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H7" s="35" t="s">
         <v>307</v>
@@ -5756,7 +5764,7 @@
         <v>305</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>299</v>
@@ -5771,7 +5779,7 @@
         <v>300</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H8" s="35" t="s">
         <v>308</v>
@@ -5800,7 +5808,7 @@
         <v>309</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>299</v>
@@ -5815,7 +5823,7 @@
         <v>300</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H9" s="35" t="s">
         <v>310</v>
@@ -5844,7 +5852,7 @@
         <v>309</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>299</v>
@@ -5859,7 +5867,7 @@
         <v>300</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H10" s="35" t="s">
         <v>312</v>
@@ -5888,7 +5896,7 @@
         <v>309</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>299</v>
@@ -5903,7 +5911,7 @@
         <v>300</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H11" s="35" t="s">
         <v>313</v>
@@ -5932,7 +5940,7 @@
         <v>314</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>299</v>
@@ -5947,7 +5955,7 @@
         <v>300</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H12" s="35" t="s">
         <v>315</v>
@@ -5976,7 +5984,7 @@
         <v>314</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C13" s="34" t="s">
         <v>299</v>
@@ -5991,7 +5999,7 @@
         <v>300</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H13" s="35" t="s">
         <v>316</v>
@@ -6020,7 +6028,7 @@
         <v>314</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>299</v>
@@ -6035,7 +6043,7 @@
         <v>300</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H14" s="35" t="s">
         <v>317</v>
@@ -6064,7 +6072,7 @@
         <v>318</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>299</v>
@@ -6079,7 +6087,7 @@
         <v>302</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H15" s="35" t="s">
         <v>319</v>
@@ -6108,7 +6116,7 @@
         <v>318</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>299</v>
@@ -6123,7 +6131,7 @@
         <v>302</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H16" s="35" t="s">
         <v>321</v>
@@ -6152,7 +6160,7 @@
         <v>318</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C17" s="34" t="s">
         <v>299</v>
@@ -6167,7 +6175,7 @@
         <v>302</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H17" s="35" t="s">
         <v>322</v>
@@ -6193,10 +6201,10 @@
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
       <c r="A18" s="34" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C18" s="34" t="s">
         <v>324</v>
@@ -6211,7 +6219,7 @@
         <v>300</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H18" s="35" t="s">
         <v>325</v>
@@ -6240,7 +6248,7 @@
         <v>323</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C19" s="34" t="s">
         <v>324</v>
@@ -6255,7 +6263,7 @@
         <v>300</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H19" s="35" t="s">
         <v>326</v>
@@ -6284,7 +6292,7 @@
         <v>323</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C20" s="34" t="s">
         <v>324</v>
@@ -6299,7 +6307,7 @@
         <v>300</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H20" s="35" t="s">
         <v>327</v>
@@ -6328,7 +6336,7 @@
         <v>328</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C21" s="34" t="s">
         <v>324</v>
@@ -6343,7 +6351,7 @@
         <v>300</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H21" s="35" t="s">
         <v>329</v>
@@ -6372,7 +6380,7 @@
         <v>328</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C22" s="34" t="s">
         <v>324</v>
@@ -6387,7 +6395,7 @@
         <v>300</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H22" s="35" t="s">
         <v>330</v>
@@ -6416,7 +6424,7 @@
         <v>328</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C23" s="34" t="s">
         <v>324</v>
@@ -6431,7 +6439,7 @@
         <v>300</v>
       </c>
       <c r="G23" s="34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H23" s="35" t="s">
         <v>331</v>
@@ -6460,7 +6468,7 @@
         <v>332</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C24" s="34" t="s">
         <v>324</v>
@@ -6475,7 +6483,7 @@
         <v>300</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H24" s="35" t="s">
         <v>333</v>
@@ -6504,7 +6512,7 @@
         <v>332</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C25" s="34" t="s">
         <v>324</v>
@@ -6519,7 +6527,7 @@
         <v>300</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H25" s="35" t="s">
         <v>334</v>
@@ -6548,7 +6556,7 @@
         <v>332</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C26" s="34" t="s">
         <v>324</v>
@@ -6563,7 +6571,7 @@
         <v>300</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H26" s="35" t="s">
         <v>335</v>
@@ -6592,7 +6600,7 @@
         <v>336</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C27" s="34" t="s">
         <v>324</v>
@@ -6607,7 +6615,7 @@
         <v>300</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H27" s="35" t="s">
         <v>337</v>
@@ -6636,7 +6644,7 @@
         <v>336</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C28" s="34" t="s">
         <v>324</v>
@@ -6651,7 +6659,7 @@
         <v>300</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H28" s="35" t="s">
         <v>338</v>
@@ -6680,7 +6688,7 @@
         <v>336</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C29" s="34" t="s">
         <v>324</v>
@@ -6695,7 +6703,7 @@
         <v>300</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H29" s="35" t="s">
         <v>339</v>
@@ -6724,7 +6732,7 @@
         <v>340</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C30" s="34" t="s">
         <v>324</v>
@@ -6739,7 +6747,7 @@
         <v>300</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H30" s="35" t="s">
         <v>341</v>
@@ -6768,7 +6776,7 @@
         <v>340</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C31" s="34" t="s">
         <v>324</v>
@@ -6783,7 +6791,7 @@
         <v>300</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H31" s="35" t="s">
         <v>342</v>
@@ -6812,7 +6820,7 @@
         <v>340</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C32" s="34" t="s">
         <v>324</v>
@@ -6827,7 +6835,7 @@
         <v>300</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H32" s="35" t="s">
         <v>343</v>
@@ -6933,7 +6941,7 @@
         <v>256</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J2" s="37" t="s">
         <v>257</v>
@@ -6942,10 +6950,10 @@
         <v>258</v>
       </c>
       <c r="L2" s="37" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M2" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N2" s="46"/>
     </row>
@@ -6954,40 +6962,40 @@
         <v>260</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C3" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="D3" s="40" t="s">
         <v>396</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="E3" s="41" t="s">
         <v>397</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="F3" s="41" t="s">
         <v>398</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="G3" s="42" t="s">
         <v>399</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="H3" s="40" t="s">
         <v>400</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="I3" s="40" t="s">
         <v>401</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="J3" s="40" t="s">
         <v>402</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="K3" s="40" t="s">
         <v>403</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="L3" s="40" t="s">
         <v>404</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="M3" s="39" t="s">
         <v>405</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>406</v>
       </c>
       <c r="N3" s="39"/>
     </row>
@@ -6996,10 +7004,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D4" s="24">
         <v>123456</v>
@@ -7023,7 +7031,7 @@
       <c r="K4" s="24"/>
       <c r="L4" s="27"/>
       <c r="M4" s="27" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N4" s="23" t="s">
         <v>263</v>
@@ -7034,10 +7042,10 @@
         <v>31</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D5" s="24">
         <v>123456</v>
@@ -7061,7 +7069,7 @@
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
       <c r="M5" s="24" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N5" s="23" t="s">
         <v>263</v>
@@ -7072,19 +7080,19 @@
         <v>13</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D6" s="24">
         <v>123456</v>
       </c>
       <c r="E6" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="F6" s="25" t="s">
         <v>407</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>408</v>
       </c>
       <c r="G6" s="28">
         <v>2000</v>
@@ -7099,7 +7107,7 @@
       <c r="K6" s="24"/>
       <c r="L6" s="24"/>
       <c r="M6" s="24" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N6" s="23" t="s">
         <v>263</v>
@@ -7110,10 +7118,10 @@
         <v>264</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D7" s="24">
         <v>123321</v>
@@ -7148,10 +7156,10 @@
         <v>264</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D8" s="24">
         <v>123321</v>
@@ -7170,11 +7178,11 @@
       </c>
       <c r="I8" s="24"/>
       <c r="J8" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K8" s="24"/>
       <c r="L8" s="24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M8" s="24"/>
       <c r="N8" s="24" t="s">
@@ -7186,10 +7194,10 @@
         <v>270</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D9" s="24">
         <v>321321</v>
@@ -7216,10 +7224,10 @@
         <v>270</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D10" s="24">
         <v>321321</v>
@@ -7238,11 +7246,11 @@
       </c>
       <c r="I10" s="24"/>
       <c r="J10" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M10" s="24"/>
       <c r="N10" s="24" t="s">
@@ -7254,19 +7262,19 @@
         <v>273</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D11" s="24">
         <v>112233</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G11" s="28">
         <v>2000</v>
@@ -7275,7 +7283,7 @@
         <v>261</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J11" s="24" t="s">
         <v>274</v>
@@ -7292,10 +7300,10 @@
         <v>273</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D12" s="24">
         <v>112233</v>
@@ -7304,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G12" s="28">
         <v>2000</v>
@@ -7313,7 +7321,7 @@
         <v>261</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J12" s="24" t="s">
         <v>274</v>
@@ -7330,10 +7338,10 @@
         <v>276</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D13" s="24">
         <v>147147</v>
@@ -7352,7 +7360,7 @@
       </c>
       <c r="I13" s="24"/>
       <c r="J13" s="24" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
@@ -7368,10 +7376,10 @@
         <v>279</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D14" s="29">
         <v>456456</v>
@@ -7402,10 +7410,10 @@
         <v>282</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D15" s="23">
         <v>232323</v>
@@ -7435,16 +7443,16 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="B16" s="47" t="s">
         <v>425</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="C16" s="48" t="s">
+        <v>429</v>
+      </c>
+      <c r="D16" s="47" t="s">
         <v>426</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>430</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>427</v>
       </c>
       <c r="E16" s="47" t="s">
         <v>249</v>
@@ -7458,15 +7466,15 @@
       </c>
       <c r="I16" s="47"/>
       <c r="J16" s="48" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K16" s="47"/>
       <c r="L16" s="47"/>
       <c r="M16" s="47" t="s">
+        <v>427</v>
+      </c>
+      <c r="N16" s="47" t="s">
         <v>428</v>
-      </c>
-      <c r="N16" s="47" t="s">
-        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -7502,13 +7510,13 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" thickBot="1">
       <c r="A1" s="49" t="s">
+        <v>430</v>
+      </c>
+      <c r="B1" s="49" t="s">
         <v>431</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="C1" s="49" t="s">
         <v>432</v>
-      </c>
-      <c r="C1" s="49" t="s">
-        <v>433</v>
       </c>
       <c r="D1" s="49" t="s">
         <v>177</v>
@@ -7517,13 +7525,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G1" s="49" t="s">
         <v>195</v>
       </c>
       <c r="H1" s="49" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24.75" thickBot="1">
@@ -7534,27 +7542,27 @@
         <v>171</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D2" s="49" t="s">
         <v>180</v>
       </c>
       <c r="E2" s="49" t="s">
+        <v>436</v>
+      </c>
+      <c r="F2" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="G2" s="49" t="s">
         <v>438</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="H2" s="49" t="s">
         <v>439</v>
-      </c>
-      <c r="H2" s="49" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" thickBot="1">
       <c r="A3" s="50" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B3" s="50">
         <v>11111111111</v>
@@ -7563,10 +7571,10 @@
         <v>22222222221</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F3" s="50">
         <v>112233</v>
@@ -7575,12 +7583,12 @@
         <v>111</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" thickBot="1">
       <c r="A4" s="50" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B4" s="50">
         <v>11111111112</v>
@@ -7589,10 +7597,10 @@
         <v>22222222222</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F4" s="50">
         <v>112233</v>
@@ -7601,7 +7609,7 @@
         <v>112</v>
       </c>
       <c r="H4" s="50" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" thickBot="1">
@@ -7615,10 +7623,10 @@
         <v>22222222223</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F5" s="50">
         <v>112233</v>
@@ -7627,7 +7635,7 @@
         <v>113</v>
       </c>
       <c r="H5" s="50" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" thickBot="1">
@@ -7641,10 +7649,10 @@
         <v>22222222224</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F6" s="50">
         <v>112233</v>
@@ -7653,7 +7661,7 @@
         <v>114</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" thickBot="1">
@@ -7667,10 +7675,10 @@
         <v>22222222225</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F7" s="50">
         <v>112233</v>
@@ -7679,7 +7687,7 @@
         <v>115</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25" thickBot="1">
@@ -7693,10 +7701,10 @@
         <v>22222222226</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F8" s="50">
         <v>112233</v>
@@ -7705,12 +7713,12 @@
         <v>116</v>
       </c>
       <c r="H8" s="50" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25" thickBot="1">
       <c r="A9" s="50" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B9" s="50">
         <v>11111111117</v>
@@ -7719,10 +7727,10 @@
         <v>22222222227</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F9" s="50">
         <v>112233</v>
@@ -7731,7 +7739,7 @@
         <v>117</v>
       </c>
       <c r="H9" s="50" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
